--- a/excel/new_prise_s.xlsx
+++ b/excel/new_prise_s.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wamp\www\Fortest\asm_journal\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6539C242-BE34-48F1-B3E2-470EB02BC367}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B66E46-6EB6-4376-9DA9-EBB61DF60F94}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="3075" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="основной" sheetId="1" r:id="rId1"/>
@@ -21,19 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="1238">
-  <si>
-    <t>Код услуги</t>
-  </si>
-  <si>
-    <t>Код услуги по номенклатуре</t>
-  </si>
-  <si>
-    <t>Наименование услуги</t>
-  </si>
-  <si>
-    <t>Прием, консультация</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="1225">
   <si>
     <t>B01.065.007</t>
   </si>
@@ -125,9 +113,6 @@
     <t>Прием (осмотр, консультация) врача-стоматолога повторный с целью осмотра, консультации, коррекции пломбы (протеза) или другой манипуляции в течение гарантийного срока</t>
   </si>
   <si>
-    <t>Диагностические  методы исследования</t>
-  </si>
-  <si>
     <t>А06.07.003</t>
   </si>
   <si>
@@ -152,9 +137,6 @@
     <t xml:space="preserve">Запись снимка ортопантомографии на  CD диск  </t>
   </si>
   <si>
-    <t>Общие виды работ</t>
-  </si>
-  <si>
     <t xml:space="preserve">A01.07.001 </t>
   </si>
   <si>
@@ -206,9 +188,6 @@
     <t>Использование микроскопа в работе врача-стоматолога (1 посещение)</t>
   </si>
   <si>
-    <t>Анестезия</t>
-  </si>
-  <si>
     <t>В01.003.004.001</t>
   </si>
   <si>
@@ -224,9 +203,6 @@
     <t>В01.003.004.003</t>
   </si>
   <si>
-    <t>Профилактика и гигиена</t>
-  </si>
-  <si>
     <t>Профессиональная гигиена полости рта и зубов (снятие зубных отложений с помощью ультразвука,   отбеливание зубов системой «Air-flow», покрытие  фтор.лаком (1 челюсть)</t>
   </si>
   <si>
@@ -276,9 +252,6 @@
   </si>
   <si>
     <t>Запечатывание фиссуры зуба герметиком</t>
-  </si>
-  <si>
-    <t>Лечение кариеса</t>
   </si>
   <si>
     <t>А02.07.002</t>
@@ -333,9 +306,6 @@
   </si>
   <si>
     <t>Восстановление зуба пломбой с использованием стоматологических светооттверждаемых материалов (полное восстановление)</t>
-  </si>
-  <si>
-    <t>Лечение пульпита</t>
   </si>
   <si>
     <t>A16.07.009</t>
@@ -1687,14 +1657,6 @@
     <t> 0</t>
   </si>
   <si>
-    <t>Стоимость услуги</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Детская стоматология
-на оказание стоматологических услуг
-</t>
-  </si>
-  <si>
     <t>A11.07.012.003</t>
   </si>
   <si>
@@ -2994,9 +2956,6 @@
   </si>
   <si>
     <t>11.16.1</t>
-  </si>
-  <si>
-    <t>12.1</t>
   </si>
   <si>
     <t>12.1.1</t>
@@ -4191,7 +4150,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4260,24 +4219,10 @@
     </font>
     <font>
       <b/>
-      <sz val="22"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
       <sz val="14"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -4296,21 +4241,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -4369,27 +4305,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4398,34 +4334,34 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4434,46 +4370,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4481,25 +4405,28 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4508,16 +4435,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4860,37 +4790,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E387"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A373" workbookViewId="0">
-      <selection activeCell="A292" sqref="A292:XFD292"/>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="A292" sqref="A292"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5703125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" style="41" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="37" customWidth="1"/>
     <col min="3" max="3" width="98.140625" style="8" customWidth="1"/>
     <col min="4" max="4" width="12.85546875" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
-        <v>1237</v>
-      </c>
-      <c r="B1" s="44">
+      <c r="A1" s="39" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B1" s="40">
         <v>127</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="45"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="41"/>
     </row>
     <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D2" s="23">
         <v>300</v>
@@ -4898,13 +4828,13 @@
     </row>
     <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D3" s="23">
         <v>220</v>
@@ -4912,13 +4842,13 @@
     </row>
     <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="D4" s="23">
         <v>300</v>
@@ -4926,27 +4856,27 @@
     </row>
     <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>385</v>
-      </c>
-      <c r="D5" s="42" t="s">
-        <v>10</v>
+        <v>375</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="D6" s="23">
         <v>2300</v>
@@ -4954,13 +4884,13 @@
     </row>
     <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="D7" s="23">
         <v>2800</v>
@@ -4968,13 +4898,13 @@
     </row>
     <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="D8" s="23">
         <v>4800</v>
@@ -4982,13 +4912,13 @@
     </row>
     <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="D9" s="23">
         <v>500</v>
@@ -4996,83 +4926,83 @@
     </row>
     <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="42" t="s">
-        <v>13</v>
+        <v>8</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="42">
+        <v>25</v>
+      </c>
+      <c r="D11" s="38">
         <v>300</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="42" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="42" t="s">
         <v>13</v>
+      </c>
+      <c r="D13" s="38" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="42" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D15" s="23">
         <v>300</v>
@@ -5080,13 +5010,13 @@
     </row>
     <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D16" s="23">
         <v>220</v>
@@ -5094,13 +5024,13 @@
     </row>
     <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="D17" s="23">
         <v>300</v>
@@ -5108,13 +5038,13 @@
     </row>
     <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="B18" s="28" t="s">
-        <v>26</v>
+        <v>263</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>22</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D18" s="23">
         <v>220</v>
@@ -5122,65 +5052,65 @@
     </row>
     <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="B19" s="28" t="s">
-        <v>402</v>
+        <v>389</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>392</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="42">
+        <v>26</v>
+      </c>
+      <c r="D19" s="38">
         <v>300</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>403</v>
+        <v>390</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>393</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="42">
+        <v>27</v>
+      </c>
+      <c r="D20" s="38">
         <v>2500</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="42" t="s">
-        <v>10</v>
+        <v>29</v>
+      </c>
+      <c r="D21" s="38" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="43" t="s">
-        <v>1237</v>
-      </c>
-      <c r="B22" s="44">
+      <c r="A22" s="39" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B22" s="40">
         <v>128</v>
       </c>
-      <c r="C22" s="44"/>
-      <c r="D22" s="45"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="41"/>
     </row>
     <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" s="28" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>30</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D23" s="23">
         <v>100</v>
@@ -5188,13 +5118,13 @@
     </row>
     <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="B24" s="28" t="s">
-        <v>1076</v>
+        <v>264</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>1063</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D24" s="23">
         <v>400</v>
@@ -5202,13 +5132,13 @@
     </row>
     <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B25" s="28" t="s">
-        <v>1077</v>
+        <v>265</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>1064</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D25" s="23">
         <v>800</v>
@@ -5216,13 +5146,13 @@
     </row>
     <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="B26" s="28" t="s">
-        <v>704</v>
+        <v>266</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>692</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D26" s="23">
         <v>500</v>
@@ -5230,13 +5160,13 @@
     </row>
     <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="B27" s="28" t="s">
-        <v>705</v>
+        <v>267</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>693</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D27" s="23">
         <v>1850</v>
@@ -5244,49 +5174,49 @@
     </row>
     <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D28" s="23">
         <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="43" t="s">
-        <v>1237</v>
-      </c>
-      <c r="B29" s="44">
+      <c r="A29" s="39" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B29" s="40">
         <v>130</v>
       </c>
-      <c r="C29" s="44"/>
-      <c r="D29" s="45"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="41"/>
     </row>
     <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>976</v>
+        <v>963</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D31" s="23">
         <v>170</v>
@@ -5294,13 +5224,13 @@
     </row>
     <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D32" s="23">
         <v>50</v>
@@ -5308,13 +5238,13 @@
     </row>
     <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D33" s="23">
         <v>50</v>
@@ -5322,13 +5252,13 @@
     </row>
     <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D34" s="23">
         <v>100</v>
@@ -5336,13 +5266,13 @@
     </row>
     <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D35" s="23">
         <v>100</v>
@@ -5350,13 +5280,13 @@
     </row>
     <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D36" s="23">
         <v>500</v>
@@ -5364,13 +5294,13 @@
     </row>
     <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>725</v>
+        <v>713</v>
       </c>
       <c r="D37" s="23">
         <v>500</v>
@@ -5378,47 +5308,47 @@
     </row>
     <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D38" s="23"/>
     </row>
     <row r="39" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="B39" s="10"/>
       <c r="C39" s="6" t="s">
-        <v>916</v>
+        <v>904</v>
       </c>
       <c r="D39" s="7">
         <v>220</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="43" t="s">
-        <v>1237</v>
-      </c>
-      <c r="B40" s="44">
+      <c r="A40" s="39" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B40" s="40">
         <v>131</v>
       </c>
-      <c r="C40" s="44"/>
-      <c r="D40" s="45"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="41"/>
     </row>
     <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D41" s="23">
         <v>170</v>
@@ -5426,13 +5356,13 @@
     </row>
     <row r="42" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D42" s="23">
         <v>500</v>
@@ -5440,37 +5370,37 @@
     </row>
     <row r="43" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>697</v>
+        <v>685</v>
       </c>
       <c r="D43" s="23">
         <v>5500</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="43" t="s">
-        <v>1237</v>
-      </c>
-      <c r="B44" s="44">
+      <c r="A44" s="39" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B44" s="40">
         <v>132</v>
       </c>
-      <c r="C44" s="44"/>
-      <c r="D44" s="45"/>
+      <c r="C44" s="40"/>
+      <c r="D44" s="41"/>
     </row>
     <row r="45" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="B45" s="28" t="s">
-        <v>79</v>
+        <v>282</v>
+      </c>
+      <c r="B45" s="25" t="s">
+        <v>71</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D45" s="23">
         <v>500</v>
@@ -5478,13 +5408,13 @@
     </row>
     <row r="46" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="B46" s="28" t="s">
-        <v>293</v>
+        <v>284</v>
+      </c>
+      <c r="B46" s="25" t="s">
+        <v>283</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D46" s="23">
         <v>200</v>
@@ -5492,13 +5422,13 @@
     </row>
     <row r="47" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="B47" s="28" t="s">
-        <v>1078</v>
+        <v>285</v>
+      </c>
+      <c r="B47" s="25" t="s">
+        <v>1065</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D47" s="23">
         <v>600</v>
@@ -5506,13 +5436,13 @@
     </row>
     <row r="48" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="B48" s="28" t="s">
-        <v>81</v>
+        <v>286</v>
+      </c>
+      <c r="B48" s="25" t="s">
+        <v>73</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D48" s="23">
         <v>300</v>
@@ -5520,13 +5450,13 @@
     </row>
     <row r="49" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="B49" s="28" t="s">
-        <v>77</v>
+        <v>287</v>
+      </c>
+      <c r="B49" s="25" t="s">
+        <v>69</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D49" s="23">
         <v>110</v>
@@ -5534,13 +5464,13 @@
     </row>
     <row r="50" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="B50" s="28" t="s">
-        <v>1170</v>
+        <v>288</v>
+      </c>
+      <c r="B50" s="25" t="s">
+        <v>1157</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D50" s="23">
         <v>110</v>
@@ -5548,13 +5478,13 @@
     </row>
     <row r="51" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="B51" s="28" t="s">
-        <v>1171</v>
+        <v>289</v>
+      </c>
+      <c r="B51" s="25" t="s">
+        <v>1158</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D51" s="23">
         <v>2000</v>
@@ -5562,13 +5492,13 @@
     </row>
     <row r="52" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="B52" s="28" t="s">
-        <v>1172</v>
+        <v>290</v>
+      </c>
+      <c r="B52" s="25" t="s">
+        <v>1159</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D52" s="23">
         <v>700</v>
@@ -5576,13 +5506,13 @@
     </row>
     <row r="53" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="B53" s="28" t="s">
-        <v>1173</v>
+        <v>291</v>
+      </c>
+      <c r="B53" s="25" t="s">
+        <v>1160</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D53" s="23">
         <v>2500</v>
@@ -5590,13 +5520,13 @@
     </row>
     <row r="54" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="B54" s="28" t="s">
-        <v>1174</v>
+        <v>292</v>
+      </c>
+      <c r="B54" s="25" t="s">
+        <v>1161</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D54" s="23">
         <v>25000</v>
@@ -5604,13 +5534,13 @@
     </row>
     <row r="55" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="B55" s="28" t="s">
-        <v>546</v>
+        <v>293</v>
+      </c>
+      <c r="B55" s="25" t="s">
+        <v>534</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D55" s="23">
         <v>2500</v>
@@ -5618,47 +5548,47 @@
     </row>
     <row r="56" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="B56" s="28" t="s">
-        <v>69</v>
+        <v>294</v>
+      </c>
+      <c r="B56" s="25" t="s">
+        <v>61</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>777</v>
+        <v>765</v>
       </c>
       <c r="D56" s="23">
         <v>150</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="43" t="s">
-        <v>1237</v>
-      </c>
-      <c r="B57" s="44">
+      <c r="A57" s="39" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B57" s="40">
         <v>133</v>
       </c>
-      <c r="C57" s="44"/>
-      <c r="D57" s="45"/>
+      <c r="C57" s="40"/>
+      <c r="D57" s="41"/>
     </row>
     <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>1237</v>
-      </c>
-      <c r="B58" s="46">
+        <v>1224</v>
+      </c>
+      <c r="B58" s="42">
         <v>134</v>
       </c>
-      <c r="C58" s="47"/>
-      <c r="D58" s="48"/>
+      <c r="C58" s="43"/>
+      <c r="D58" s="44"/>
     </row>
     <row r="59" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="18" t="s">
-        <v>779</v>
-      </c>
-      <c r="B59" s="35" t="s">
-        <v>1080</v>
+        <v>767</v>
+      </c>
+      <c r="B59" s="31" t="s">
+        <v>1067</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>990</v>
+        <v>977</v>
       </c>
       <c r="D59" s="23">
         <v>200</v>
@@ -5666,13 +5596,13 @@
     </row>
     <row r="60" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="18" t="s">
-        <v>780</v>
-      </c>
-      <c r="B60" s="35" t="s">
-        <v>183</v>
+        <v>768</v>
+      </c>
+      <c r="B60" s="31" t="s">
+        <v>173</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>1099</v>
+        <v>1086</v>
       </c>
       <c r="D60" s="23">
         <v>350</v>
@@ -5680,13 +5610,13 @@
     </row>
     <row r="61" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="18" t="s">
-        <v>778</v>
-      </c>
-      <c r="B61" s="35" t="s">
-        <v>985</v>
+        <v>766</v>
+      </c>
+      <c r="B61" s="31" t="s">
+        <v>972</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D61" s="23">
         <v>270</v>
@@ -5694,13 +5624,13 @@
     </row>
     <row r="62" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="18" t="s">
-        <v>781</v>
-      </c>
-      <c r="B62" s="35" t="s">
-        <v>699</v>
+        <v>769</v>
+      </c>
+      <c r="B62" s="31" t="s">
+        <v>687</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>700</v>
+        <v>688</v>
       </c>
       <c r="D62" s="23">
         <v>220</v>
@@ -5708,13 +5638,13 @@
     </row>
     <row r="63" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="18" t="s">
-        <v>782</v>
-      </c>
-      <c r="B63" s="35" t="s">
-        <v>702</v>
+        <v>770</v>
+      </c>
+      <c r="B63" s="31" t="s">
+        <v>690</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D63" s="23">
         <v>220</v>
@@ -5722,13 +5652,13 @@
     </row>
     <row r="64" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="18" t="s">
-        <v>783</v>
-      </c>
-      <c r="B64" s="35" t="s">
-        <v>1196</v>
+        <v>771</v>
+      </c>
+      <c r="B64" s="31" t="s">
+        <v>1183</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>1098</v>
+        <v>1085</v>
       </c>
       <c r="D64" s="23">
         <v>270</v>
@@ -5736,13 +5666,13 @@
     </row>
     <row r="65" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="18" t="s">
-        <v>784</v>
-      </c>
-      <c r="B65" s="35" t="s">
-        <v>1197</v>
+        <v>772</v>
+      </c>
+      <c r="B65" s="31" t="s">
+        <v>1184</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>1198</v>
+        <v>1185</v>
       </c>
       <c r="D65" s="23">
         <v>300</v>
@@ -5750,13 +5680,13 @@
     </row>
     <row r="66" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="18" t="s">
-        <v>785</v>
-      </c>
-      <c r="B66" s="35" t="s">
-        <v>706</v>
+        <v>773</v>
+      </c>
+      <c r="B66" s="31" t="s">
+        <v>694</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="D66" s="23">
         <v>150</v>
@@ -5764,13 +5694,13 @@
     </row>
     <row r="67" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>1216</v>
-      </c>
-      <c r="B67" s="28" t="s">
-        <v>178</v>
+        <v>1203</v>
+      </c>
+      <c r="B67" s="25" t="s">
+        <v>168</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="D67" s="23">
         <v>250</v>
@@ -5778,13 +5708,13 @@
     </row>
     <row r="68" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>1217</v>
-      </c>
-      <c r="B68" s="28" t="s">
-        <v>86</v>
+        <v>1204</v>
+      </c>
+      <c r="B68" s="25" t="s">
+        <v>77</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D68" s="23">
         <v>100</v>
@@ -5792,13 +5722,13 @@
     </row>
     <row r="69" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>1218</v>
-      </c>
-      <c r="B69" s="28" t="s">
-        <v>182</v>
+        <v>1205</v>
+      </c>
+      <c r="B69" s="25" t="s">
+        <v>172</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>1032</v>
+        <v>1019</v>
       </c>
       <c r="D69" s="23">
         <v>1700</v>
@@ -5806,13 +5736,13 @@
     </row>
     <row r="70" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>1219</v>
-      </c>
-      <c r="B70" s="28" t="s">
-        <v>184</v>
+        <v>1206</v>
+      </c>
+      <c r="B70" s="25" t="s">
+        <v>174</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D70" s="23">
         <v>770</v>
@@ -5820,13 +5750,13 @@
     </row>
     <row r="71" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>1220</v>
-      </c>
-      <c r="B71" s="28" t="s">
-        <v>1151</v>
+        <v>1207</v>
+      </c>
+      <c r="B71" s="25" t="s">
+        <v>1138</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D71" s="23">
         <v>920</v>
@@ -5834,13 +5764,13 @@
     </row>
     <row r="72" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>1221</v>
-      </c>
-      <c r="B72" s="28" t="s">
-        <v>1152</v>
+        <v>1208</v>
+      </c>
+      <c r="B72" s="25" t="s">
+        <v>1139</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="D72" s="23">
         <v>1200</v>
@@ -5848,13 +5778,13 @@
     </row>
     <row r="73" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>1222</v>
-      </c>
-      <c r="B73" s="28" t="s">
-        <v>185</v>
+        <v>1209</v>
+      </c>
+      <c r="B73" s="25" t="s">
+        <v>175</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D73" s="23">
         <v>1200</v>
@@ -5862,13 +5792,13 @@
     </row>
     <row r="74" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>1223</v>
-      </c>
-      <c r="B74" s="28" t="s">
-        <v>186</v>
+        <v>1210</v>
+      </c>
+      <c r="B74" s="25" t="s">
+        <v>176</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="D74" s="23">
         <v>1950</v>
@@ -5876,13 +5806,13 @@
     </row>
     <row r="75" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>1224</v>
-      </c>
-      <c r="B75" s="28" t="s">
-        <v>1153</v>
+        <v>1211</v>
+      </c>
+      <c r="B75" s="25" t="s">
+        <v>1140</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D75" s="23">
         <v>2850</v>
@@ -5890,51 +5820,51 @@
     </row>
     <row r="76" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>1225</v>
-      </c>
-      <c r="B76" s="28" t="s">
-        <v>1154</v>
+        <v>1212</v>
+      </c>
+      <c r="B76" s="25" t="s">
+        <v>1141</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D76" s="23">
         <v>3100</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="43" t="s">
-        <v>1237</v>
-      </c>
-      <c r="B77" s="46">
+      <c r="A77" s="39" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B77" s="42">
         <v>135</v>
       </c>
-      <c r="C77" s="47"/>
-      <c r="D77" s="48"/>
+      <c r="C77" s="43"/>
+      <c r="D77" s="44"/>
     </row>
     <row r="78" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="B78" s="28" t="s">
-        <v>1155</v>
+        <v>296</v>
+      </c>
+      <c r="B78" s="25" t="s">
+        <v>1142</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D78" s="42">
+        <v>102</v>
+      </c>
+      <c r="D78" s="38">
         <v>550</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="B79" s="28" t="s">
-        <v>1156</v>
+        <v>297</v>
+      </c>
+      <c r="B79" s="25" t="s">
+        <v>1143</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>1229</v>
+        <v>1216</v>
       </c>
       <c r="D79" s="23">
         <v>1550</v>
@@ -5942,13 +5872,13 @@
     </row>
     <row r="80" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="B80" s="28" t="s">
-        <v>1157</v>
+        <v>298</v>
+      </c>
+      <c r="B80" s="25" t="s">
+        <v>1144</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>1228</v>
+        <v>1215</v>
       </c>
       <c r="D80" s="23">
         <v>1750</v>
@@ -5956,13 +5886,13 @@
     </row>
     <row r="81" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="B81" s="28" t="s">
-        <v>1158</v>
+        <v>299</v>
+      </c>
+      <c r="B81" s="25" t="s">
+        <v>1145</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>1230</v>
+        <v>1217</v>
       </c>
       <c r="D81" s="23">
         <v>2150</v>
@@ -5970,13 +5900,13 @@
     </row>
     <row r="82" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="B82" s="28" t="s">
-        <v>1159</v>
+        <v>300</v>
+      </c>
+      <c r="B82" s="25" t="s">
+        <v>1146</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="D82" s="23">
         <v>1100</v>
@@ -5984,61 +5914,61 @@
     </row>
     <row r="83" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="B83" s="28" t="s">
-        <v>1160</v>
+        <v>301</v>
+      </c>
+      <c r="B83" s="25" t="s">
+        <v>1147</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>1231</v>
-      </c>
-      <c r="D83" s="42"/>
+        <v>1218</v>
+      </c>
+      <c r="D83" s="38"/>
     </row>
     <row r="84" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="B84" s="28" t="s">
-        <v>1161</v>
+        <v>302</v>
+      </c>
+      <c r="B84" s="25" t="s">
+        <v>1148</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>1232</v>
-      </c>
-      <c r="D84" s="42"/>
+        <v>1219</v>
+      </c>
+      <c r="D84" s="38"/>
     </row>
     <row r="85" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="B85" s="28" t="s">
-        <v>1162</v>
+        <v>303</v>
+      </c>
+      <c r="B85" s="25" t="s">
+        <v>1149</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>1233</v>
+        <v>1220</v>
       </c>
       <c r="D85" s="3"/>
     </row>
     <row r="86" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="B86" s="28" t="s">
-        <v>1163</v>
+        <v>304</v>
+      </c>
+      <c r="B86" s="25" t="s">
+        <v>1150</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="D86" s="3"/>
     </row>
     <row r="87" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="B87" s="28" t="s">
-        <v>1164</v>
+        <v>305</v>
+      </c>
+      <c r="B87" s="25" t="s">
+        <v>1151</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>1234</v>
+        <v>1221</v>
       </c>
       <c r="D87" s="23">
         <v>600</v>
@@ -6046,13 +5976,13 @@
     </row>
     <row r="88" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="B88" s="28" t="s">
-        <v>1165</v>
+        <v>306</v>
+      </c>
+      <c r="B88" s="25" t="s">
+        <v>1152</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>1235</v>
+        <v>1222</v>
       </c>
       <c r="D88" s="23">
         <v>800</v>
@@ -6060,13 +5990,13 @@
     </row>
     <row r="89" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="B89" s="28" t="s">
-        <v>1166</v>
+        <v>307</v>
+      </c>
+      <c r="B89" s="25" t="s">
+        <v>1153</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>1236</v>
+        <v>1223</v>
       </c>
       <c r="D89" s="23">
         <v>1000</v>
@@ -6074,13 +6004,13 @@
     </row>
     <row r="90" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="B90" s="28" t="s">
-        <v>1167</v>
+        <v>308</v>
+      </c>
+      <c r="B90" s="25" t="s">
+        <v>1154</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="D90" s="23">
         <v>600</v>
@@ -6088,13 +6018,13 @@
     </row>
     <row r="91" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="B91" s="28" t="s">
-        <v>1168</v>
+        <v>309</v>
+      </c>
+      <c r="B91" s="25" t="s">
+        <v>1155</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="D91" s="23">
         <v>2000</v>
@@ -6102,13 +6032,13 @@
     </row>
     <row r="92" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="B92" s="28" t="s">
-        <v>101</v>
+        <v>310</v>
+      </c>
+      <c r="B92" s="25" t="s">
+        <v>91</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="D92" s="23">
         <v>500</v>
@@ -6116,13 +6046,13 @@
     </row>
     <row r="93" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>1209</v>
-      </c>
-      <c r="B93" s="28" t="s">
-        <v>710</v>
+        <v>1196</v>
+      </c>
+      <c r="B93" s="25" t="s">
+        <v>698</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>1213</v>
+        <v>1200</v>
       </c>
       <c r="D93" s="23">
         <v>380</v>
@@ -6130,13 +6060,13 @@
     </row>
     <row r="94" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>1210</v>
-      </c>
-      <c r="B94" s="28" t="s">
-        <v>712</v>
+        <v>1197</v>
+      </c>
+      <c r="B94" s="25" t="s">
+        <v>700</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>1214</v>
+        <v>1201</v>
       </c>
       <c r="D94" s="23">
         <v>760</v>
@@ -6144,13 +6074,13 @@
     </row>
     <row r="95" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>1211</v>
-      </c>
-      <c r="B95" s="28" t="s">
-        <v>1212</v>
+        <v>1198</v>
+      </c>
+      <c r="B95" s="25" t="s">
+        <v>1199</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>1215</v>
+        <v>1202</v>
       </c>
       <c r="D95" s="23">
         <v>1140</v>
@@ -6158,13 +6088,13 @@
     </row>
     <row r="96" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="B96" s="35" t="s">
-        <v>83</v>
+        <v>311</v>
+      </c>
+      <c r="B96" s="31" t="s">
+        <v>75</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D96" s="23">
         <v>850</v>
@@ -6172,13 +6102,13 @@
     </row>
     <row r="97" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="B97" s="28" t="s">
-        <v>711</v>
+        <v>312</v>
+      </c>
+      <c r="B97" s="25" t="s">
+        <v>699</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="D97" s="23">
         <v>270</v>
@@ -6186,13 +6116,13 @@
     </row>
     <row r="98" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="B98" s="35" t="s">
-        <v>104</v>
+        <v>314</v>
+      </c>
+      <c r="B98" s="31" t="s">
+        <v>94</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="D98" s="23">
         <v>1750</v>
@@ -6200,13 +6130,13 @@
     </row>
     <row r="99" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="B99" s="28" t="s">
-        <v>106</v>
+        <v>315</v>
+      </c>
+      <c r="B99" s="25" t="s">
+        <v>96</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="D99" s="23">
         <v>1950</v>
@@ -6214,13 +6144,13 @@
     </row>
     <row r="100" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="B100" s="28" t="s">
-        <v>92</v>
+        <v>316</v>
+      </c>
+      <c r="B100" s="25" t="s">
+        <v>83</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D100" s="23">
         <v>2200</v>
@@ -6228,13 +6158,13 @@
     </row>
     <row r="101" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="B101" s="28" t="s">
-        <v>109</v>
+        <v>317</v>
+      </c>
+      <c r="B101" s="25" t="s">
+        <v>99</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D101" s="23">
         <v>800</v>
@@ -6242,13 +6172,13 @@
     </row>
     <row r="102" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>1033</v>
-      </c>
-      <c r="B102" s="28" t="s">
-        <v>1169</v>
+        <v>1020</v>
+      </c>
+      <c r="B102" s="25" t="s">
+        <v>1156</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="D102" s="23">
         <v>800</v>
@@ -6256,13 +6186,13 @@
     </row>
     <row r="103" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>1034</v>
-      </c>
-      <c r="B103" s="28" t="s">
-        <v>1020</v>
+        <v>1021</v>
+      </c>
+      <c r="B103" s="25" t="s">
+        <v>1007</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>1095</v>
+        <v>1082</v>
       </c>
       <c r="D103" s="23">
         <v>550</v>
@@ -6270,13 +6200,13 @@
     </row>
     <row r="104" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>1226</v>
-      </c>
-      <c r="B104" s="28" t="s">
-        <v>1021</v>
+        <v>1213</v>
+      </c>
+      <c r="B104" s="25" t="s">
+        <v>1008</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>1227</v>
+        <v>1214</v>
       </c>
       <c r="D104" s="23">
         <v>420</v>
@@ -6284,13 +6214,13 @@
     </row>
     <row r="105" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="18" t="s">
-        <v>988</v>
-      </c>
-      <c r="B105" s="35" t="s">
-        <v>1092</v>
+        <v>975</v>
+      </c>
+      <c r="B105" s="31" t="s">
+        <v>1079</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>1096</v>
+        <v>1083</v>
       </c>
       <c r="D105" s="7">
         <v>390</v>
@@ -6298,37 +6228,37 @@
     </row>
     <row r="106" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="18" t="s">
-        <v>989</v>
-      </c>
-      <c r="B106" s="35" t="s">
-        <v>1093</v>
+        <v>976</v>
+      </c>
+      <c r="B106" s="31" t="s">
+        <v>1080</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>987</v>
-      </c>
-      <c r="D106" s="40">
+        <v>974</v>
+      </c>
+      <c r="D106" s="36">
         <v>550</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="43" t="s">
-        <v>1237</v>
-      </c>
-      <c r="B107" s="46">
+      <c r="A107" s="39" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B107" s="42">
         <v>136</v>
       </c>
-      <c r="C107" s="47"/>
-      <c r="D107" s="48"/>
+      <c r="C107" s="43"/>
+      <c r="D107" s="44"/>
     </row>
     <row r="108" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="B108" s="28" t="s">
-        <v>122</v>
+        <v>318</v>
+      </c>
+      <c r="B108" s="25" t="s">
+        <v>112</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="D108" s="23">
         <v>600</v>
@@ -6336,13 +6266,13 @@
     </row>
     <row r="109" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="B109" s="28" t="s">
-        <v>124</v>
+        <v>319</v>
+      </c>
+      <c r="B109" s="25" t="s">
+        <v>114</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="D109" s="23">
         <v>800</v>
@@ -6350,13 +6280,13 @@
     </row>
     <row r="110" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="B110" s="28" t="s">
-        <v>126</v>
+        <v>320</v>
+      </c>
+      <c r="B110" s="25" t="s">
+        <v>116</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="D110" s="23">
         <v>1000</v>
@@ -6364,13 +6294,13 @@
     </row>
     <row r="111" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>1182</v>
-      </c>
-      <c r="B111" s="35" t="s">
-        <v>1175</v>
+        <v>1169</v>
+      </c>
+      <c r="B111" s="31" t="s">
+        <v>1162</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="D111" s="23">
         <v>1300</v>
@@ -6378,13 +6308,13 @@
     </row>
     <row r="112" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>1183</v>
-      </c>
-      <c r="B112" s="35" t="s">
-        <v>1176</v>
+        <v>1170</v>
+      </c>
+      <c r="B112" s="31" t="s">
+        <v>1163</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D112" s="23">
         <v>2100</v>
@@ -6392,13 +6322,13 @@
     </row>
     <row r="113" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>1184</v>
-      </c>
-      <c r="B113" s="35" t="s">
-        <v>1177</v>
+        <v>1171</v>
+      </c>
+      <c r="B113" s="31" t="s">
+        <v>1164</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="D113" s="23">
         <v>2600</v>
@@ -6406,13 +6336,13 @@
     </row>
     <row r="114" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>1185</v>
-      </c>
-      <c r="B114" s="35" t="s">
-        <v>1178</v>
+        <v>1172</v>
+      </c>
+      <c r="B114" s="31" t="s">
+        <v>1165</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>1097</v>
+        <v>1084</v>
       </c>
       <c r="D114" s="23">
         <v>1600</v>
@@ -6420,13 +6350,13 @@
     </row>
     <row r="115" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>1193</v>
-      </c>
-      <c r="B115" s="28" t="s">
-        <v>1179</v>
+        <v>1180</v>
+      </c>
+      <c r="B115" s="25" t="s">
+        <v>1166</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="D115" s="23">
         <v>1500</v>
@@ -6434,13 +6364,13 @@
     </row>
     <row r="116" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>1194</v>
-      </c>
-      <c r="B116" s="35" t="s">
-        <v>1180</v>
+        <v>1181</v>
+      </c>
+      <c r="B116" s="31" t="s">
+        <v>1167</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="D116" s="23">
         <v>1500</v>
@@ -6448,37 +6378,37 @@
     </row>
     <row r="117" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>1195</v>
+        <v>1182</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="D117" s="23">
         <v>500</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A118" s="43" t="s">
-        <v>1237</v>
-      </c>
-      <c r="B118" s="44">
+      <c r="A118" s="39" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B118" s="40">
         <v>137</v>
       </c>
-      <c r="C118" s="44"/>
-      <c r="D118" s="45"/>
+      <c r="C118" s="40"/>
+      <c r="D118" s="41"/>
     </row>
     <row r="119" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>786</v>
+        <v>774</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="D119" s="7">
         <v>300</v>
@@ -6486,13 +6416,13 @@
     </row>
     <row r="120" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>787</v>
-      </c>
-      <c r="B120" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="C120" s="28" t="s">
-        <v>1181</v>
+        <v>775</v>
+      </c>
+      <c r="B120" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="C120" s="25" t="s">
+        <v>1168</v>
       </c>
       <c r="D120" s="23">
         <v>550</v>
@@ -6500,13 +6430,13 @@
     </row>
     <row r="121" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>788</v>
+        <v>776</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="D121" s="23">
         <v>4000</v>
@@ -6514,13 +6444,13 @@
     </row>
     <row r="122" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>789</v>
+        <v>777</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>679</v>
+        <v>667</v>
       </c>
       <c r="D122" s="23">
         <v>650</v>
@@ -6528,13 +6458,13 @@
     </row>
     <row r="123" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>790</v>
+        <v>778</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>727</v>
+        <v>715</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="D123" s="23">
         <v>220</v>
@@ -6542,13 +6472,13 @@
     </row>
     <row r="124" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>791</v>
+        <v>779</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="C124" s="10" t="s">
-        <v>680</v>
+        <v>668</v>
       </c>
       <c r="D124" s="23">
         <v>500</v>
@@ -6556,13 +6486,13 @@
     </row>
     <row r="125" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>792</v>
+        <v>780</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="D125" s="23">
         <v>5000</v>
@@ -6570,23 +6500,23 @@
     </row>
     <row r="126" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
-        <v>1237</v>
-      </c>
-      <c r="B126" s="49">
+        <v>1224</v>
+      </c>
+      <c r="B126" s="45">
         <v>142</v>
       </c>
-      <c r="C126" s="49"/>
-      <c r="D126" s="50"/>
+      <c r="C126" s="45"/>
+      <c r="D126" s="46"/>
     </row>
     <row r="127" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>793</v>
+        <v>781</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="D127" s="23">
         <v>290</v>
@@ -6594,13 +6524,13 @@
     </row>
     <row r="128" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>794</v>
+        <v>782</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="D128" s="23">
         <v>1000</v>
@@ -6608,13 +6538,13 @@
     </row>
     <row r="129" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>795</v>
+        <v>783</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="D129" s="23">
         <v>1500</v>
@@ -6622,13 +6552,13 @@
     </row>
     <row r="130" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>796</v>
+        <v>784</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="D130" s="23">
         <v>1200</v>
@@ -6636,13 +6566,13 @@
     </row>
     <row r="131" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>797</v>
+        <v>785</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D131" s="23">
         <v>1800</v>
@@ -6650,13 +6580,13 @@
     </row>
     <row r="132" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>798</v>
+        <v>786</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="D132" s="23">
         <v>1000</v>
@@ -6664,13 +6594,13 @@
     </row>
     <row r="133" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>1126</v>
+        <v>1113</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="D133" s="23">
         <v>4000</v>
@@ -6678,13 +6608,13 @@
     </row>
     <row r="134" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>1127</v>
+        <v>1114</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="D134" s="23">
         <f>1800+650</f>
@@ -6693,13 +6623,13 @@
     </row>
     <row r="135" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>799</v>
+        <v>787</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="D135" s="23">
         <v>5000</v>
@@ -6707,13 +6637,13 @@
     </row>
     <row r="136" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>800</v>
+        <v>788</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D136" s="23">
         <v>5000</v>
@@ -6721,13 +6651,13 @@
     </row>
     <row r="137" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>801</v>
+        <v>789</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="D137" s="23">
         <v>8000</v>
@@ -6735,13 +6665,13 @@
     </row>
     <row r="138" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>802</v>
+        <v>790</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="D138" s="23">
         <v>12000</v>
@@ -6749,13 +6679,13 @@
     </row>
     <row r="139" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>1100</v>
+        <v>1087</v>
       </c>
       <c r="B139" s="10" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="C139" s="10" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="D139" s="23">
         <v>3500</v>
@@ -6763,13 +6693,13 @@
     </row>
     <row r="140" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>1101</v>
+        <v>1088</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="D140" s="23">
         <v>5750</v>
@@ -6777,13 +6707,13 @@
     </row>
     <row r="141" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>1102</v>
+        <v>1089</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="D141" s="23">
         <v>2100</v>
@@ -6791,13 +6721,13 @@
     </row>
     <row r="142" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>1103</v>
+        <v>1090</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="D142" s="23">
         <v>550</v>
@@ -6805,13 +6735,13 @@
     </row>
     <row r="143" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>1104</v>
+        <v>1091</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="D143" s="23">
         <v>1000</v>
@@ -6819,13 +6749,13 @@
     </row>
     <row r="144" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>1105</v>
+        <v>1092</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="C144" s="28" t="s">
-        <v>1199</v>
+        <v>151</v>
+      </c>
+      <c r="C144" s="25" t="s">
+        <v>1186</v>
       </c>
       <c r="D144" s="23">
         <v>1500</v>
@@ -6833,13 +6763,13 @@
     </row>
     <row r="145" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>1106</v>
+        <v>1093</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="D145" s="23">
         <v>2200</v>
@@ -6847,13 +6777,13 @@
     </row>
     <row r="146" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>1107</v>
+        <v>1094</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>681</v>
+        <v>669</v>
       </c>
       <c r="D146" s="23">
         <v>330</v>
@@ -6861,13 +6791,13 @@
     </row>
     <row r="147" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>1108</v>
+        <v>1095</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="D147" s="23">
         <v>1650</v>
@@ -6875,13 +6805,13 @@
     </row>
     <row r="148" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>1109</v>
+        <v>1096</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="D148" s="23">
         <v>2750</v>
@@ -6889,13 +6819,13 @@
     </row>
     <row r="149" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>1110</v>
+        <v>1097</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="D149" s="23">
         <v>3850</v>
@@ -6903,13 +6833,13 @@
     </row>
     <row r="150" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>1111</v>
+        <v>1098</v>
       </c>
       <c r="B150" s="10" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="C150" s="10" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="D150" s="23">
         <v>7100</v>
@@ -6917,13 +6847,13 @@
     </row>
     <row r="151" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>1112</v>
+        <v>1099</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="D151" s="23">
         <v>1000</v>
@@ -6931,13 +6861,13 @@
     </row>
     <row r="152" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>1128</v>
+        <v>1115</v>
       </c>
       <c r="B152" s="10" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="D152" s="23">
         <v>4500</v>
@@ -6945,13 +6875,13 @@
     </row>
     <row r="153" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>1129</v>
+        <v>1116</v>
       </c>
       <c r="B153" s="10" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="D153" s="23">
         <v>7500</v>
@@ -6959,13 +6889,13 @@
     </row>
     <row r="154" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>1130</v>
+        <v>1117</v>
       </c>
       <c r="B154" s="10" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="D154" s="23">
         <v>5000</v>
@@ -6973,13 +6903,13 @@
     </row>
     <row r="155" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>1131</v>
+        <v>1118</v>
       </c>
       <c r="B155" s="10" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="D155" s="23">
         <v>8000</v>
@@ -6987,13 +6917,13 @@
     </row>
     <row r="156" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>1113</v>
+        <v>1100</v>
       </c>
       <c r="B156" s="10" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="C156" s="10" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="D156" s="23">
         <v>2100</v>
@@ -7001,13 +6931,13 @@
     </row>
     <row r="157" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>1114</v>
+        <v>1101</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="D157" s="23">
         <v>2500</v>
@@ -7015,13 +6945,13 @@
     </row>
     <row r="158" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>1115</v>
+        <v>1102</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="D158" s="23">
         <v>2500</v>
@@ -7029,13 +6959,13 @@
     </row>
     <row r="159" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>1116</v>
+        <v>1103</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="D159" s="23">
         <v>1750</v>
@@ -7043,13 +6973,13 @@
     </row>
     <row r="160" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>1117</v>
+        <v>1104</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="D160" s="23">
         <v>2750</v>
@@ -7057,13 +6987,13 @@
     </row>
     <row r="161" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>1118</v>
+        <v>1105</v>
       </c>
       <c r="B161" s="10" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="C161" s="10" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="D161" s="23">
         <v>5000</v>
@@ -7071,13 +7001,13 @@
     </row>
     <row r="162" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>1119</v>
+        <v>1106</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="D162" s="23">
         <v>300</v>
@@ -7085,13 +7015,13 @@
     </row>
     <row r="163" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>1120</v>
+        <v>1107</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="D163" s="23">
         <v>550</v>
@@ -7099,13 +7029,13 @@
     </row>
     <row r="164" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>1121</v>
+        <v>1108</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D164" s="23">
         <v>5000</v>
@@ -7113,13 +7043,13 @@
     </row>
     <row r="165" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>1122</v>
+        <v>1109</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="D165" s="23">
         <v>300</v>
@@ -7127,13 +7057,13 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>1123</v>
+        <v>1110</v>
       </c>
       <c r="B166" s="10" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="C166" s="11" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="D166" s="23">
         <v>600</v>
@@ -7141,13 +7071,13 @@
     </row>
     <row r="167" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>1124</v>
+        <v>1111</v>
       </c>
       <c r="B167" s="10" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="C167" s="10" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="D167" s="23">
         <v>300</v>
@@ -7155,37 +7085,37 @@
     </row>
     <row r="168" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>1125</v>
+        <v>1112</v>
       </c>
       <c r="B168" s="10" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="C168" s="10" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="D168" s="23">
         <v>300</v>
       </c>
     </row>
     <row r="169" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="43" t="s">
-        <v>1237</v>
-      </c>
-      <c r="B169" s="44">
+      <c r="A169" s="39" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B169" s="40">
         <v>138</v>
       </c>
-      <c r="C169" s="44"/>
-      <c r="D169" s="45"/>
+      <c r="C169" s="40"/>
+      <c r="D169" s="41"/>
     </row>
     <row r="170" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>1200</v>
+        <v>1187</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>1201</v>
+        <v>1188</v>
       </c>
       <c r="D170" s="23">
         <v>5500</v>
@@ -7193,13 +7123,13 @@
     </row>
     <row r="171" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>1202</v>
+        <v>1189</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>1203</v>
+        <v>1190</v>
       </c>
       <c r="D171" s="23">
         <v>10000</v>
@@ -7207,13 +7137,13 @@
     </row>
     <row r="172" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>1204</v>
+        <v>1191</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>1205</v>
+        <v>1192</v>
       </c>
       <c r="D172" s="23">
         <v>3300</v>
@@ -7221,13 +7151,13 @@
     </row>
     <row r="173" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>1206</v>
+        <v>1193</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>1207</v>
+        <v>1194</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>1208</v>
+        <v>1195</v>
       </c>
       <c r="D173" s="23">
         <v>5500</v>
@@ -7235,13 +7165,13 @@
     </row>
     <row r="174" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>803</v>
+        <v>791</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="D174" s="23">
         <v>10000</v>
@@ -7249,13 +7179,13 @@
     </row>
     <row r="175" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>804</v>
+        <v>792</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="D175" s="23">
         <v>13500</v>
@@ -7263,13 +7193,13 @@
     </row>
     <row r="176" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>805</v>
+        <v>793</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="D176" s="23">
         <v>300</v>
@@ -7277,13 +7207,13 @@
     </row>
     <row r="177" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>806</v>
+        <v>794</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="D177" s="23">
         <v>500</v>
@@ -7291,13 +7221,13 @@
     </row>
     <row r="178" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>807</v>
+        <v>795</v>
       </c>
       <c r="B178" s="10" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="C178" s="10" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="D178" s="23">
         <v>3000</v>
@@ -7305,13 +7235,13 @@
     </row>
     <row r="179" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>808</v>
+        <v>796</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="D179" s="23">
         <v>1300</v>
@@ -7319,13 +7249,13 @@
     </row>
     <row r="180" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>809</v>
+        <v>797</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="D180" s="23">
         <v>6000</v>
@@ -7333,13 +7263,13 @@
     </row>
     <row r="181" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>810</v>
+        <v>798</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="D181" s="23">
         <v>6600</v>
@@ -7347,13 +7277,13 @@
     </row>
     <row r="182" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>811</v>
+        <v>799</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="D182" s="23">
         <v>2200</v>
@@ -7361,13 +7291,13 @@
     </row>
     <row r="183" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>812</v>
+        <v>800</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="D183" s="23">
         <v>7700</v>
@@ -7375,13 +7305,13 @@
     </row>
     <row r="184" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>813</v>
+        <v>801</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="D184" s="23">
         <v>9900</v>
@@ -7389,13 +7319,13 @@
     </row>
     <row r="185" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>814</v>
+        <v>802</v>
       </c>
       <c r="B185" s="10" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="C185" s="10" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="D185" s="23">
         <v>1000</v>
@@ -7403,191 +7333,191 @@
     </row>
     <row r="186" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A186" s="14" t="s">
-        <v>815</v>
+        <v>803</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="C186" s="10" t="s">
-        <v>695</v>
+        <v>683</v>
       </c>
       <c r="D186" s="23">
         <v>12500</v>
       </c>
     </row>
     <row r="187" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="43" t="s">
-        <v>1237</v>
-      </c>
-      <c r="B187" s="44">
+      <c r="A187" s="39" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B187" s="40">
         <v>139</v>
       </c>
-      <c r="C187" s="44"/>
-      <c r="D187" s="45"/>
+      <c r="C187" s="40"/>
+      <c r="D187" s="41"/>
     </row>
     <row r="188" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>816</v>
+        <v>804</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="D188" s="23">
         <v>18000</v>
       </c>
     </row>
     <row r="189" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A189" s="39" t="s">
-        <v>817</v>
+      <c r="A189" s="35" t="s">
+        <v>805</v>
       </c>
       <c r="B189" s="10" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="C189" s="10" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="D189" s="23">
         <v>18000</v>
       </c>
     </row>
     <row r="190" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A190" s="39" t="s">
-        <v>818</v>
+      <c r="A190" s="35" t="s">
+        <v>806</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="D190" s="23">
         <v>12000</v>
       </c>
     </row>
     <row r="191" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A191" s="39" t="s">
-        <v>819</v>
+      <c r="A191" s="35" t="s">
+        <v>807</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="D191" s="23">
         <v>12000</v>
       </c>
     </row>
     <row r="192" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A192" s="39" t="s">
-        <v>820</v>
+      <c r="A192" s="35" t="s">
+        <v>808</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D192" s="23">
         <v>12000</v>
       </c>
     </row>
     <row r="193" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A193" s="39" t="s">
-        <v>821</v>
+      <c r="A193" s="35" t="s">
+        <v>809</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="D193" s="23">
         <v>18950</v>
       </c>
     </row>
     <row r="194" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A194" s="39" t="s">
-        <v>822</v>
+      <c r="A194" s="35" t="s">
+        <v>810</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="D194" s="23">
         <v>35900</v>
       </c>
     </row>
     <row r="195" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A195" s="39" t="s">
-        <v>823</v>
+      <c r="A195" s="35" t="s">
+        <v>811</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="D195" s="23">
         <v>35900</v>
       </c>
     </row>
     <row r="196" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A196" s="39" t="s">
-        <v>824</v>
+      <c r="A196" s="35" t="s">
+        <v>812</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="D196" s="23">
         <v>42900</v>
       </c>
     </row>
     <row r="197" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A197" s="39" t="s">
-        <v>825</v>
+      <c r="A197" s="35" t="s">
+        <v>813</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="C197" s="13" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="D197" s="23">
         <v>23000</v>
       </c>
     </row>
     <row r="198" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A198" s="39" t="s">
-        <v>826</v>
+      <c r="A198" s="35" t="s">
+        <v>814</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="C198" s="13" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="D198" s="23">
         <v>17000</v>
       </c>
     </row>
     <row r="199" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A199" s="39" t="s">
-        <v>827</v>
+      <c r="A199" s="35" t="s">
+        <v>815</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>1009</v>
+        <v>996</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="D199" s="23">
         <v>1000</v>
@@ -7595,13 +7525,13 @@
     </row>
     <row r="200" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>828</v>
+        <v>816</v>
       </c>
       <c r="B200" s="10" t="s">
-        <v>687</v>
+        <v>675</v>
       </c>
       <c r="C200" s="17" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="D200" s="23">
         <v>5000</v>
@@ -7609,13 +7539,13 @@
     </row>
     <row r="201" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>829</v>
+        <v>817</v>
       </c>
       <c r="B201" s="10" t="s">
-        <v>688</v>
+        <v>676</v>
       </c>
       <c r="C201" s="17" t="s">
-        <v>683</v>
+        <v>671</v>
       </c>
       <c r="D201" s="23">
         <v>21500</v>
@@ -7623,13 +7553,13 @@
     </row>
     <row r="202" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>830</v>
+        <v>818</v>
       </c>
       <c r="B202" s="10" t="s">
-        <v>689</v>
+        <v>677</v>
       </c>
       <c r="C202" s="17" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="D202" s="23">
         <v>27900</v>
@@ -7637,13 +7567,13 @@
     </row>
     <row r="203" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>831</v>
+        <v>819</v>
       </c>
       <c r="B203" s="10" t="s">
-        <v>690</v>
+        <v>678</v>
       </c>
       <c r="C203" s="17" t="s">
-        <v>685</v>
+        <v>673</v>
       </c>
       <c r="D203" s="23">
         <v>15000</v>
@@ -7651,13 +7581,13 @@
     </row>
     <row r="204" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>832</v>
+        <v>820</v>
       </c>
       <c r="B204" s="10" t="s">
-        <v>691</v>
+        <v>679</v>
       </c>
       <c r="C204" s="17" t="s">
-        <v>686</v>
+        <v>674</v>
       </c>
       <c r="D204" s="23">
         <v>20000</v>
@@ -7665,13 +7595,13 @@
     </row>
     <row r="205" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>833</v>
+        <v>821</v>
       </c>
       <c r="B205" s="10" t="s">
-        <v>692</v>
+        <v>680</v>
       </c>
       <c r="C205" s="17" t="s">
-        <v>775</v>
+        <v>763</v>
       </c>
       <c r="D205" s="23">
         <v>17950</v>
@@ -7679,13 +7609,13 @@
     </row>
     <row r="206" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>834</v>
+        <v>822</v>
       </c>
       <c r="B206" s="10" t="s">
-        <v>693</v>
+        <v>681</v>
       </c>
       <c r="C206" s="17" t="s">
-        <v>776</v>
+        <v>764</v>
       </c>
       <c r="D206" s="23">
         <v>25950</v>
@@ -7693,13 +7623,13 @@
     </row>
     <row r="207" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>835</v>
+        <v>823</v>
       </c>
       <c r="B207" s="10" t="s">
-        <v>694</v>
+        <v>682</v>
       </c>
       <c r="C207" s="17" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="D207" s="23">
         <v>16000</v>
@@ -7707,13 +7637,13 @@
     </row>
     <row r="208" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>836</v>
+        <v>824</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="D208" s="23">
         <v>17000</v>
@@ -7721,37 +7651,37 @@
     </row>
     <row r="209" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>837</v>
+        <v>825</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>673</v>
+        <v>661</v>
       </c>
       <c r="C209" s="5" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="D209" s="23">
         <v>20000</v>
       </c>
     </row>
     <row r="210" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="43" t="s">
-        <v>1237</v>
-      </c>
-      <c r="B210" s="44">
+      <c r="A210" s="39" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B210" s="40">
         <v>140</v>
       </c>
-      <c r="C210" s="44"/>
-      <c r="D210" s="45"/>
+      <c r="C210" s="40"/>
+      <c r="D210" s="41"/>
     </row>
     <row r="211" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>838</v>
+        <v>826</v>
       </c>
       <c r="B211" s="10" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="C211" s="17" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="D211" s="23">
         <v>1200</v>
@@ -7759,13 +7689,13 @@
     </row>
     <row r="212" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
-        <v>839</v>
+        <v>827</v>
       </c>
       <c r="B212" s="10" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="C212" s="17" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="D212" s="23">
         <v>1200</v>
@@ -7773,13 +7703,13 @@
     </row>
     <row r="213" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
-        <v>840</v>
+        <v>828</v>
       </c>
       <c r="B213" s="10" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="C213" s="17" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="D213" s="23">
         <v>1500</v>
@@ -7787,13 +7717,13 @@
     </row>
     <row r="214" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
-        <v>876</v>
+        <v>864</v>
       </c>
       <c r="B214" s="10" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="C214" s="17" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="D214" s="23">
         <v>10000</v>
@@ -7801,13 +7731,13 @@
     </row>
     <row r="215" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
-        <v>875</v>
+        <v>863</v>
       </c>
       <c r="B215" s="10" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="C215" s="17" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="D215" s="23">
         <v>15000</v>
@@ -7815,13 +7745,13 @@
     </row>
     <row r="216" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
-        <v>874</v>
+        <v>862</v>
       </c>
       <c r="B216" s="10" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="C216" s="17" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="D216" s="23">
         <v>15000</v>
@@ -7829,13 +7759,13 @@
     </row>
     <row r="217" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
-        <v>873</v>
+        <v>861</v>
       </c>
       <c r="B217" s="10" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="C217" s="17" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="D217" s="23">
         <v>15000</v>
@@ -7843,13 +7773,13 @@
     </row>
     <row r="218" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
-        <v>872</v>
+        <v>860</v>
       </c>
       <c r="B218" s="10" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="C218" s="17" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="D218" s="23">
         <v>15000</v>
@@ -7857,13 +7787,13 @@
     </row>
     <row r="219" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
-        <v>871</v>
+        <v>859</v>
       </c>
       <c r="B219" s="10" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="C219" s="17" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="D219" s="23">
         <v>15000</v>
@@ -7871,13 +7801,13 @@
     </row>
     <row r="220" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>870</v>
+        <v>858</v>
       </c>
       <c r="B220" s="10" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="C220" s="17" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="D220" s="23">
         <v>15000</v>
@@ -7885,13 +7815,13 @@
     </row>
     <row r="221" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
-        <v>869</v>
+        <v>857</v>
       </c>
       <c r="B221" s="10" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="C221" s="17" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="D221" s="23">
         <v>5000</v>
@@ -7899,13 +7829,13 @@
     </row>
     <row r="222" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
-        <v>868</v>
+        <v>856</v>
       </c>
       <c r="B222" s="10" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="C222" s="17" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="D222" s="23">
         <v>7800</v>
@@ -7913,13 +7843,13 @@
     </row>
     <row r="223" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
-        <v>867</v>
+        <v>855</v>
       </c>
       <c r="B223" s="10" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="C223" s="17" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="D223" s="23">
         <v>7800</v>
@@ -7927,13 +7857,13 @@
     </row>
     <row r="224" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
-        <v>866</v>
+        <v>854</v>
       </c>
       <c r="B224" s="10" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="C224" s="17" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="D224" s="23">
         <v>7000</v>
@@ -7941,13 +7871,13 @@
     </row>
     <row r="225" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
-        <v>865</v>
+        <v>853</v>
       </c>
       <c r="B225" s="10" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="C225" s="17" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="D225" s="23">
         <v>13500</v>
@@ -7955,13 +7885,13 @@
     </row>
     <row r="226" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
-        <v>864</v>
+        <v>852</v>
       </c>
       <c r="B226" s="10" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="C226" s="17" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="D226" s="23">
         <v>16000</v>
@@ -7969,13 +7899,13 @@
     </row>
     <row r="227" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
-        <v>863</v>
+        <v>851</v>
       </c>
       <c r="B227" s="10" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="C227" s="17" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="D227" s="23">
         <v>15000</v>
@@ -7983,13 +7913,13 @@
     </row>
     <row r="228" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
-        <v>862</v>
+        <v>850</v>
       </c>
       <c r="B228" s="10" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="C228" s="17" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="D228" s="23">
         <v>23000</v>
@@ -7997,13 +7927,13 @@
     </row>
     <row r="229" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
-        <v>861</v>
+        <v>849</v>
       </c>
       <c r="B229" s="10" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="C229" s="17" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="D229" s="23">
         <v>5400</v>
@@ -8011,13 +7941,13 @@
     </row>
     <row r="230" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
-        <v>860</v>
+        <v>848</v>
       </c>
       <c r="B230" s="10" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="C230" s="17" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="D230" s="23">
         <v>4500</v>
@@ -8025,13 +7955,13 @@
     </row>
     <row r="231" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
-        <v>859</v>
+        <v>847</v>
       </c>
       <c r="B231" s="10" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="C231" s="17" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="D231" s="23">
         <v>9500</v>
@@ -8039,13 +7969,13 @@
     </row>
     <row r="232" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
-        <v>858</v>
+        <v>846</v>
       </c>
       <c r="B232" s="10" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="C232" s="17" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="D232" s="23">
         <v>11500</v>
@@ -8053,13 +7983,13 @@
     </row>
     <row r="233" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
-        <v>857</v>
+        <v>845</v>
       </c>
       <c r="B233" s="10" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="C233" s="17" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="D233" s="23">
         <v>2400</v>
@@ -8067,13 +7997,13 @@
     </row>
     <row r="234" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
-        <v>856</v>
+        <v>844</v>
       </c>
       <c r="B234" s="10" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="C234" s="17" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="D234" s="23">
         <v>2000</v>
@@ -8081,13 +8011,13 @@
     </row>
     <row r="235" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
-        <v>855</v>
+        <v>843</v>
       </c>
       <c r="B235" s="10" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="C235" s="17" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="D235" s="23">
         <v>3500</v>
@@ -8095,13 +8025,13 @@
     </row>
     <row r="236" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
-        <v>854</v>
+        <v>842</v>
       </c>
       <c r="B236" s="10" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="C236" s="17" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="D236" s="23">
         <v>600</v>
@@ -8109,13 +8039,13 @@
     </row>
     <row r="237" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
-        <v>853</v>
+        <v>841</v>
       </c>
       <c r="B237" s="10" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="C237" s="17" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="D237" s="23">
         <v>600</v>
@@ -8123,13 +8053,13 @@
     </row>
     <row r="238" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
-        <v>852</v>
+        <v>840</v>
       </c>
       <c r="B238" s="10" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="C238" s="17" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="D238" s="23">
         <v>800</v>
@@ -8137,13 +8067,13 @@
     </row>
     <row r="239" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
-        <v>851</v>
+        <v>839</v>
       </c>
       <c r="B239" s="10" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="C239" s="17" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="D239" s="23">
         <v>800</v>
@@ -8151,13 +8081,13 @@
     </row>
     <row r="240" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
-        <v>850</v>
+        <v>838</v>
       </c>
       <c r="B240" s="10" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="C240" s="17" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="D240" s="23">
         <v>600</v>
@@ -8165,13 +8095,13 @@
     </row>
     <row r="241" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
-        <v>849</v>
+        <v>837</v>
       </c>
       <c r="B241" s="10" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="C241" s="17" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="D241" s="23">
         <v>1000</v>
@@ -8179,13 +8109,13 @@
     </row>
     <row r="242" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
-        <v>848</v>
+        <v>836</v>
       </c>
       <c r="B242" s="10" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="C242" s="17" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="D242" s="23">
         <v>1400</v>
@@ -8193,13 +8123,13 @@
     </row>
     <row r="243" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
-        <v>847</v>
+        <v>835</v>
       </c>
       <c r="B243" s="10" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="C243" s="17" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="D243" s="23">
         <v>1800</v>
@@ -8207,13 +8137,13 @@
     </row>
     <row r="244" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
-        <v>846</v>
+        <v>834</v>
       </c>
       <c r="B244" s="10" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="C244" s="17" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="D244" s="23">
         <v>800</v>
@@ -8221,13 +8151,13 @@
     </row>
     <row r="245" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
-        <v>845</v>
+        <v>833</v>
       </c>
       <c r="B245" s="10" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="C245" s="17" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="D245" s="23">
         <v>800</v>
@@ -8235,13 +8165,13 @@
     </row>
     <row r="246" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
-        <v>844</v>
+        <v>832</v>
       </c>
       <c r="B246" s="10" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="C246" s="17" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="D246" s="23">
         <v>300</v>
@@ -8249,13 +8179,13 @@
     </row>
     <row r="247" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
-        <v>843</v>
+        <v>831</v>
       </c>
       <c r="B247" s="10" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="C247" s="17" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="D247" s="23">
         <v>300</v>
@@ -8263,13 +8193,13 @@
     </row>
     <row r="248" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
-        <v>842</v>
+        <v>830</v>
       </c>
       <c r="B248" s="10" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="C248" s="17" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="D248" s="23">
         <v>15000</v>
@@ -8277,13 +8207,13 @@
     </row>
     <row r="249" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
-        <v>841</v>
+        <v>829</v>
       </c>
       <c r="B249" s="10" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="C249" s="17" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="D249" s="23">
         <v>15000</v>
@@ -8291,13 +8221,13 @@
     </row>
     <row r="250" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
-        <v>878</v>
+        <v>866</v>
       </c>
       <c r="B250" s="10" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="C250" s="17" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="D250" s="23">
         <v>0</v>
@@ -8305,13 +8235,13 @@
     </row>
     <row r="251" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
-        <v>879</v>
+        <v>867</v>
       </c>
       <c r="B251" s="10" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="C251" s="17" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="D251" s="23">
         <v>2800</v>
@@ -8319,13 +8249,13 @@
     </row>
     <row r="252" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
-        <v>880</v>
+        <v>868</v>
       </c>
       <c r="B252" s="10" t="s">
-        <v>877</v>
+        <v>865</v>
       </c>
       <c r="C252" s="17" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="D252" s="23">
         <v>4000</v>
@@ -8333,13 +8263,13 @@
     </row>
     <row r="253" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
-        <v>881</v>
+        <v>869</v>
       </c>
       <c r="B253" s="10" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="C253" s="17" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="D253" s="23">
         <v>0</v>
@@ -8347,13 +8277,13 @@
     </row>
     <row r="254" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
-        <v>882</v>
+        <v>870</v>
       </c>
       <c r="B254" s="10" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="C254" s="17" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="D254" s="23">
         <v>0</v>
@@ -8361,13 +8291,13 @@
     </row>
     <row r="255" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
-        <v>883</v>
+        <v>871</v>
       </c>
       <c r="B255" s="10" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="C255" s="17" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="D255" s="23">
         <v>0</v>
@@ -8375,13 +8305,13 @@
     </row>
     <row r="256" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
-        <v>884</v>
+        <v>872</v>
       </c>
       <c r="B256" s="10" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="C256" s="17" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="D256" s="23">
         <v>0</v>
@@ -8389,13 +8319,13 @@
     </row>
     <row r="257" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="B257" s="10" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="C257" s="17" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="D257" s="23">
         <v>0</v>
@@ -8403,13 +8333,13 @@
     </row>
     <row r="258" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
-        <v>886</v>
+        <v>874</v>
       </c>
       <c r="B258" s="10" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="C258" s="17" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="D258" s="23">
         <v>0</v>
@@ -8417,13 +8347,13 @@
     </row>
     <row r="259" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
-        <v>887</v>
+        <v>875</v>
       </c>
       <c r="B259" s="10" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="C259" s="17" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="D259" s="23">
         <v>0</v>
@@ -8431,13 +8361,13 @@
     </row>
     <row r="260" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
-        <v>888</v>
+        <v>876</v>
       </c>
       <c r="B260" s="10" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="C260" s="17" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="D260" s="23">
         <v>1900</v>
@@ -8445,13 +8375,13 @@
     </row>
     <row r="261" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
-        <v>889</v>
+        <v>877</v>
       </c>
       <c r="B261" s="10" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="C261" s="17" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="D261" s="23">
         <v>1900</v>
@@ -8459,13 +8389,13 @@
     </row>
     <row r="262" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="B262" s="10" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="C262" s="17" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="D262" s="23">
         <v>0</v>
@@ -8473,13 +8403,13 @@
     </row>
     <row r="263" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
-        <v>891</v>
+        <v>879</v>
       </c>
       <c r="B263" s="10" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="C263" s="17" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="D263" s="23">
         <v>0</v>
@@ -8487,13 +8417,13 @@
     </row>
     <row r="264" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
-        <v>892</v>
+        <v>880</v>
       </c>
       <c r="B264" s="10" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="C264" s="17" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="D264" s="23">
         <v>0</v>
@@ -8501,13 +8431,13 @@
     </row>
     <row r="265" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
-        <v>893</v>
+        <v>881</v>
       </c>
       <c r="B265" s="10" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="C265" s="17" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="D265" s="23">
         <v>8500</v>
@@ -8515,13 +8445,13 @@
     </row>
     <row r="266" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
-        <v>894</v>
+        <v>882</v>
       </c>
       <c r="B266" s="10" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="C266" s="17" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="D266" s="23">
         <v>1200</v>
@@ -8529,13 +8459,13 @@
     </row>
     <row r="267" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
-        <v>895</v>
+        <v>883</v>
       </c>
       <c r="B267" s="10" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="C267" s="17" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="D267" s="23">
         <v>0</v>
@@ -8543,13 +8473,13 @@
     </row>
     <row r="268" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
-        <v>896</v>
+        <v>884</v>
       </c>
       <c r="B268" s="10" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="C268" s="17" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="D268" s="23">
         <v>0</v>
@@ -8557,13 +8487,13 @@
     </row>
     <row r="269" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
-        <v>897</v>
+        <v>885</v>
       </c>
       <c r="B269" s="10" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="C269" s="17" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="D269" s="23">
         <v>0</v>
@@ -8571,13 +8501,13 @@
     </row>
     <row r="270" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
-        <v>898</v>
+        <v>886</v>
       </c>
       <c r="B270" s="10" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="C270" s="17" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="D270" s="23">
         <v>0</v>
@@ -8585,13 +8515,13 @@
     </row>
     <row r="271" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
-        <v>899</v>
+        <v>887</v>
       </c>
       <c r="B271" s="10" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="C271" s="17" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="D271" s="23">
         <v>1900</v>
@@ -8599,13 +8529,13 @@
     </row>
     <row r="272" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
-        <v>900</v>
+        <v>888</v>
       </c>
       <c r="B272" s="10" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="C272" s="17" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="D272" s="23">
         <v>5000</v>
@@ -8613,13 +8543,13 @@
     </row>
     <row r="273" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
-        <v>901</v>
+        <v>889</v>
       </c>
       <c r="B273" s="10" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="C273" s="17" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="D273" s="23">
         <v>6000</v>
@@ -8627,13 +8557,13 @@
     </row>
     <row r="274" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
-        <v>1132</v>
+        <v>1119</v>
       </c>
       <c r="B274" s="10" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="C274" s="17" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="D274" s="23">
         <v>7000</v>
@@ -8641,13 +8571,13 @@
     </row>
     <row r="275" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
-        <v>1133</v>
+        <v>1120</v>
       </c>
       <c r="B275" s="10" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="C275" s="17" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="D275" s="23">
         <v>9000</v>
@@ -8655,13 +8585,13 @@
     </row>
     <row r="276" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
-        <v>1134</v>
+        <v>1121</v>
       </c>
       <c r="B276" s="10" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="C276" s="17" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="D276" s="23">
         <v>2400</v>
@@ -8669,13 +8599,13 @@
     </row>
     <row r="277" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
-        <v>1135</v>
+        <v>1122</v>
       </c>
       <c r="B277" s="10" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="C277" s="17" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="D277" s="23">
         <v>4000</v>
@@ -8683,13 +8613,13 @@
     </row>
     <row r="278" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
-        <v>1136</v>
+        <v>1123</v>
       </c>
       <c r="B278" s="10" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="C278" s="17" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="D278" s="23">
         <v>4500</v>
@@ -8697,13 +8627,13 @@
     </row>
     <row r="279" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
-        <v>1137</v>
+        <v>1124</v>
       </c>
       <c r="B279" s="10" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="C279" s="17" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="D279" s="23">
         <v>5500</v>
@@ -8711,13 +8641,13 @@
     </row>
     <row r="280" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
-        <v>1138</v>
+        <v>1125</v>
       </c>
       <c r="B280" s="10" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="C280" s="17" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="D280" s="23">
         <v>34000</v>
@@ -8725,13 +8655,13 @@
     </row>
     <row r="281" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
-        <v>1139</v>
+        <v>1126</v>
       </c>
       <c r="B281" s="10" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="C281" s="17" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="D281" s="23">
         <v>24000</v>
@@ -8739,13 +8669,13 @@
     </row>
     <row r="282" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
-        <v>1140</v>
+        <v>1127</v>
       </c>
       <c r="B282" s="10" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="C282" s="17" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="D282" s="23">
         <v>35000</v>
@@ -8753,13 +8683,13 @@
     </row>
     <row r="283" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
-        <v>1141</v>
+        <v>1128</v>
       </c>
       <c r="B283" s="10" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="C283" s="17" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="D283" s="23">
         <v>12000</v>
@@ -8767,13 +8697,13 @@
     </row>
     <row r="284" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
-        <v>1142</v>
+        <v>1129</v>
       </c>
       <c r="B284" s="10" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="C284" s="17" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="D284" s="23">
         <v>17000</v>
@@ -8781,13 +8711,13 @@
     </row>
     <row r="285" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
-        <v>1143</v>
+        <v>1130</v>
       </c>
       <c r="B285" s="10" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="C285" s="17" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="D285" s="23">
         <v>38000</v>
@@ -8795,13 +8725,13 @@
     </row>
     <row r="286" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
-        <v>1144</v>
+        <v>1131</v>
       </c>
       <c r="B286" s="10" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="C286" s="17" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="D286" s="23">
         <v>32000</v>
@@ -8809,13 +8739,13 @@
     </row>
     <row r="287" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
-        <v>1145</v>
+        <v>1132</v>
       </c>
       <c r="B287" s="10" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="C287" s="17" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="D287" s="23">
         <v>45000</v>
@@ -8823,13 +8753,13 @@
     </row>
     <row r="288" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
-        <v>1146</v>
+        <v>1133</v>
       </c>
       <c r="B288" s="10" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="C288" s="17" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="D288" s="23">
         <v>20000</v>
@@ -8837,13 +8767,13 @@
     </row>
     <row r="289" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
-        <v>1147</v>
+        <v>1134</v>
       </c>
       <c r="B289" s="10" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="C289" s="17" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="D289" s="23">
         <v>2500</v>
@@ -8851,13 +8781,13 @@
     </row>
     <row r="290" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
-        <v>1148</v>
+        <v>1135</v>
       </c>
       <c r="B290" s="10" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="C290" s="17" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="D290" s="23">
         <v>950</v>
@@ -8865,37 +8795,37 @@
     </row>
     <row r="291" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
-        <v>1149</v>
+        <v>1136</v>
       </c>
       <c r="B291" s="10" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="C291" s="17" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="D291" s="23">
         <v>6000</v>
       </c>
     </row>
     <row r="292" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A292" s="43" t="s">
-        <v>1237</v>
-      </c>
-      <c r="B292" s="44">
+      <c r="A292" s="39" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B292" s="40">
         <v>141</v>
       </c>
-      <c r="C292" s="44"/>
-      <c r="D292" s="45"/>
+      <c r="C292" s="40"/>
+      <c r="D292" s="41"/>
     </row>
     <row r="293" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
-        <v>917</v>
+        <v>905</v>
       </c>
       <c r="B293" s="5" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="D293" s="23">
         <v>350</v>
@@ -8903,13 +8833,13 @@
     </row>
     <row r="294" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
-        <v>918</v>
+        <v>906</v>
       </c>
       <c r="B294" s="5" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>678</v>
+        <v>666</v>
       </c>
       <c r="D294" s="23">
         <v>1000</v>
@@ -8917,13 +8847,13 @@
     </row>
     <row r="295" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
-        <v>919</v>
+        <v>907</v>
       </c>
       <c r="B295" s="5" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="D295" s="23">
         <v>1400</v>
@@ -8931,13 +8861,13 @@
     </row>
     <row r="296" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
-        <v>920</v>
+        <v>908</v>
       </c>
       <c r="B296" s="5" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
       <c r="C296" s="5" t="s">
-        <v>662</v>
+        <v>650</v>
       </c>
       <c r="D296" s="23">
         <v>850</v>
@@ -8945,13 +8875,13 @@
     </row>
     <row r="297" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
-        <v>921</v>
+        <v>909</v>
       </c>
       <c r="B297" s="5" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
       <c r="C297" s="5" t="s">
-        <v>663</v>
+        <v>651</v>
       </c>
       <c r="D297" s="23">
         <v>950</v>
@@ -8959,13 +8889,13 @@
     </row>
     <row r="298" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
-        <v>922</v>
+        <v>910</v>
       </c>
       <c r="B298" s="10" t="s">
-        <v>567</v>
+        <v>555</v>
       </c>
       <c r="C298" s="10" t="s">
-        <v>1035</v>
+        <v>1022</v>
       </c>
       <c r="D298" s="23">
         <v>1000</v>
@@ -8973,13 +8903,13 @@
     </row>
     <row r="299" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
-        <v>1043</v>
+        <v>1030</v>
       </c>
       <c r="B299" s="10" t="s">
-        <v>738</v>
+        <v>726</v>
       </c>
       <c r="C299" s="10" t="s">
-        <v>739</v>
+        <v>727</v>
       </c>
       <c r="D299" s="23">
         <v>1400</v>
@@ -8987,13 +8917,13 @@
     </row>
     <row r="300" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
-        <v>923</v>
+        <v>911</v>
       </c>
       <c r="B300" s="5" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>1036</v>
+        <v>1023</v>
       </c>
       <c r="D300" s="23">
         <v>1300</v>
@@ -9001,13 +8931,13 @@
     </row>
     <row r="301" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
-        <v>924</v>
+        <v>912</v>
       </c>
       <c r="B301" s="5" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="C301" s="5" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="D301" s="23">
         <v>1200</v>
@@ -9015,133 +8945,133 @@
     </row>
     <row r="302" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
-        <v>925</v>
+        <v>913</v>
       </c>
       <c r="B302" s="5" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>1037</v>
+        <v>1024</v>
       </c>
       <c r="D302" s="23">
         <v>1500</v>
       </c>
-      <c r="E302" s="36"/>
+      <c r="E302" s="32"/>
     </row>
     <row r="303" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
-        <v>1044</v>
+        <v>1031</v>
       </c>
       <c r="B303" s="5" t="s">
-        <v>669</v>
+        <v>657</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
       <c r="D303" s="23">
         <v>800</v>
       </c>
-      <c r="E303" s="37"/>
+      <c r="E303" s="33"/>
     </row>
     <row r="304" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
-        <v>926</v>
+        <v>914</v>
       </c>
       <c r="B304" s="5" t="s">
-        <v>670</v>
+        <v>658</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
       <c r="D304" s="23">
         <v>100</v>
       </c>
-      <c r="E304" s="37"/>
+      <c r="E304" s="33"/>
     </row>
     <row r="305" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
-        <v>927</v>
+        <v>915</v>
       </c>
       <c r="B305" s="5" t="s">
-        <v>671</v>
+        <v>659</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="D305" s="23">
         <v>1500</v>
       </c>
-      <c r="E305" s="36"/>
+      <c r="E305" s="32"/>
     </row>
     <row r="306" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
-        <v>928</v>
+        <v>916</v>
       </c>
       <c r="B306" s="5" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
       <c r="D306" s="23">
         <v>8000</v>
       </c>
-      <c r="E306" s="37"/>
+      <c r="E306" s="33"/>
     </row>
     <row r="307" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
-        <v>929</v>
+        <v>917</v>
       </c>
       <c r="B307" s="5" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>570</v>
+        <v>558</v>
       </c>
       <c r="D307" s="23">
         <v>10500</v>
       </c>
-      <c r="E307" s="37"/>
+      <c r="E307" s="33"/>
     </row>
     <row r="308" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
-        <v>930</v>
+        <v>918</v>
       </c>
       <c r="B308" s="5" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>664</v>
+        <v>652</v>
       </c>
       <c r="D308" s="23">
         <v>14000</v>
       </c>
-      <c r="E308" s="36"/>
+      <c r="E308" s="32"/>
     </row>
     <row r="309" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
-        <v>931</v>
+        <v>919</v>
       </c>
       <c r="B309" s="5" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>675</v>
+        <v>663</v>
       </c>
       <c r="D309" s="23">
         <v>150</v>
       </c>
-      <c r="E309" s="37"/>
+      <c r="E309" s="33"/>
     </row>
     <row r="310" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
-        <v>932</v>
+        <v>920</v>
       </c>
       <c r="B310" s="5" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
       <c r="C310" s="6" t="s">
-        <v>674</v>
+        <v>662</v>
       </c>
       <c r="D310" s="23">
         <v>22000</v>
@@ -9149,13 +9079,13 @@
     </row>
     <row r="311" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
-        <v>933</v>
+        <v>921</v>
       </c>
       <c r="B311" s="5" t="s">
-        <v>556</v>
+        <v>544</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="D311" s="23">
         <v>22500</v>
@@ -9163,13 +9093,13 @@
     </row>
     <row r="312" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
-        <v>1187</v>
+        <v>1174</v>
       </c>
       <c r="B312" s="5" t="s">
-        <v>557</v>
+        <v>545</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>1189</v>
+        <v>1176</v>
       </c>
       <c r="D312" s="23">
         <v>32500</v>
@@ -9177,13 +9107,13 @@
     </row>
     <row r="313" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
-        <v>934</v>
+        <v>922</v>
       </c>
       <c r="B313" s="5" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>571</v>
+        <v>559</v>
       </c>
       <c r="D313" s="23">
         <v>22000</v>
@@ -9191,13 +9121,13 @@
     </row>
     <row r="314" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
-        <v>935</v>
+        <v>923</v>
       </c>
       <c r="B314" s="5" t="s">
-        <v>573</v>
+        <v>561</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>638</v>
+        <v>626</v>
       </c>
       <c r="D314" s="23">
         <v>4000</v>
@@ -9205,13 +9135,13 @@
     </row>
     <row r="315" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
-        <v>936</v>
+        <v>924</v>
       </c>
       <c r="B315" s="5" t="s">
-        <v>595</v>
+        <v>583</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="D315" s="23">
         <v>7500</v>
@@ -9219,13 +9149,13 @@
     </row>
     <row r="316" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
-        <v>937</v>
+        <v>925</v>
       </c>
       <c r="B316" s="5" t="s">
-        <v>1188</v>
+        <v>1175</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>640</v>
+        <v>628</v>
       </c>
       <c r="D316" s="23">
         <v>10000</v>
@@ -9233,13 +9163,13 @@
     </row>
     <row r="317" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
-        <v>1045</v>
+        <v>1032</v>
       </c>
       <c r="B317" s="5" t="s">
-        <v>596</v>
+        <v>584</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>637</v>
+        <v>625</v>
       </c>
       <c r="D317" s="23">
         <v>31000</v>
@@ -9247,13 +9177,13 @@
     </row>
     <row r="318" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
-        <v>938</v>
+        <v>926</v>
       </c>
       <c r="B318" s="5" t="s">
-        <v>597</v>
+        <v>585</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
       <c r="D318" s="23">
         <v>14500</v>
@@ -9261,13 +9191,13 @@
     </row>
     <row r="319" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
-        <v>939</v>
+        <v>927</v>
       </c>
       <c r="B319" s="5" t="s">
-        <v>598</v>
+        <v>586</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>575</v>
+        <v>563</v>
       </c>
       <c r="D319" s="23">
         <v>22000</v>
@@ -9275,13 +9205,13 @@
     </row>
     <row r="320" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
-        <v>940</v>
+        <v>928</v>
       </c>
       <c r="B320" s="5" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>633</v>
+        <v>621</v>
       </c>
       <c r="D320" s="23">
         <v>2000</v>
@@ -9289,13 +9219,13 @@
     </row>
     <row r="321" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
-        <v>941</v>
+        <v>929</v>
       </c>
       <c r="B321" s="5" t="s">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>634</v>
+        <v>622</v>
       </c>
       <c r="D321" s="23">
         <v>2000</v>
@@ -9303,13 +9233,13 @@
     </row>
     <row r="322" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
-        <v>942</v>
+        <v>930</v>
       </c>
       <c r="B322" s="5" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>635</v>
+        <v>623</v>
       </c>
       <c r="D322" s="23">
         <v>13500</v>
@@ -9317,13 +9247,13 @@
     </row>
     <row r="323" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
-        <v>943</v>
+        <v>931</v>
       </c>
       <c r="B323" s="5" t="s">
-        <v>602</v>
+        <v>590</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>636</v>
+        <v>624</v>
       </c>
       <c r="D323" s="23">
         <v>6000</v>
@@ -9331,13 +9261,13 @@
     </row>
     <row r="324" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A324" s="18" t="s">
-        <v>944</v>
+        <v>932</v>
       </c>
       <c r="B324" s="5" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
       <c r="C324" s="6" t="s">
-        <v>1186</v>
+        <v>1173</v>
       </c>
       <c r="D324" s="23">
         <v>8500</v>
@@ -9346,13 +9276,13 @@
     </row>
     <row r="325" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
-        <v>945</v>
+        <v>933</v>
       </c>
       <c r="B325" s="5" t="s">
-        <v>604</v>
+        <v>592</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>576</v>
+        <v>564</v>
       </c>
       <c r="D325" s="23">
         <v>16000</v>
@@ -9360,13 +9290,13 @@
     </row>
     <row r="326" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
-        <v>946</v>
+        <v>934</v>
       </c>
       <c r="B326" s="5" t="s">
-        <v>605</v>
+        <v>593</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
       <c r="D326" s="23">
         <v>18000</v>
@@ -9374,13 +9304,13 @@
     </row>
     <row r="327" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A327" s="2" t="s">
-        <v>947</v>
+        <v>935</v>
       </c>
       <c r="B327" s="5" t="s">
-        <v>606</v>
+        <v>594</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
       <c r="D327" s="23">
         <v>18000</v>
@@ -9388,13 +9318,13 @@
     </row>
     <row r="328" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
-        <v>948</v>
+        <v>936</v>
       </c>
       <c r="B328" s="5" t="s">
-        <v>607</v>
+        <v>595</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="D328" s="23">
         <v>20000</v>
@@ -9402,13 +9332,13 @@
     </row>
     <row r="329" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="s">
-        <v>949</v>
+        <v>937</v>
       </c>
       <c r="B329" s="5" t="s">
-        <v>608</v>
+        <v>596</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
       <c r="D329" s="23">
         <v>18000</v>
@@ -9416,13 +9346,13 @@
     </row>
     <row r="330" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A330" s="2" t="s">
-        <v>950</v>
+        <v>938</v>
       </c>
       <c r="B330" s="5" t="s">
-        <v>609</v>
+        <v>597</v>
       </c>
       <c r="C330" s="6" t="s">
-        <v>665</v>
+        <v>653</v>
       </c>
       <c r="D330" s="23">
         <v>20000</v>
@@ -9430,13 +9360,13 @@
     </row>
     <row r="331" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="s">
-        <v>951</v>
+        <v>939</v>
       </c>
       <c r="B331" s="5" t="s">
-        <v>610</v>
+        <v>598</v>
       </c>
       <c r="C331" s="6" t="s">
-        <v>666</v>
+        <v>654</v>
       </c>
       <c r="D331" s="23">
         <v>6000</v>
@@ -9444,13 +9374,13 @@
     </row>
     <row r="332" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A332" s="2" t="s">
-        <v>952</v>
+        <v>940</v>
       </c>
       <c r="B332" s="5" t="s">
-        <v>611</v>
+        <v>599</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>582</v>
+        <v>570</v>
       </c>
       <c r="D332" s="23">
         <v>10000</v>
@@ -9458,13 +9388,13 @@
     </row>
     <row r="333" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A333" s="2" t="s">
-        <v>953</v>
+        <v>941</v>
       </c>
       <c r="B333" s="5" t="s">
-        <v>612</v>
+        <v>600</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>583</v>
+        <v>571</v>
       </c>
       <c r="D333" s="23">
         <v>12000</v>
@@ -9472,13 +9402,13 @@
     </row>
     <row r="334" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A334" s="2" t="s">
-        <v>954</v>
+        <v>942</v>
       </c>
       <c r="B334" s="5" t="s">
-        <v>613</v>
+        <v>601</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="D334" s="23">
         <v>19000</v>
@@ -9486,13 +9416,13 @@
     </row>
     <row r="335" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A335" s="2" t="s">
-        <v>955</v>
+        <v>943</v>
       </c>
       <c r="B335" s="5" t="s">
-        <v>614</v>
+        <v>602</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
       <c r="D335" s="23">
         <v>10000</v>
@@ -9500,13 +9430,13 @@
     </row>
     <row r="336" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A336" s="2" t="s">
-        <v>956</v>
+        <v>944</v>
       </c>
       <c r="B336" s="5" t="s">
-        <v>615</v>
+        <v>603</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>667</v>
+        <v>655</v>
       </c>
       <c r="D336" s="23">
         <v>1200</v>
@@ -9514,13 +9444,13 @@
     </row>
     <row r="337" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
-        <v>957</v>
+        <v>945</v>
       </c>
       <c r="B337" s="5" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
       <c r="D337" s="23">
         <v>4000</v>
@@ -9528,13 +9458,13 @@
     </row>
     <row r="338" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
-        <v>958</v>
+        <v>946</v>
       </c>
       <c r="B338" s="5" t="s">
-        <v>617</v>
+        <v>605</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>586</v>
+        <v>574</v>
       </c>
       <c r="D338" s="23">
         <v>2500</v>
@@ -9542,13 +9472,13 @@
     </row>
     <row r="339" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A339" s="2" t="s">
-        <v>959</v>
+        <v>947</v>
       </c>
       <c r="B339" s="5" t="s">
-        <v>618</v>
+        <v>606</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>587</v>
+        <v>575</v>
       </c>
       <c r="D339" s="23">
         <v>5000</v>
@@ -9556,13 +9486,13 @@
     </row>
     <row r="340" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A340" s="2" t="s">
-        <v>960</v>
+        <v>948</v>
       </c>
       <c r="B340" s="5" t="s">
-        <v>619</v>
+        <v>607</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
       <c r="D340" s="23">
         <v>6000</v>
@@ -9570,13 +9500,13 @@
     </row>
     <row r="341" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A341" s="2" t="s">
-        <v>961</v>
+        <v>949</v>
       </c>
       <c r="B341" s="5" t="s">
-        <v>620</v>
+        <v>608</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
       <c r="D341" s="23">
         <v>9500</v>
@@ -9584,13 +9514,13 @@
     </row>
     <row r="342" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A342" s="2" t="s">
-        <v>962</v>
+        <v>950</v>
       </c>
       <c r="B342" s="5" t="s">
-        <v>621</v>
+        <v>609</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="D342" s="23">
         <v>11500</v>
@@ -9598,13 +9528,13 @@
     </row>
     <row r="343" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A343" s="18" t="s">
-        <v>963</v>
+        <v>951</v>
       </c>
       <c r="B343" s="5" t="s">
-        <v>622</v>
+        <v>610</v>
       </c>
       <c r="C343" s="6" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="D343" s="23">
         <v>6500</v>
@@ -9612,13 +9542,13 @@
     </row>
     <row r="344" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A344" s="18" t="s">
-        <v>964</v>
+        <v>952</v>
       </c>
       <c r="B344" s="5" t="s">
-        <v>623</v>
+        <v>611</v>
       </c>
       <c r="C344" s="6" t="s">
-        <v>1038</v>
+        <v>1025</v>
       </c>
       <c r="D344" s="23">
         <v>8500</v>
@@ -9627,13 +9557,13 @@
     </row>
     <row r="345" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A345" s="2" t="s">
-        <v>965</v>
+        <v>953</v>
       </c>
       <c r="B345" s="5" t="s">
-        <v>624</v>
+        <v>612</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="D345" s="23">
         <v>2500</v>
@@ -9641,13 +9571,13 @@
     </row>
     <row r="346" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A346" s="2" t="s">
-        <v>966</v>
+        <v>954</v>
       </c>
       <c r="B346" s="5" t="s">
-        <v>625</v>
+        <v>613</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
       <c r="D346" s="23">
         <v>3500</v>
@@ -9655,13 +9585,13 @@
     </row>
     <row r="347" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A347" s="2" t="s">
-        <v>1023</v>
+        <v>1010</v>
       </c>
       <c r="B347" s="5" t="s">
-        <v>626</v>
+        <v>614</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>594</v>
+        <v>582</v>
       </c>
       <c r="D347" s="23">
         <v>2200</v>
@@ -9669,13 +9599,13 @@
     </row>
     <row r="348" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A348" s="2" t="s">
-        <v>1024</v>
+        <v>1011</v>
       </c>
       <c r="B348" s="5" t="s">
-        <v>627</v>
+        <v>615</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="D348" s="23">
         <v>6600</v>
@@ -9683,13 +9613,13 @@
     </row>
     <row r="349" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A349" s="2" t="s">
-        <v>1025</v>
+        <v>1012</v>
       </c>
       <c r="B349" s="5" t="s">
-        <v>628</v>
+        <v>616</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>1192</v>
+        <v>1179</v>
       </c>
       <c r="D349" s="23">
         <v>6000</v>
@@ -9697,13 +9627,13 @@
     </row>
     <row r="350" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A350" s="2" t="s">
-        <v>1026</v>
+        <v>1013</v>
       </c>
       <c r="B350" s="5" t="s">
-        <v>629</v>
+        <v>617</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>676</v>
+        <v>664</v>
       </c>
       <c r="D350" s="23">
         <v>550</v>
@@ -9711,13 +9641,13 @@
     </row>
     <row r="351" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A351" s="2" t="s">
-        <v>1027</v>
+        <v>1014</v>
       </c>
       <c r="B351" s="5" t="s">
-        <v>630</v>
+        <v>618</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>677</v>
+        <v>665</v>
       </c>
       <c r="D351" s="23">
         <v>1300</v>
@@ -9725,13 +9655,13 @@
     </row>
     <row r="352" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A352" s="2" t="s">
-        <v>1028</v>
+        <v>1015</v>
       </c>
       <c r="B352" s="5" t="s">
-        <v>631</v>
+        <v>619</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>642</v>
+        <v>630</v>
       </c>
       <c r="D352" s="23">
         <v>1000</v>
@@ -9739,13 +9669,13 @@
     </row>
     <row r="353" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A353" s="2" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
       <c r="B353" s="5" t="s">
-        <v>632</v>
+        <v>620</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>643</v>
+        <v>631</v>
       </c>
       <c r="D353" s="23">
         <v>1000</v>
@@ -9753,30 +9683,30 @@
     </row>
     <row r="354" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A354" s="22" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
       <c r="B354" s="5" t="s">
-        <v>743</v>
+        <v>731</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>1039</v>
+        <v>1026</v>
       </c>
       <c r="D354" s="23">
         <v>10000</v>
       </c>
       <c r="E354" t="s">
-        <v>1042</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="355" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A355" s="2" t="s">
-        <v>1046</v>
+        <v>1033</v>
       </c>
       <c r="B355" s="10" t="s">
-        <v>645</v>
+        <v>633</v>
       </c>
       <c r="C355" s="6" t="s">
-        <v>646</v>
+        <v>634</v>
       </c>
       <c r="D355" s="23">
         <v>16000</v>
@@ -9784,13 +9714,13 @@
     </row>
     <row r="356" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A356" s="2" t="s">
-        <v>1047</v>
+        <v>1034</v>
       </c>
       <c r="B356" s="10" t="s">
-        <v>648</v>
+        <v>636</v>
       </c>
       <c r="C356" s="6" t="s">
-        <v>647</v>
+        <v>635</v>
       </c>
       <c r="D356" s="23">
         <v>38000</v>
@@ -9798,13 +9728,13 @@
     </row>
     <row r="357" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A357" s="2" t="s">
-        <v>1048</v>
+        <v>1035</v>
       </c>
       <c r="B357" s="10" t="s">
-        <v>650</v>
+        <v>638</v>
       </c>
       <c r="C357" s="6" t="s">
-        <v>651</v>
+        <v>639</v>
       </c>
       <c r="D357" s="23">
         <v>5000</v>
@@ -9812,13 +9742,13 @@
     </row>
     <row r="358" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A358" s="2" t="s">
-        <v>1050</v>
+        <v>1037</v>
       </c>
       <c r="B358" s="10" t="s">
-        <v>649</v>
+        <v>637</v>
       </c>
       <c r="C358" s="6" t="s">
-        <v>652</v>
+        <v>640</v>
       </c>
       <c r="D358" s="23">
         <v>14000</v>
@@ -9826,13 +9756,13 @@
     </row>
     <row r="359" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A359" s="2" t="s">
-        <v>1051</v>
+        <v>1038</v>
       </c>
       <c r="B359" s="10" t="s">
-        <v>653</v>
+        <v>641</v>
       </c>
       <c r="C359" s="6" t="s">
-        <v>658</v>
+        <v>646</v>
       </c>
       <c r="D359" s="23">
         <v>7000</v>
@@ -9840,13 +9770,13 @@
     </row>
     <row r="360" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A360" s="2" t="s">
-        <v>1052</v>
+        <v>1039</v>
       </c>
       <c r="B360" s="10" t="s">
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="C360" s="6" t="s">
-        <v>659</v>
+        <v>647</v>
       </c>
       <c r="D360" s="23">
         <v>8000</v>
@@ -9854,13 +9784,13 @@
     </row>
     <row r="361" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A361" s="2" t="s">
-        <v>1053</v>
+        <v>1040</v>
       </c>
       <c r="B361" s="10" t="s">
-        <v>655</v>
+        <v>643</v>
       </c>
       <c r="C361" s="6" t="s">
-        <v>660</v>
+        <v>648</v>
       </c>
       <c r="D361" s="23">
         <v>9000</v>
@@ -9868,13 +9798,13 @@
     </row>
     <row r="362" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A362" s="2" t="s">
-        <v>1054</v>
+        <v>1041</v>
       </c>
       <c r="B362" s="10" t="s">
-        <v>656</v>
+        <v>644</v>
       </c>
       <c r="C362" s="6" t="s">
-        <v>759</v>
+        <v>747</v>
       </c>
       <c r="D362" s="23">
         <v>20000</v>
@@ -9882,13 +9812,13 @@
     </row>
     <row r="363" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A363" s="2" t="s">
-        <v>1055</v>
+        <v>1042</v>
       </c>
       <c r="B363" s="10" t="s">
-        <v>657</v>
+        <v>645</v>
       </c>
       <c r="C363" s="6" t="s">
-        <v>760</v>
+        <v>748</v>
       </c>
       <c r="D363" s="23">
         <v>24000</v>
@@ -9896,13 +9826,13 @@
     </row>
     <row r="364" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A364" s="2" t="s">
-        <v>1056</v>
+        <v>1043</v>
       </c>
       <c r="B364" s="10" t="s">
-        <v>744</v>
+        <v>732</v>
       </c>
       <c r="C364" s="6" t="s">
-        <v>761</v>
+        <v>749</v>
       </c>
       <c r="D364" s="23">
         <v>26000</v>
@@ -9910,28 +9840,28 @@
     </row>
     <row r="365" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A365" s="2" t="s">
-        <v>1057</v>
+        <v>1044</v>
       </c>
       <c r="B365" s="10" t="s">
-        <v>748</v>
+        <v>736</v>
       </c>
       <c r="C365" s="6" t="s">
-        <v>763</v>
+        <v>751</v>
       </c>
       <c r="D365" s="23">
         <v>33000</v>
       </c>
-      <c r="E365" s="38"/>
+      <c r="E365" s="34"/>
     </row>
     <row r="366" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A366" s="2" t="s">
-        <v>1058</v>
+        <v>1045</v>
       </c>
       <c r="B366" s="10" t="s">
-        <v>749</v>
+        <v>737</v>
       </c>
       <c r="C366" s="6" t="s">
-        <v>764</v>
+        <v>752</v>
       </c>
       <c r="D366" s="23">
         <v>33000</v>
@@ -9939,13 +9869,13 @@
     </row>
     <row r="367" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A367" s="2" t="s">
-        <v>1059</v>
+        <v>1046</v>
       </c>
       <c r="B367" s="10" t="s">
-        <v>750</v>
+        <v>738</v>
       </c>
       <c r="C367" s="6" t="s">
-        <v>765</v>
+        <v>753</v>
       </c>
       <c r="D367" s="23">
         <v>9500</v>
@@ -9953,13 +9883,13 @@
     </row>
     <row r="368" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A368" s="2" t="s">
-        <v>1060</v>
+        <v>1047</v>
       </c>
       <c r="B368" s="10" t="s">
-        <v>751</v>
+        <v>739</v>
       </c>
       <c r="C368" s="6" t="s">
-        <v>762</v>
+        <v>750</v>
       </c>
       <c r="D368" s="23">
         <v>16900</v>
@@ -9967,13 +9897,13 @@
     </row>
     <row r="369" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="2" t="s">
-        <v>1061</v>
+        <v>1048</v>
       </c>
       <c r="B369" s="10" t="s">
-        <v>752</v>
+        <v>740</v>
       </c>
       <c r="C369" s="6" t="s">
-        <v>771</v>
+        <v>759</v>
       </c>
       <c r="D369" s="23">
         <v>5000</v>
@@ -9981,13 +9911,13 @@
     </row>
     <row r="370" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A370" s="2" t="s">
-        <v>1062</v>
+        <v>1049</v>
       </c>
       <c r="B370" s="10" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="C370" s="6" t="s">
-        <v>772</v>
+        <v>760</v>
       </c>
       <c r="D370" s="23">
         <v>7000</v>
@@ -9995,13 +9925,13 @@
     </row>
     <row r="371" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A371" s="2" t="s">
-        <v>1063</v>
+        <v>1050</v>
       </c>
       <c r="B371" s="10" t="s">
-        <v>754</v>
+        <v>742</v>
       </c>
       <c r="C371" s="6" t="s">
-        <v>661</v>
+        <v>649</v>
       </c>
       <c r="D371" s="23">
         <v>6000</v>
@@ -10009,13 +9939,13 @@
     </row>
     <row r="372" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A372" s="2" t="s">
-        <v>1064</v>
+        <v>1051</v>
       </c>
       <c r="B372" s="10" t="s">
-        <v>755</v>
+        <v>743</v>
       </c>
       <c r="C372" s="6" t="s">
-        <v>745</v>
+        <v>733</v>
       </c>
       <c r="D372" s="23">
         <v>6000</v>
@@ -10023,13 +9953,13 @@
     </row>
     <row r="373" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="s">
-        <v>1065</v>
+        <v>1052</v>
       </c>
       <c r="B373" s="10" t="s">
-        <v>756</v>
+        <v>744</v>
       </c>
       <c r="C373" s="6" t="s">
-        <v>746</v>
+        <v>734</v>
       </c>
       <c r="D373" s="23">
         <v>10000</v>
@@ -10037,13 +9967,13 @@
     </row>
     <row r="374" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A374" s="2" t="s">
-        <v>1066</v>
+        <v>1053</v>
       </c>
       <c r="B374" s="5" t="s">
-        <v>644</v>
+        <v>632</v>
       </c>
       <c r="C374" s="6" t="s">
-        <v>668</v>
+        <v>656</v>
       </c>
       <c r="D374" s="23">
         <v>10000</v>
@@ -10051,13 +9981,13 @@
     </row>
     <row r="375" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A375" s="2" t="s">
-        <v>1067</v>
+        <v>1054</v>
       </c>
       <c r="B375" s="5" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="C375" s="6" t="s">
-        <v>740</v>
+        <v>728</v>
       </c>
       <c r="D375" s="23">
         <v>5500</v>
@@ -10065,13 +9995,13 @@
     </row>
     <row r="376" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A376" s="2" t="s">
-        <v>1068</v>
+        <v>1055</v>
       </c>
       <c r="B376" s="5" t="s">
-        <v>735</v>
+        <v>723</v>
       </c>
       <c r="C376" s="6" t="s">
-        <v>741</v>
+        <v>729</v>
       </c>
       <c r="D376" s="23">
         <v>3000</v>
@@ -10079,13 +10009,13 @@
     </row>
     <row r="377" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A377" s="2" t="s">
-        <v>1069</v>
+        <v>1056</v>
       </c>
       <c r="B377" s="5" t="s">
-        <v>736</v>
+        <v>724</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>1040</v>
+        <v>1027</v>
       </c>
       <c r="D377" s="23">
         <v>5500</v>
@@ -10093,13 +10023,13 @@
     </row>
     <row r="378" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A378" s="2" t="s">
-        <v>1070</v>
+        <v>1057</v>
       </c>
       <c r="B378" s="10" t="s">
-        <v>742</v>
+        <v>730</v>
       </c>
       <c r="C378" s="6" t="s">
-        <v>737</v>
+        <v>725</v>
       </c>
       <c r="D378" s="23">
         <v>2750</v>
@@ -10107,13 +10037,13 @@
     </row>
     <row r="379" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A379" s="2" t="s">
-        <v>1071</v>
+        <v>1058</v>
       </c>
       <c r="B379" s="10" t="s">
-        <v>1049</v>
+        <v>1036</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>728</v>
+        <v>716</v>
       </c>
       <c r="D379" s="23">
         <v>4000</v>
@@ -10121,13 +10051,13 @@
     </row>
     <row r="380" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="s">
-        <v>1072</v>
+        <v>1059</v>
       </c>
       <c r="B380" s="5" t="s">
-        <v>641</v>
+        <v>629</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>729</v>
+        <v>717</v>
       </c>
       <c r="D380" s="23">
         <v>1000</v>
@@ -10135,13 +10065,13 @@
     </row>
     <row r="381" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A381" s="2" t="s">
-        <v>967</v>
+        <v>955</v>
       </c>
       <c r="B381" s="5" t="s">
-        <v>730</v>
+        <v>718</v>
       </c>
       <c r="C381" s="5" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="D381" s="23">
         <v>5000</v>
@@ -10149,13 +10079,13 @@
     </row>
     <row r="382" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A382" s="2" t="s">
-        <v>968</v>
+        <v>956</v>
       </c>
       <c r="B382" s="5" t="s">
-        <v>732</v>
+        <v>720</v>
       </c>
       <c r="C382" s="5" t="s">
-        <v>733</v>
+        <v>721</v>
       </c>
       <c r="D382" s="23">
         <v>7000</v>
@@ -10163,13 +10093,13 @@
     </row>
     <row r="383" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A383" s="18" t="s">
-        <v>1031</v>
+        <v>1018</v>
       </c>
       <c r="B383" s="10" t="s">
-        <v>747</v>
+        <v>735</v>
       </c>
       <c r="C383" s="6" t="s">
-        <v>1041</v>
+        <v>1028</v>
       </c>
       <c r="D383" s="23">
         <v>2500</v>
@@ -10177,13 +10107,13 @@
     </row>
     <row r="384" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A384" s="2" t="s">
-        <v>1073</v>
+        <v>1060</v>
       </c>
       <c r="B384" s="10" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="C384" s="5" t="s">
-        <v>768</v>
+        <v>756</v>
       </c>
       <c r="D384" s="23">
         <v>15000</v>
@@ -10191,13 +10121,13 @@
     </row>
     <row r="385" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A385" s="2" t="s">
-        <v>1074</v>
+        <v>1061</v>
       </c>
       <c r="B385" s="5" t="s">
-        <v>641</v>
+        <v>629</v>
       </c>
       <c r="C385" s="5" t="s">
-        <v>767</v>
+        <v>755</v>
       </c>
       <c r="D385" s="23">
         <v>5000</v>
@@ -10205,13 +10135,13 @@
     </row>
     <row r="386" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A386" s="2" t="s">
-        <v>969</v>
+        <v>957</v>
       </c>
       <c r="B386" s="10" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
       <c r="C386" s="5" t="s">
-        <v>769</v>
+        <v>757</v>
       </c>
       <c r="D386" s="23">
         <v>50000</v>
@@ -10219,13 +10149,13 @@
     </row>
     <row r="387" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A387" s="2" t="s">
-        <v>1075</v>
+        <v>1062</v>
       </c>
       <c r="B387" s="10" t="s">
-        <v>766</v>
+        <v>754</v>
       </c>
       <c r="C387" s="5" t="s">
-        <v>770</v>
+        <v>758</v>
       </c>
       <c r="D387" s="23">
         <v>150000</v>
@@ -10256,11 +10186,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H62"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10271,851 +10200,833 @@
     <col min="4" max="4" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24">
-        <v>12</v>
-      </c>
-      <c r="B1" s="51" t="s">
-        <v>544</v>
-      </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-    </row>
-    <row r="2" spans="1:4" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
-        <v>0</v>
+    <row r="1" spans="1:4" s="16" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B1" s="47">
+        <v>144</v>
+      </c>
+      <c r="C1" s="48"/>
+      <c r="D1" s="49"/>
+    </row>
+    <row r="2" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
+        <v>958</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>1</v>
+        <v>538</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="16" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
-        <v>970</v>
-      </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="25"/>
-    </row>
-    <row r="4" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
+        <v>529</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
+        <v>959</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>530</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>531</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
-        <v>971</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>550</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>539</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
-        <v>972</v>
-      </c>
-      <c r="B5" s="28" t="s">
-        <v>540</v>
-      </c>
-      <c r="C5" s="28" t="s">
-        <v>541</v>
-      </c>
-      <c r="D5" s="29" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>960</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>708</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="D4" s="26">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="16" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="24" t="s">
+        <v>961</v>
+      </c>
+      <c r="B5" s="47">
+        <v>145</v>
+      </c>
+      <c r="C5" s="48"/>
+      <c r="D5" s="49"/>
+    </row>
+    <row r="6" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
-        <v>973</v>
-      </c>
-      <c r="B6" s="28" t="s">
-        <v>720</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>719</v>
-      </c>
-      <c r="D6" s="29">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" s="16" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
-        <v>974</v>
-      </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="29"/>
+        <v>36</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="26">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="26">
+        <v>400</v>
+      </c>
     </row>
     <row r="8" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
-        <v>41</v>
+        <v>265</v>
       </c>
       <c r="B8" s="15" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="26">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>692</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="26">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="16" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>693</v>
+      </c>
+      <c r="C10" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="29">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
-        <v>274</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>1076</v>
-      </c>
-      <c r="C9" s="19" t="s">
+      <c r="D10" s="26">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="29">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
-        <v>275</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>1077</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="29">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
-        <v>276</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>704</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="29">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" s="16" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
-        <v>277</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>705</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="29">
-        <v>1850</v>
-      </c>
+      <c r="D11" s="26">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="16" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="24" t="s">
+        <v>962</v>
+      </c>
+      <c r="B12" s="47">
+        <v>146</v>
+      </c>
+      <c r="C12" s="48"/>
+      <c r="D12" s="49"/>
     </row>
     <row r="13" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
+        <v>269</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>963</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="26">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="22" t="s">
         <v>278</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="19" t="s">
+      <c r="B15" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="29">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" s="16" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="26" t="s">
-        <v>975</v>
-      </c>
-      <c r="B14" s="30"/>
-      <c r="C14" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="29"/>
-    </row>
-    <row r="15" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
-        <v>279</v>
-      </c>
-      <c r="B15" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="29" t="s">
-        <v>46</v>
+      <c r="D15" s="26">
+        <v>500</v>
       </c>
     </row>
     <row r="16" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
-        <v>280</v>
-      </c>
-      <c r="B16" s="28" t="s">
-        <v>976</v>
-      </c>
-      <c r="C16" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" s="29">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="22" t="s">
-        <v>288</v>
-      </c>
-      <c r="B17" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="29">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="22" t="s">
-        <v>289</v>
-      </c>
-      <c r="B18" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>713</v>
+      </c>
+      <c r="D16" s="26">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="28" t="s">
+        <v>903</v>
+      </c>
+      <c r="B17" s="29"/>
+      <c r="C17" s="30" t="s">
+        <v>904</v>
+      </c>
+      <c r="D17" s="26">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="16" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="24" t="s">
+        <v>964</v>
+      </c>
+      <c r="B18" s="47">
+        <v>147</v>
+      </c>
+      <c r="C18" s="48"/>
+      <c r="D18" s="49"/>
+    </row>
+    <row r="19" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="22" t="s">
+        <v>965</v>
+      </c>
+      <c r="B19" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="19" t="s">
-        <v>725</v>
-      </c>
-      <c r="D18" s="29">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="32" t="s">
-        <v>915</v>
-      </c>
-      <c r="B19" s="33"/>
-      <c r="C19" s="34" t="s">
-        <v>916</v>
-      </c>
-      <c r="D19" s="29">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" s="16" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="26" t="s">
-        <v>977</v>
-      </c>
-      <c r="B20" s="30"/>
-      <c r="C20" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="D20" s="29"/>
-    </row>
-    <row r="21" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="22" t="s">
-        <v>978</v>
-      </c>
-      <c r="B21" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="C21" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="D21" s="29">
+      <c r="C19" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="26">
         <v>210</v>
       </c>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+    </row>
+    <row r="20" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="22" t="s">
+        <v>966</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="26">
+        <v>420</v>
+      </c>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+    </row>
+    <row r="21" spans="1:6" s="16" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="24" t="s">
+        <v>967</v>
+      </c>
+      <c r="B21" s="47">
+        <v>148</v>
+      </c>
+      <c r="C21" s="48"/>
+      <c r="D21" s="49"/>
       <c r="E21" s="21"/>
       <c r="F21" s="21"/>
     </row>
-    <row r="22" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
-        <v>979</v>
-      </c>
-      <c r="B22" s="33" t="s">
-        <v>181</v>
-      </c>
-      <c r="C22" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="D22" s="29">
-        <v>420</v>
-      </c>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-    </row>
-    <row r="23" spans="1:6" s="16" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="26" t="s">
-        <v>980</v>
-      </c>
-      <c r="B23" s="30"/>
-      <c r="C23" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="D23" s="29"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-    </row>
-    <row r="24" spans="1:6" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" s="26">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" s="26">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
-        <v>296</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="D24" s="29">
-        <v>300</v>
+        <v>994</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>533</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D24" s="26">
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
-        <v>295</v>
+        <v>995</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>1078</v>
+        <v>761</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="D25" s="29">
-        <v>750</v>
+        <v>970</v>
+      </c>
+      <c r="D25" s="26">
+        <v>1260</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
-        <v>1007</v>
-      </c>
-      <c r="B26" s="33" t="s">
-        <v>545</v>
-      </c>
-      <c r="C26" s="34" t="s">
-        <v>1079</v>
-      </c>
-      <c r="D26" s="29">
-        <v>100</v>
+        <v>978</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>536</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>537</v>
+      </c>
+      <c r="D26" s="26">
+        <v>520</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
-        <v>1008</v>
+        <v>979</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>773</v>
+        <v>535</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>983</v>
-      </c>
-      <c r="D27" s="29">
-        <v>1260</v>
+        <v>686</v>
+      </c>
+      <c r="D27" s="26">
+        <v>520</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
-        <v>991</v>
+        <v>311</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>548</v>
+        <v>75</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>549</v>
-      </c>
-      <c r="D28" s="29">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="22" t="s">
-        <v>992</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>547</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>698</v>
-      </c>
-      <c r="D29" s="29">
-        <v>520</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="D28" s="26">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="24" t="s">
+        <v>968</v>
+      </c>
+      <c r="B29" s="47">
+        <v>149</v>
+      </c>
+      <c r="C29" s="48"/>
+      <c r="D29" s="49"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
-        <v>321</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="C30" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="D30" s="29">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="26" t="s">
+        <v>980</v>
+      </c>
+      <c r="B30" s="31" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>977</v>
+      </c>
+      <c r="D30" s="26">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="22" t="s">
         <v>981</v>
       </c>
-      <c r="B31" s="30"/>
-      <c r="C31" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="D31" s="29"/>
+      <c r="B31" s="25" t="s">
+        <v>689</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>691</v>
+      </c>
+      <c r="D31" s="26">
+        <v>320</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="22" t="s">
-        <v>993</v>
-      </c>
-      <c r="B32" s="35" t="s">
-        <v>1080</v>
-      </c>
-      <c r="C32" s="34" t="s">
-        <v>990</v>
-      </c>
-      <c r="D32" s="29">
-        <v>200</v>
+      <c r="A32" s="28" t="s">
+        <v>772</v>
+      </c>
+      <c r="B32" s="31" t="s">
+        <v>694</v>
+      </c>
+      <c r="C32" s="30" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D32" s="26">
+        <v>150</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
-        <v>994</v>
-      </c>
-      <c r="B33" s="28" t="s">
-        <v>701</v>
-      </c>
-      <c r="C33" s="19" t="s">
-        <v>703</v>
-      </c>
-      <c r="D33" s="29">
-        <v>320</v>
+        <v>982</v>
+      </c>
+      <c r="B33" s="31" t="s">
+        <v>695</v>
+      </c>
+      <c r="C33" s="30" t="s">
+        <v>710</v>
+      </c>
+      <c r="D33" s="26">
+        <v>160</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="32" t="s">
-        <v>784</v>
-      </c>
-      <c r="B34" s="35" t="s">
-        <v>706</v>
-      </c>
-      <c r="C34" s="34" t="s">
-        <v>1081</v>
-      </c>
-      <c r="D34" s="29">
-        <v>150</v>
+      <c r="A34" s="22" t="s">
+        <v>983</v>
+      </c>
+      <c r="B34" s="31" t="s">
+        <v>696</v>
+      </c>
+      <c r="C34" s="30" t="s">
+        <v>697</v>
+      </c>
+      <c r="D34" s="26">
+        <v>110</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="22" t="s">
-        <v>995</v>
-      </c>
-      <c r="B35" s="35" t="s">
-        <v>707</v>
-      </c>
-      <c r="C35" s="34" t="s">
-        <v>722</v>
-      </c>
-      <c r="D35" s="29">
-        <v>160</v>
+      <c r="A35" s="28" t="s">
+        <v>768</v>
+      </c>
+      <c r="B35" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="C35" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="D35" s="26">
+        <v>350</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="22" t="s">
-        <v>996</v>
-      </c>
-      <c r="B36" s="35" t="s">
-        <v>708</v>
-      </c>
-      <c r="C36" s="34" t="s">
+        <v>984</v>
+      </c>
+      <c r="B36" s="31" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C36" s="30" t="s">
+        <v>971</v>
+      </c>
+      <c r="D36" s="26">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="22" t="s">
+        <v>985</v>
+      </c>
+      <c r="B37" s="31" t="s">
+        <v>711</v>
+      </c>
+      <c r="C37" s="30" t="s">
         <v>709</v>
       </c>
-      <c r="D36" s="29">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="32" t="s">
-        <v>780</v>
-      </c>
-      <c r="B37" s="35" t="s">
-        <v>183</v>
-      </c>
-      <c r="C37" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D37" s="29">
-        <v>350</v>
+      <c r="D37" s="26">
+        <v>3200</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="22" t="s">
-        <v>997</v>
-      </c>
-      <c r="B38" s="35" t="s">
-        <v>1022</v>
-      </c>
-      <c r="C38" s="34" t="s">
-        <v>984</v>
-      </c>
-      <c r="D38" s="29">
-        <v>500</v>
+        <v>986</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>712</v>
+      </c>
+      <c r="D38" s="26">
+        <v>420</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="22" t="s">
-        <v>998</v>
-      </c>
-      <c r="B39" s="35" t="s">
-        <v>723</v>
-      </c>
-      <c r="C39" s="34" t="s">
-        <v>721</v>
-      </c>
-      <c r="D39" s="29">
-        <v>3200</v>
+        <v>997</v>
+      </c>
+      <c r="B39" s="29" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C39" s="30" t="s">
+        <v>890</v>
+      </c>
+      <c r="D39" s="26">
+        <v>800</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="22" t="s">
-        <v>999</v>
-      </c>
-      <c r="B40" s="15" t="s">
-        <v>323</v>
-      </c>
-      <c r="C40" s="19" t="s">
-        <v>724</v>
-      </c>
-      <c r="D40" s="29">
-        <v>420</v>
+        <v>998</v>
+      </c>
+      <c r="B40" s="29" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C40" s="30" t="s">
+        <v>891</v>
+      </c>
+      <c r="D40" s="26">
+        <v>920</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="22" t="s">
-        <v>1010</v>
-      </c>
-      <c r="B41" s="33" t="s">
-        <v>1082</v>
-      </c>
-      <c r="C41" s="34" t="s">
-        <v>902</v>
-      </c>
-      <c r="D41" s="29">
-        <v>800</v>
+        <v>999</v>
+      </c>
+      <c r="B41" s="29" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C41" s="30" t="s">
+        <v>892</v>
+      </c>
+      <c r="D41" s="26">
+        <v>1150</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="22" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B42" s="33" t="s">
-        <v>1083</v>
-      </c>
-      <c r="C42" s="34" t="s">
-        <v>903</v>
-      </c>
-      <c r="D42" s="29">
-        <v>920</v>
+        <v>1000</v>
+      </c>
+      <c r="B42" s="29" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C42" s="30" t="s">
+        <v>893</v>
+      </c>
+      <c r="D42" s="26">
+        <v>1350</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="22" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B43" s="33" t="s">
-        <v>1084</v>
-      </c>
-      <c r="C43" s="34" t="s">
-        <v>904</v>
-      </c>
-      <c r="D43" s="29">
-        <v>1150</v>
+        <v>1001</v>
+      </c>
+      <c r="B43" s="29" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C43" s="30" t="s">
+        <v>896</v>
+      </c>
+      <c r="D43" s="26">
+        <v>900</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="22" t="s">
-        <v>1013</v>
-      </c>
-      <c r="B44" s="33" t="s">
-        <v>1085</v>
-      </c>
-      <c r="C44" s="34" t="s">
-        <v>905</v>
-      </c>
-      <c r="D44" s="29">
-        <v>1350</v>
+        <v>1002</v>
+      </c>
+      <c r="B44" s="29" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C44" s="30" t="s">
+        <v>895</v>
+      </c>
+      <c r="D44" s="26">
+        <v>1150</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="22" t="s">
-        <v>1014</v>
-      </c>
-      <c r="B45" s="33" t="s">
-        <v>1086</v>
-      </c>
-      <c r="C45" s="34" t="s">
-        <v>908</v>
-      </c>
-      <c r="D45" s="29">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1003</v>
+      </c>
+      <c r="B45" s="29" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C45" s="30" t="s">
+        <v>894</v>
+      </c>
+      <c r="D45" s="26">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="22" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B46" s="33" t="s">
-        <v>1087</v>
-      </c>
-      <c r="C46" s="34" t="s">
-        <v>907</v>
-      </c>
-      <c r="D46" s="29">
+        <v>1004</v>
+      </c>
+      <c r="B46" s="29" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C46" s="30" t="s">
+        <v>897</v>
+      </c>
+      <c r="D46" s="26">
         <v>1150</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="22" t="s">
-        <v>1016</v>
-      </c>
-      <c r="B47" s="33" t="s">
-        <v>1088</v>
-      </c>
-      <c r="C47" s="34" t="s">
-        <v>906</v>
-      </c>
-      <c r="D47" s="29">
-        <v>1250</v>
+        <v>1005</v>
+      </c>
+      <c r="B47" s="29" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C47" s="30" t="s">
+        <v>898</v>
+      </c>
+      <c r="D47" s="26">
+        <v>1350</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="22" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B48" s="33" t="s">
-        <v>1089</v>
-      </c>
-      <c r="C48" s="34" t="s">
-        <v>909</v>
-      </c>
-      <c r="D48" s="29">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="22" t="s">
-        <v>1018</v>
-      </c>
-      <c r="B49" s="33" t="s">
-        <v>1090</v>
-      </c>
-      <c r="C49" s="34" t="s">
-        <v>910</v>
-      </c>
-      <c r="D49" s="29">
-        <v>1350</v>
-      </c>
+        <v>1006</v>
+      </c>
+      <c r="B48" s="29" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C48" s="30" t="s">
+        <v>899</v>
+      </c>
+      <c r="D48" s="26">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="28" t="s">
+        <v>975</v>
+      </c>
+      <c r="B49" s="29" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C49" s="30" t="s">
+        <v>973</v>
+      </c>
+      <c r="D49" s="26">
+        <v>390</v>
+      </c>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="21"/>
     </row>
     <row r="50" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="22" t="s">
-        <v>1019</v>
-      </c>
-      <c r="B50" s="33" t="s">
-        <v>1091</v>
-      </c>
-      <c r="C50" s="34" t="s">
-        <v>911</v>
-      </c>
-      <c r="D50" s="29">
-        <v>1550</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="32" t="s">
+      <c r="A50" s="28" t="s">
+        <v>976</v>
+      </c>
+      <c r="B50" s="29" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D50" s="26">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="22" t="s">
+        <v>295</v>
+      </c>
+      <c r="B51" s="15" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C51" s="19" t="s">
+        <v>706</v>
+      </c>
+      <c r="D51" s="26">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="24" t="s">
+        <v>969</v>
+      </c>
+      <c r="B52" s="47">
+        <v>150</v>
+      </c>
+      <c r="C52" s="48"/>
+      <c r="D52" s="49"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="22" t="s">
+        <v>987</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>700</v>
+      </c>
+      <c r="C53" s="19" t="s">
+        <v>701</v>
+      </c>
+      <c r="D53" s="26">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="22" t="s">
         <v>988</v>
       </c>
-      <c r="B51" s="33" t="s">
-        <v>1092</v>
-      </c>
-      <c r="C51" s="34" t="s">
-        <v>986</v>
-      </c>
-      <c r="D51" s="29">
-        <v>390</v>
-      </c>
-      <c r="E51" s="21"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="21"/>
-      <c r="H51" s="21"/>
-    </row>
-    <row r="52" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="32" t="s">
-        <v>989</v>
-      </c>
-      <c r="B52" s="33" t="s">
-        <v>1093</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>1190</v>
-      </c>
-      <c r="D52" s="29">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="22" t="s">
-        <v>305</v>
-      </c>
-      <c r="B53" s="15" t="s">
-        <v>1020</v>
-      </c>
-      <c r="C53" s="19" t="s">
-        <v>718</v>
-      </c>
-      <c r="D53" s="29">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="26" t="s">
-        <v>982</v>
-      </c>
-      <c r="B54" s="30"/>
-      <c r="C54" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="D54" s="29"/>
+      <c r="B54" s="15" t="s">
+        <v>703</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>702</v>
+      </c>
+      <c r="D54" s="26">
+        <v>280</v>
+      </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="22" t="s">
-        <v>1000</v>
+        <v>989</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>712</v>
+        <v>1008</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>713</v>
-      </c>
-      <c r="D55" s="29">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1178</v>
+      </c>
+      <c r="D55" s="26">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="22" t="s">
-        <v>1001</v>
+        <v>990</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>715</v>
+        <v>900</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>714</v>
-      </c>
-      <c r="D56" s="29">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+        <v>762</v>
+      </c>
+      <c r="D56" s="26">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="22" t="s">
-        <v>1002</v>
+        <v>991</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>1021</v>
+        <v>901</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>1191</v>
-      </c>
-      <c r="D57" s="29">
-        <v>570</v>
+        <v>704</v>
+      </c>
+      <c r="D57" s="26">
+        <v>680</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="22" t="s">
-        <v>1003</v>
+        <v>992</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>912</v>
+        <v>902</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>774</v>
-      </c>
-      <c r="D58" s="29">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="22" t="s">
-        <v>1004</v>
-      </c>
-      <c r="B59" s="15" t="s">
-        <v>913</v>
-      </c>
-      <c r="C59" s="19" t="s">
-        <v>716</v>
-      </c>
-      <c r="D59" s="29">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="22" t="s">
-        <v>1005</v>
-      </c>
-      <c r="B60" s="15" t="s">
-        <v>914</v>
-      </c>
-      <c r="C60" s="19" t="s">
-        <v>717</v>
-      </c>
-      <c r="D60" s="29">
+        <v>705</v>
+      </c>
+      <c r="D58" s="26">
         <v>890</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="32" t="s">
-        <v>1006</v>
-      </c>
-      <c r="B61" s="33" t="s">
-        <v>1094</v>
-      </c>
-      <c r="C61" s="34" t="s">
-        <v>1150</v>
-      </c>
-      <c r="D61" s="29">
+    <row r="59" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="28" t="s">
+        <v>993</v>
+      </c>
+      <c r="B59" s="29" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C59" s="30" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D59" s="26">
         <v>1750</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="B62" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D62" s="23">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D60" s="23">
         <v>500</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="7">
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B52:D52"/>
     <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B21:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/excel/new_prise_s.xlsx
+++ b/excel/new_prise_s.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wamp\www\Fortest\asm_journal\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B66E46-6EB6-4376-9DA9-EBB61DF60F94}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D9CCFBC-FED5-4D73-85B2-3D92D0EAAE53}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="1225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="1219">
   <si>
     <t>B01.065.007</t>
   </si>
@@ -2967,31 +2967,13 @@
     <t>12.1.3</t>
   </si>
   <si>
-    <t>12.2</t>
-  </si>
-  <si>
-    <t>12.3</t>
-  </si>
-  <si>
     <t>A02.07.005.001</t>
   </si>
   <si>
-    <t>12.4</t>
-  </si>
-  <si>
     <t>12.4.1</t>
   </si>
   <si>
     <t>12.4.2</t>
-  </si>
-  <si>
-    <t>12.5</t>
-  </si>
-  <si>
-    <t>12.6</t>
-  </si>
-  <si>
-    <t>12.7</t>
   </si>
   <si>
     <t>Глубокое фторирование (ременелизирующая терапия) 1 челюсть</t>
@@ -4790,9 +4772,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E387"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="A292" sqref="A292"/>
-    </sheetView>
+    <sheetView topLeftCell="A316" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4804,7 +4784,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="39" t="s">
-        <v>1224</v>
+        <v>1218</v>
       </c>
       <c r="B1" s="40">
         <v>127</v>
@@ -5094,7 +5074,7 @@
     </row>
     <row r="22" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="39" t="s">
-        <v>1224</v>
+        <v>1218</v>
       </c>
       <c r="B22" s="40">
         <v>128</v>
@@ -5121,7 +5101,7 @@
         <v>264</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>1063</v>
+        <v>1057</v>
       </c>
       <c r="C24" s="19" t="s">
         <v>32</v>
@@ -5135,7 +5115,7 @@
         <v>265</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>1064</v>
+        <v>1058</v>
       </c>
       <c r="C25" s="19" t="s">
         <v>33</v>
@@ -5186,7 +5166,7 @@
     </row>
     <row r="29" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="39" t="s">
-        <v>1224</v>
+        <v>1218</v>
       </c>
       <c r="B29" s="40">
         <v>130</v>
@@ -5213,7 +5193,7 @@
         <v>270</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>49</v>
@@ -5332,7 +5312,7 @@
     </row>
     <row r="40" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A40" s="39" t="s">
-        <v>1224</v>
+        <v>1218</v>
       </c>
       <c r="B40" s="40">
         <v>131</v>
@@ -5384,7 +5364,7 @@
     </row>
     <row r="44" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="39" t="s">
-        <v>1224</v>
+        <v>1218</v>
       </c>
       <c r="B44" s="40">
         <v>132</v>
@@ -5425,7 +5405,7 @@
         <v>285</v>
       </c>
       <c r="B47" s="25" t="s">
-        <v>1065</v>
+        <v>1059</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>68</v>
@@ -5467,7 +5447,7 @@
         <v>288</v>
       </c>
       <c r="B50" s="25" t="s">
-        <v>1157</v>
+        <v>1151</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>62</v>
@@ -5481,7 +5461,7 @@
         <v>289</v>
       </c>
       <c r="B51" s="25" t="s">
-        <v>1158</v>
+        <v>1152</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>63</v>
@@ -5495,7 +5475,7 @@
         <v>290</v>
       </c>
       <c r="B52" s="25" t="s">
-        <v>1159</v>
+        <v>1153</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>64</v>
@@ -5509,7 +5489,7 @@
         <v>291</v>
       </c>
       <c r="B53" s="25" t="s">
-        <v>1160</v>
+        <v>1154</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>65</v>
@@ -5523,7 +5503,7 @@
         <v>292</v>
       </c>
       <c r="B54" s="25" t="s">
-        <v>1161</v>
+        <v>1155</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>66</v>
@@ -5562,7 +5542,7 @@
     </row>
     <row r="57" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="39" t="s">
-        <v>1224</v>
+        <v>1218</v>
       </c>
       <c r="B57" s="40">
         <v>133</v>
@@ -5572,7 +5552,7 @@
     </row>
     <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>1224</v>
+        <v>1218</v>
       </c>
       <c r="B58" s="42">
         <v>134</v>
@@ -5585,10 +5565,10 @@
         <v>767</v>
       </c>
       <c r="B59" s="31" t="s">
-        <v>1067</v>
+        <v>1061</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>977</v>
+        <v>971</v>
       </c>
       <c r="D59" s="23">
         <v>200</v>
@@ -5602,7 +5582,7 @@
         <v>173</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="D60" s="23">
         <v>350</v>
@@ -5613,7 +5593,7 @@
         <v>766</v>
       </c>
       <c r="B61" s="31" t="s">
-        <v>972</v>
+        <v>966</v>
       </c>
       <c r="C61" s="6" t="s">
         <v>81</v>
@@ -5655,10 +5635,10 @@
         <v>771</v>
       </c>
       <c r="B64" s="31" t="s">
-        <v>1183</v>
+        <v>1177</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>1085</v>
+        <v>1079</v>
       </c>
       <c r="D64" s="23">
         <v>270</v>
@@ -5669,10 +5649,10 @@
         <v>772</v>
       </c>
       <c r="B65" s="31" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>1185</v>
+        <v>1179</v>
       </c>
       <c r="D65" s="23">
         <v>300</v>
@@ -5694,7 +5674,7 @@
     </row>
     <row r="67" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>1203</v>
+        <v>1197</v>
       </c>
       <c r="B67" s="25" t="s">
         <v>168</v>
@@ -5708,7 +5688,7 @@
     </row>
     <row r="68" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>1204</v>
+        <v>1198</v>
       </c>
       <c r="B68" s="25" t="s">
         <v>77</v>
@@ -5722,13 +5702,13 @@
     </row>
     <row r="69" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>1205</v>
+        <v>1199</v>
       </c>
       <c r="B69" s="25" t="s">
         <v>172</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>1019</v>
+        <v>1013</v>
       </c>
       <c r="D69" s="23">
         <v>1700</v>
@@ -5736,7 +5716,7 @@
     </row>
     <row r="70" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>1206</v>
+        <v>1200</v>
       </c>
       <c r="B70" s="25" t="s">
         <v>174</v>
@@ -5750,10 +5730,10 @@
     </row>
     <row r="71" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>1207</v>
+        <v>1201</v>
       </c>
       <c r="B71" s="25" t="s">
-        <v>1138</v>
+        <v>1132</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>85</v>
@@ -5764,10 +5744,10 @@
     </row>
     <row r="72" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>1208</v>
+        <v>1202</v>
       </c>
       <c r="B72" s="25" t="s">
-        <v>1139</v>
+        <v>1133</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>86</v>
@@ -5778,7 +5758,7 @@
     </row>
     <row r="73" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>1209</v>
+        <v>1203</v>
       </c>
       <c r="B73" s="25" t="s">
         <v>175</v>
@@ -5792,7 +5772,7 @@
     </row>
     <row r="74" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>1210</v>
+        <v>1204</v>
       </c>
       <c r="B74" s="25" t="s">
         <v>176</v>
@@ -5806,10 +5786,10 @@
     </row>
     <row r="75" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>1211</v>
+        <v>1205</v>
       </c>
       <c r="B75" s="25" t="s">
-        <v>1140</v>
+        <v>1134</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>89</v>
@@ -5820,10 +5800,10 @@
     </row>
     <row r="76" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>1212</v>
+        <v>1206</v>
       </c>
       <c r="B76" s="25" t="s">
-        <v>1141</v>
+        <v>1135</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>90</v>
@@ -5834,7 +5814,7 @@
     </row>
     <row r="77" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="39" t="s">
-        <v>1224</v>
+        <v>1218</v>
       </c>
       <c r="B77" s="42">
         <v>135</v>
@@ -5847,7 +5827,7 @@
         <v>296</v>
       </c>
       <c r="B78" s="25" t="s">
-        <v>1142</v>
+        <v>1136</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>102</v>
@@ -5861,10 +5841,10 @@
         <v>297</v>
       </c>
       <c r="B79" s="25" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>1216</v>
+        <v>1210</v>
       </c>
       <c r="D79" s="23">
         <v>1550</v>
@@ -5875,10 +5855,10 @@
         <v>298</v>
       </c>
       <c r="B80" s="25" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
       <c r="D80" s="23">
         <v>1750</v>
@@ -5889,10 +5869,10 @@
         <v>299</v>
       </c>
       <c r="B81" s="25" t="s">
-        <v>1145</v>
+        <v>1139</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>1217</v>
+        <v>1211</v>
       </c>
       <c r="D81" s="23">
         <v>2150</v>
@@ -5903,7 +5883,7 @@
         <v>300</v>
       </c>
       <c r="B82" s="25" t="s">
-        <v>1146</v>
+        <v>1140</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>103</v>
@@ -5917,10 +5897,10 @@
         <v>301</v>
       </c>
       <c r="B83" s="25" t="s">
-        <v>1147</v>
+        <v>1141</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
       <c r="D83" s="38"/>
     </row>
@@ -5929,10 +5909,10 @@
         <v>302</v>
       </c>
       <c r="B84" s="25" t="s">
-        <v>1148</v>
+        <v>1142</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>1219</v>
+        <v>1213</v>
       </c>
       <c r="D84" s="38"/>
     </row>
@@ -5941,10 +5921,10 @@
         <v>303</v>
       </c>
       <c r="B85" s="25" t="s">
-        <v>1149</v>
+        <v>1143</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>1220</v>
+        <v>1214</v>
       </c>
       <c r="D85" s="3"/>
     </row>
@@ -5953,7 +5933,7 @@
         <v>304</v>
       </c>
       <c r="B86" s="25" t="s">
-        <v>1150</v>
+        <v>1144</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>104</v>
@@ -5965,10 +5945,10 @@
         <v>305</v>
       </c>
       <c r="B87" s="25" t="s">
-        <v>1151</v>
+        <v>1145</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>1221</v>
+        <v>1215</v>
       </c>
       <c r="D87" s="23">
         <v>600</v>
@@ -5979,10 +5959,10 @@
         <v>306</v>
       </c>
       <c r="B88" s="25" t="s">
-        <v>1152</v>
+        <v>1146</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>1222</v>
+        <v>1216</v>
       </c>
       <c r="D88" s="23">
         <v>800</v>
@@ -5993,10 +5973,10 @@
         <v>307</v>
       </c>
       <c r="B89" s="25" t="s">
-        <v>1153</v>
+        <v>1147</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>1223</v>
+        <v>1217</v>
       </c>
       <c r="D89" s="23">
         <v>1000</v>
@@ -6007,7 +5987,7 @@
         <v>308</v>
       </c>
       <c r="B90" s="25" t="s">
-        <v>1154</v>
+        <v>1148</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>105</v>
@@ -6021,7 +6001,7 @@
         <v>309</v>
       </c>
       <c r="B91" s="25" t="s">
-        <v>1155</v>
+        <v>1149</v>
       </c>
       <c r="C91" s="6" t="s">
         <v>106</v>
@@ -6046,13 +6026,13 @@
     </row>
     <row r="93" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>1196</v>
+        <v>1190</v>
       </c>
       <c r="B93" s="25" t="s">
         <v>698</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>1200</v>
+        <v>1194</v>
       </c>
       <c r="D93" s="23">
         <v>380</v>
@@ -6060,13 +6040,13 @@
     </row>
     <row r="94" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>1197</v>
+        <v>1191</v>
       </c>
       <c r="B94" s="25" t="s">
         <v>700</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>1201</v>
+        <v>1195</v>
       </c>
       <c r="D94" s="23">
         <v>760</v>
@@ -6074,13 +6054,13 @@
     </row>
     <row r="95" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="B95" s="25" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>1202</v>
+        <v>1196</v>
       </c>
       <c r="D95" s="23">
         <v>1140</v>
@@ -6172,10 +6152,10 @@
     </row>
     <row r="102" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>1020</v>
+        <v>1014</v>
       </c>
       <c r="B102" s="25" t="s">
-        <v>1156</v>
+        <v>1150</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>101</v>
@@ -6186,13 +6166,13 @@
     </row>
     <row r="103" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>1021</v>
+        <v>1015</v>
       </c>
       <c r="B103" s="25" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>1082</v>
+        <v>1076</v>
       </c>
       <c r="D103" s="23">
         <v>550</v>
@@ -6200,13 +6180,13 @@
     </row>
     <row r="104" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="B104" s="25" t="s">
-        <v>1008</v>
+        <v>1002</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
       <c r="D104" s="23">
         <v>420</v>
@@ -6214,13 +6194,13 @@
     </row>
     <row r="105" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="18" t="s">
-        <v>975</v>
+        <v>969</v>
       </c>
       <c r="B105" s="31" t="s">
-        <v>1079</v>
+        <v>1073</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>1083</v>
+        <v>1077</v>
       </c>
       <c r="D105" s="7">
         <v>390</v>
@@ -6228,13 +6208,13 @@
     </row>
     <row r="106" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="18" t="s">
-        <v>976</v>
+        <v>970</v>
       </c>
       <c r="B106" s="31" t="s">
-        <v>1080</v>
+        <v>1074</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>974</v>
+        <v>968</v>
       </c>
       <c r="D106" s="36">
         <v>550</v>
@@ -6242,7 +6222,7 @@
     </row>
     <row r="107" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="39" t="s">
-        <v>1224</v>
+        <v>1218</v>
       </c>
       <c r="B107" s="42">
         <v>136</v>
@@ -6294,10 +6274,10 @@
     </row>
     <row r="111" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>1169</v>
+        <v>1163</v>
       </c>
       <c r="B111" s="31" t="s">
-        <v>1162</v>
+        <v>1156</v>
       </c>
       <c r="C111" s="6" t="s">
         <v>107</v>
@@ -6308,10 +6288,10 @@
     </row>
     <row r="112" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>1170</v>
+        <v>1164</v>
       </c>
       <c r="B112" s="31" t="s">
-        <v>1163</v>
+        <v>1157</v>
       </c>
       <c r="C112" s="6" t="s">
         <v>108</v>
@@ -6322,10 +6302,10 @@
     </row>
     <row r="113" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>1171</v>
+        <v>1165</v>
       </c>
       <c r="B113" s="31" t="s">
-        <v>1164</v>
+        <v>1158</v>
       </c>
       <c r="C113" s="6" t="s">
         <v>109</v>
@@ -6336,13 +6316,13 @@
     </row>
     <row r="114" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>1172</v>
+        <v>1166</v>
       </c>
       <c r="B114" s="31" t="s">
-        <v>1165</v>
+        <v>1159</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
       <c r="D114" s="23">
         <v>1600</v>
@@ -6350,10 +6330,10 @@
     </row>
     <row r="115" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>1180</v>
+        <v>1174</v>
       </c>
       <c r="B115" s="25" t="s">
-        <v>1166</v>
+        <v>1160</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>221</v>
@@ -6364,10 +6344,10 @@
     </row>
     <row r="116" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>1181</v>
+        <v>1175</v>
       </c>
       <c r="B116" s="31" t="s">
-        <v>1167</v>
+        <v>1161</v>
       </c>
       <c r="C116" s="6" t="s">
         <v>222</v>
@@ -6378,7 +6358,7 @@
     </row>
     <row r="117" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>1182</v>
+        <v>1176</v>
       </c>
       <c r="B117" s="5" t="s">
         <v>110</v>
@@ -6392,7 +6372,7 @@
     </row>
     <row r="118" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A118" s="39" t="s">
-        <v>1224</v>
+        <v>1218</v>
       </c>
       <c r="B118" s="40">
         <v>137</v>
@@ -6422,7 +6402,7 @@
         <v>120</v>
       </c>
       <c r="C120" s="25" t="s">
-        <v>1168</v>
+        <v>1162</v>
       </c>
       <c r="D120" s="23">
         <v>550</v>
@@ -6500,7 +6480,7 @@
     </row>
     <row r="126" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
-        <v>1224</v>
+        <v>1218</v>
       </c>
       <c r="B126" s="45">
         <v>142</v>
@@ -6594,7 +6574,7 @@
     </row>
     <row r="133" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>1113</v>
+        <v>1107</v>
       </c>
       <c r="B133" s="5" t="s">
         <v>133</v>
@@ -6608,7 +6588,7 @@
     </row>
     <row r="134" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>1114</v>
+        <v>1108</v>
       </c>
       <c r="B134" s="5" t="s">
         <v>135</v>
@@ -6679,7 +6659,7 @@
     </row>
     <row r="139" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="B139" s="10" t="s">
         <v>143</v>
@@ -6693,7 +6673,7 @@
     </row>
     <row r="140" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>1088</v>
+        <v>1082</v>
       </c>
       <c r="B140" s="5" t="s">
         <v>145</v>
@@ -6707,7 +6687,7 @@
     </row>
     <row r="141" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="B141" s="5" t="s">
         <v>147</v>
@@ -6721,7 +6701,7 @@
     </row>
     <row r="142" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
       <c r="B142" s="5" t="s">
         <v>148</v>
@@ -6735,7 +6715,7 @@
     </row>
     <row r="143" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
       <c r="B143" s="5" t="s">
         <v>150</v>
@@ -6749,13 +6729,13 @@
     </row>
     <row r="144" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>1092</v>
+        <v>1086</v>
       </c>
       <c r="B144" s="5" t="s">
         <v>151</v>
       </c>
       <c r="C144" s="25" t="s">
-        <v>1186</v>
+        <v>1180</v>
       </c>
       <c r="D144" s="23">
         <v>1500</v>
@@ -6763,7 +6743,7 @@
     </row>
     <row r="145" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>1093</v>
+        <v>1087</v>
       </c>
       <c r="B145" s="5" t="s">
         <v>152</v>
@@ -6777,7 +6757,7 @@
     </row>
     <row r="146" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>1094</v>
+        <v>1088</v>
       </c>
       <c r="B146" s="5" t="s">
         <v>153</v>
@@ -6791,7 +6771,7 @@
     </row>
     <row r="147" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>1095</v>
+        <v>1089</v>
       </c>
       <c r="B147" s="5" t="s">
         <v>156</v>
@@ -6805,7 +6785,7 @@
     </row>
     <row r="148" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
       <c r="B148" s="5" t="s">
         <v>183</v>
@@ -6819,7 +6799,7 @@
     </row>
     <row r="149" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="B149" s="5" t="s">
         <v>186</v>
@@ -6833,7 +6813,7 @@
     </row>
     <row r="150" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="B150" s="10" t="s">
         <v>141</v>
@@ -6847,7 +6827,7 @@
     </row>
     <row r="151" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>1099</v>
+        <v>1093</v>
       </c>
       <c r="B151" s="5" t="s">
         <v>154</v>
@@ -6861,7 +6841,7 @@
     </row>
     <row r="152" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>1115</v>
+        <v>1109</v>
       </c>
       <c r="B152" s="10" t="s">
         <v>520</v>
@@ -6875,7 +6855,7 @@
     </row>
     <row r="153" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>1116</v>
+        <v>1110</v>
       </c>
       <c r="B153" s="10" t="s">
         <v>522</v>
@@ -6889,7 +6869,7 @@
     </row>
     <row r="154" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>1117</v>
+        <v>1111</v>
       </c>
       <c r="B154" s="10" t="s">
         <v>524</v>
@@ -6903,7 +6883,7 @@
     </row>
     <row r="155" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>1118</v>
+        <v>1112</v>
       </c>
       <c r="B155" s="10" t="s">
         <v>525</v>
@@ -6917,7 +6897,7 @@
     </row>
     <row r="156" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="B156" s="10" t="s">
         <v>157</v>
@@ -6931,7 +6911,7 @@
     </row>
     <row r="157" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="B157" s="5" t="s">
         <v>158</v>
@@ -6945,7 +6925,7 @@
     </row>
     <row r="158" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
       <c r="B158" s="5" t="s">
         <v>159</v>
@@ -6959,7 +6939,7 @@
     </row>
     <row r="159" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>1103</v>
+        <v>1097</v>
       </c>
       <c r="B159" s="5" t="s">
         <v>160</v>
@@ -6973,7 +6953,7 @@
     </row>
     <row r="160" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
       <c r="B160" s="5" t="s">
         <v>155</v>
@@ -6987,7 +6967,7 @@
     </row>
     <row r="161" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>1105</v>
+        <v>1099</v>
       </c>
       <c r="B161" s="10" t="s">
         <v>322</v>
@@ -7001,7 +6981,7 @@
     </row>
     <row r="162" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>1106</v>
+        <v>1100</v>
       </c>
       <c r="B162" s="5" t="s">
         <v>324</v>
@@ -7015,7 +6995,7 @@
     </row>
     <row r="163" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
       <c r="B163" s="5" t="s">
         <v>162</v>
@@ -7029,7 +7009,7 @@
     </row>
     <row r="164" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>1108</v>
+        <v>1102</v>
       </c>
       <c r="B164" s="5" t="s">
         <v>164</v>
@@ -7043,7 +7023,7 @@
     </row>
     <row r="165" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>1109</v>
+        <v>1103</v>
       </c>
       <c r="B165" s="5" t="s">
         <v>165</v>
@@ -7057,7 +7037,7 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>1110</v>
+        <v>1104</v>
       </c>
       <c r="B166" s="10" t="s">
         <v>166</v>
@@ -7071,7 +7051,7 @@
     </row>
     <row r="167" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>1111</v>
+        <v>1105</v>
       </c>
       <c r="B167" s="10" t="s">
         <v>321</v>
@@ -7085,7 +7065,7 @@
     </row>
     <row r="168" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>1112</v>
+        <v>1106</v>
       </c>
       <c r="B168" s="10" t="s">
         <v>251</v>
@@ -7099,7 +7079,7 @@
     </row>
     <row r="169" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="39" t="s">
-        <v>1224</v>
+        <v>1218</v>
       </c>
       <c r="B169" s="40">
         <v>138</v>
@@ -7109,13 +7089,13 @@
     </row>
     <row r="170" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>1187</v>
+        <v>1181</v>
       </c>
       <c r="B170" s="5" t="s">
         <v>217</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>1188</v>
+        <v>1182</v>
       </c>
       <c r="D170" s="23">
         <v>5500</v>
@@ -7123,13 +7103,13 @@
     </row>
     <row r="171" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>1189</v>
+        <v>1183</v>
       </c>
       <c r="B171" s="5" t="s">
         <v>218</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>1190</v>
+        <v>1184</v>
       </c>
       <c r="D171" s="23">
         <v>10000</v>
@@ -7137,13 +7117,13 @@
     </row>
     <row r="172" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>1191</v>
+        <v>1185</v>
       </c>
       <c r="B172" s="5" t="s">
         <v>684</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>1192</v>
+        <v>1186</v>
       </c>
       <c r="D172" s="23">
         <v>3300</v>
@@ -7151,13 +7131,13 @@
     </row>
     <row r="173" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>1193</v>
+        <v>1187</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>1194</v>
+        <v>1188</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>1195</v>
+        <v>1189</v>
       </c>
       <c r="D173" s="23">
         <v>5500</v>
@@ -7347,7 +7327,7 @@
     </row>
     <row r="187" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="39" t="s">
-        <v>1224</v>
+        <v>1218</v>
       </c>
       <c r="B187" s="40">
         <v>139</v>
@@ -7514,7 +7494,7 @@
         <v>815</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>996</v>
+        <v>990</v>
       </c>
       <c r="C199" s="5" t="s">
         <v>170</v>
@@ -7665,7 +7645,7 @@
     </row>
     <row r="210" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="39" t="s">
-        <v>1224</v>
+        <v>1218</v>
       </c>
       <c r="B210" s="40">
         <v>140</v>
@@ -8557,7 +8537,7 @@
     </row>
     <row r="274" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
-        <v>1119</v>
+        <v>1113</v>
       </c>
       <c r="B274" s="10" t="s">
         <v>505</v>
@@ -8571,7 +8551,7 @@
     </row>
     <row r="275" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
-        <v>1120</v>
+        <v>1114</v>
       </c>
       <c r="B275" s="10" t="s">
         <v>506</v>
@@ -8585,7 +8565,7 @@
     </row>
     <row r="276" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
-        <v>1121</v>
+        <v>1115</v>
       </c>
       <c r="B276" s="10" t="s">
         <v>507</v>
@@ -8599,7 +8579,7 @@
     </row>
     <row r="277" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
-        <v>1122</v>
+        <v>1116</v>
       </c>
       <c r="B277" s="10" t="s">
         <v>508</v>
@@ -8613,7 +8593,7 @@
     </row>
     <row r="278" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
-        <v>1123</v>
+        <v>1117</v>
       </c>
       <c r="B278" s="10" t="s">
         <v>509</v>
@@ -8627,7 +8607,7 @@
     </row>
     <row r="279" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
-        <v>1124</v>
+        <v>1118</v>
       </c>
       <c r="B279" s="10" t="s">
         <v>510</v>
@@ -8641,7 +8621,7 @@
     </row>
     <row r="280" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
-        <v>1125</v>
+        <v>1119</v>
       </c>
       <c r="B280" s="10" t="s">
         <v>511</v>
@@ -8655,7 +8635,7 @@
     </row>
     <row r="281" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
-        <v>1126</v>
+        <v>1120</v>
       </c>
       <c r="B281" s="10" t="s">
         <v>512</v>
@@ -8669,7 +8649,7 @@
     </row>
     <row r="282" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
-        <v>1127</v>
+        <v>1121</v>
       </c>
       <c r="B282" s="10" t="s">
         <v>513</v>
@@ -8683,7 +8663,7 @@
     </row>
     <row r="283" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
-        <v>1128</v>
+        <v>1122</v>
       </c>
       <c r="B283" s="10" t="s">
         <v>514</v>
@@ -8697,7 +8677,7 @@
     </row>
     <row r="284" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
-        <v>1129</v>
+        <v>1123</v>
       </c>
       <c r="B284" s="10" t="s">
         <v>515</v>
@@ -8711,7 +8691,7 @@
     </row>
     <row r="285" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
-        <v>1130</v>
+        <v>1124</v>
       </c>
       <c r="B285" s="10" t="s">
         <v>516</v>
@@ -8725,7 +8705,7 @@
     </row>
     <row r="286" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
-        <v>1131</v>
+        <v>1125</v>
       </c>
       <c r="B286" s="10" t="s">
         <v>517</v>
@@ -8739,7 +8719,7 @@
     </row>
     <row r="287" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
-        <v>1132</v>
+        <v>1126</v>
       </c>
       <c r="B287" s="10" t="s">
         <v>518</v>
@@ -8753,7 +8733,7 @@
     </row>
     <row r="288" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
-        <v>1133</v>
+        <v>1127</v>
       </c>
       <c r="B288" s="10" t="s">
         <v>519</v>
@@ -8767,7 +8747,7 @@
     </row>
     <row r="289" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
-        <v>1134</v>
+        <v>1128</v>
       </c>
       <c r="B289" s="10" t="s">
         <v>328</v>
@@ -8781,7 +8761,7 @@
     </row>
     <row r="290" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
-        <v>1135</v>
+        <v>1129</v>
       </c>
       <c r="B290" s="10" t="s">
         <v>329</v>
@@ -8795,7 +8775,7 @@
     </row>
     <row r="291" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
-        <v>1136</v>
+        <v>1130</v>
       </c>
       <c r="B291" s="10" t="s">
         <v>414</v>
@@ -8809,7 +8789,7 @@
     </row>
     <row r="292" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="39" t="s">
-        <v>1224</v>
+        <v>1218</v>
       </c>
       <c r="B292" s="40">
         <v>141</v>
@@ -8895,7 +8875,7 @@
         <v>555</v>
       </c>
       <c r="C298" s="10" t="s">
-        <v>1022</v>
+        <v>1016</v>
       </c>
       <c r="D298" s="23">
         <v>1000</v>
@@ -8903,7 +8883,7 @@
     </row>
     <row r="299" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
-        <v>1030</v>
+        <v>1024</v>
       </c>
       <c r="B299" s="10" t="s">
         <v>726</v>
@@ -8923,7 +8903,7 @@
         <v>420</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>1023</v>
+        <v>1017</v>
       </c>
       <c r="D300" s="23">
         <v>1300</v>
@@ -8951,7 +8931,7 @@
         <v>556</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>1024</v>
+        <v>1018</v>
       </c>
       <c r="D302" s="23">
         <v>1500</v>
@@ -8960,7 +8940,7 @@
     </row>
     <row r="303" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
-        <v>1031</v>
+        <v>1025</v>
       </c>
       <c r="B303" s="5" t="s">
         <v>657</v>
@@ -9093,13 +9073,13 @@
     </row>
     <row r="312" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
-        <v>1174</v>
+        <v>1168</v>
       </c>
       <c r="B312" s="5" t="s">
         <v>545</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>1176</v>
+        <v>1170</v>
       </c>
       <c r="D312" s="23">
         <v>32500</v>
@@ -9152,7 +9132,7 @@
         <v>925</v>
       </c>
       <c r="B316" s="5" t="s">
-        <v>1175</v>
+        <v>1169</v>
       </c>
       <c r="C316" s="1" t="s">
         <v>628</v>
@@ -9163,7 +9143,7 @@
     </row>
     <row r="317" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
-        <v>1032</v>
+        <v>1026</v>
       </c>
       <c r="B317" s="5" t="s">
         <v>584</v>
@@ -9267,7 +9247,7 @@
         <v>591</v>
       </c>
       <c r="C324" s="6" t="s">
-        <v>1173</v>
+        <v>1167</v>
       </c>
       <c r="D324" s="23">
         <v>8500</v>
@@ -9548,7 +9528,7 @@
         <v>611</v>
       </c>
       <c r="C344" s="6" t="s">
-        <v>1025</v>
+        <v>1019</v>
       </c>
       <c r="D344" s="23">
         <v>8500</v>
@@ -9585,7 +9565,7 @@
     </row>
     <row r="347" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A347" s="2" t="s">
-        <v>1010</v>
+        <v>1004</v>
       </c>
       <c r="B347" s="5" t="s">
         <v>614</v>
@@ -9599,7 +9579,7 @@
     </row>
     <row r="348" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A348" s="2" t="s">
-        <v>1011</v>
+        <v>1005</v>
       </c>
       <c r="B348" s="5" t="s">
         <v>615</v>
@@ -9613,13 +9593,13 @@
     </row>
     <row r="349" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A349" s="2" t="s">
-        <v>1012</v>
+        <v>1006</v>
       </c>
       <c r="B349" s="5" t="s">
         <v>616</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>1179</v>
+        <v>1173</v>
       </c>
       <c r="D349" s="23">
         <v>6000</v>
@@ -9627,7 +9607,7 @@
     </row>
     <row r="350" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A350" s="2" t="s">
-        <v>1013</v>
+        <v>1007</v>
       </c>
       <c r="B350" s="5" t="s">
         <v>617</v>
@@ -9641,7 +9621,7 @@
     </row>
     <row r="351" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A351" s="2" t="s">
-        <v>1014</v>
+        <v>1008</v>
       </c>
       <c r="B351" s="5" t="s">
         <v>618</v>
@@ -9655,7 +9635,7 @@
     </row>
     <row r="352" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A352" s="2" t="s">
-        <v>1015</v>
+        <v>1009</v>
       </c>
       <c r="B352" s="5" t="s">
         <v>619</v>
@@ -9669,7 +9649,7 @@
     </row>
     <row r="353" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A353" s="2" t="s">
-        <v>1016</v>
+        <v>1010</v>
       </c>
       <c r="B353" s="5" t="s">
         <v>620</v>
@@ -9683,24 +9663,24 @@
     </row>
     <row r="354" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A354" s="22" t="s">
-        <v>1017</v>
+        <v>1011</v>
       </c>
       <c r="B354" s="5" t="s">
         <v>731</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="D354" s="23">
         <v>10000</v>
       </c>
       <c r="E354" t="s">
-        <v>1029</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="355" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A355" s="2" t="s">
-        <v>1033</v>
+        <v>1027</v>
       </c>
       <c r="B355" s="10" t="s">
         <v>633</v>
@@ -9714,7 +9694,7 @@
     </row>
     <row r="356" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A356" s="2" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="B356" s="10" t="s">
         <v>636</v>
@@ -9728,7 +9708,7 @@
     </row>
     <row r="357" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A357" s="2" t="s">
-        <v>1035</v>
+        <v>1029</v>
       </c>
       <c r="B357" s="10" t="s">
         <v>638</v>
@@ -9742,7 +9722,7 @@
     </row>
     <row r="358" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A358" s="2" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="B358" s="10" t="s">
         <v>637</v>
@@ -9756,7 +9736,7 @@
     </row>
     <row r="359" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A359" s="2" t="s">
-        <v>1038</v>
+        <v>1032</v>
       </c>
       <c r="B359" s="10" t="s">
         <v>641</v>
@@ -9770,7 +9750,7 @@
     </row>
     <row r="360" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A360" s="2" t="s">
-        <v>1039</v>
+        <v>1033</v>
       </c>
       <c r="B360" s="10" t="s">
         <v>642</v>
@@ -9784,7 +9764,7 @@
     </row>
     <row r="361" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A361" s="2" t="s">
-        <v>1040</v>
+        <v>1034</v>
       </c>
       <c r="B361" s="10" t="s">
         <v>643</v>
@@ -9798,7 +9778,7 @@
     </row>
     <row r="362" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A362" s="2" t="s">
-        <v>1041</v>
+        <v>1035</v>
       </c>
       <c r="B362" s="10" t="s">
         <v>644</v>
@@ -9812,7 +9792,7 @@
     </row>
     <row r="363" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A363" s="2" t="s">
-        <v>1042</v>
+        <v>1036</v>
       </c>
       <c r="B363" s="10" t="s">
         <v>645</v>
@@ -9826,7 +9806,7 @@
     </row>
     <row r="364" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A364" s="2" t="s">
-        <v>1043</v>
+        <v>1037</v>
       </c>
       <c r="B364" s="10" t="s">
         <v>732</v>
@@ -9840,7 +9820,7 @@
     </row>
     <row r="365" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A365" s="2" t="s">
-        <v>1044</v>
+        <v>1038</v>
       </c>
       <c r="B365" s="10" t="s">
         <v>736</v>
@@ -9855,7 +9835,7 @@
     </row>
     <row r="366" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A366" s="2" t="s">
-        <v>1045</v>
+        <v>1039</v>
       </c>
       <c r="B366" s="10" t="s">
         <v>737</v>
@@ -9869,7 +9849,7 @@
     </row>
     <row r="367" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A367" s="2" t="s">
-        <v>1046</v>
+        <v>1040</v>
       </c>
       <c r="B367" s="10" t="s">
         <v>738</v>
@@ -9883,7 +9863,7 @@
     </row>
     <row r="368" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A368" s="2" t="s">
-        <v>1047</v>
+        <v>1041</v>
       </c>
       <c r="B368" s="10" t="s">
         <v>739</v>
@@ -9897,7 +9877,7 @@
     </row>
     <row r="369" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="2" t="s">
-        <v>1048</v>
+        <v>1042</v>
       </c>
       <c r="B369" s="10" t="s">
         <v>740</v>
@@ -9911,7 +9891,7 @@
     </row>
     <row r="370" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A370" s="2" t="s">
-        <v>1049</v>
+        <v>1043</v>
       </c>
       <c r="B370" s="10" t="s">
         <v>741</v>
@@ -9925,7 +9905,7 @@
     </row>
     <row r="371" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A371" s="2" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="B371" s="10" t="s">
         <v>742</v>
@@ -9939,7 +9919,7 @@
     </row>
     <row r="372" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A372" s="2" t="s">
-        <v>1051</v>
+        <v>1045</v>
       </c>
       <c r="B372" s="10" t="s">
         <v>743</v>
@@ -9953,7 +9933,7 @@
     </row>
     <row r="373" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="s">
-        <v>1052</v>
+        <v>1046</v>
       </c>
       <c r="B373" s="10" t="s">
         <v>744</v>
@@ -9967,7 +9947,7 @@
     </row>
     <row r="374" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A374" s="2" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="B374" s="5" t="s">
         <v>632</v>
@@ -9981,7 +9961,7 @@
     </row>
     <row r="375" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A375" s="2" t="s">
-        <v>1054</v>
+        <v>1048</v>
       </c>
       <c r="B375" s="5" t="s">
         <v>722</v>
@@ -9995,7 +9975,7 @@
     </row>
     <row r="376" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A376" s="2" t="s">
-        <v>1055</v>
+        <v>1049</v>
       </c>
       <c r="B376" s="5" t="s">
         <v>723</v>
@@ -10009,13 +9989,13 @@
     </row>
     <row r="377" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A377" s="2" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="B377" s="5" t="s">
         <v>724</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>1027</v>
+        <v>1021</v>
       </c>
       <c r="D377" s="23">
         <v>5500</v>
@@ -10023,7 +10003,7 @@
     </row>
     <row r="378" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A378" s="2" t="s">
-        <v>1057</v>
+        <v>1051</v>
       </c>
       <c r="B378" s="10" t="s">
         <v>730</v>
@@ -10037,10 +10017,10 @@
     </row>
     <row r="379" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A379" s="2" t="s">
-        <v>1058</v>
+        <v>1052</v>
       </c>
       <c r="B379" s="10" t="s">
-        <v>1036</v>
+        <v>1030</v>
       </c>
       <c r="C379" s="1" t="s">
         <v>716</v>
@@ -10051,7 +10031,7 @@
     </row>
     <row r="380" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="s">
-        <v>1059</v>
+        <v>1053</v>
       </c>
       <c r="B380" s="5" t="s">
         <v>629</v>
@@ -10093,13 +10073,13 @@
     </row>
     <row r="383" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A383" s="18" t="s">
-        <v>1018</v>
+        <v>1012</v>
       </c>
       <c r="B383" s="10" t="s">
         <v>735</v>
       </c>
       <c r="C383" s="6" t="s">
-        <v>1028</v>
+        <v>1022</v>
       </c>
       <c r="D383" s="23">
         <v>2500</v>
@@ -10107,7 +10087,7 @@
     </row>
     <row r="384" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A384" s="2" t="s">
-        <v>1060</v>
+        <v>1054</v>
       </c>
       <c r="B384" s="10" t="s">
         <v>745</v>
@@ -10121,7 +10101,7 @@
     </row>
     <row r="385" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A385" s="2" t="s">
-        <v>1061</v>
+        <v>1055</v>
       </c>
       <c r="B385" s="5" t="s">
         <v>629</v>
@@ -10149,7 +10129,7 @@
     </row>
     <row r="387" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A387" s="2" t="s">
-        <v>1062</v>
+        <v>1056</v>
       </c>
       <c r="B387" s="10" t="s">
         <v>754</v>
@@ -10188,8 +10168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10202,7 +10182,7 @@
   <sheetData>
     <row r="1" spans="1:4" s="16" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
-        <v>1224</v>
+        <v>1218</v>
       </c>
       <c r="B1" s="47">
         <v>144</v>
@@ -10254,7 +10234,7 @@
     </row>
     <row r="5" spans="1:4" s="16" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
-        <v>961</v>
+        <v>1218</v>
       </c>
       <c r="B5" s="47">
         <v>145</v>
@@ -10281,7 +10261,7 @@
         <v>264</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>1063</v>
+        <v>1057</v>
       </c>
       <c r="C7" s="19" t="s">
         <v>32</v>
@@ -10295,7 +10275,7 @@
         <v>265</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>1064</v>
+        <v>1058</v>
       </c>
       <c r="C8" s="19" t="s">
         <v>33</v>
@@ -10346,7 +10326,7 @@
     </row>
     <row r="12" spans="1:4" s="16" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
-        <v>962</v>
+        <v>1218</v>
       </c>
       <c r="B12" s="47">
         <v>146</v>
@@ -10373,7 +10353,7 @@
         <v>270</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="C14" s="27" t="s">
         <v>49</v>
@@ -10424,7 +10404,7 @@
     </row>
     <row r="18" spans="1:6" s="16" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
-        <v>964</v>
+        <v>1218</v>
       </c>
       <c r="B18" s="47">
         <v>147</v>
@@ -10434,7 +10414,7 @@
     </row>
     <row r="19" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="B19" s="29" t="s">
         <v>59</v>
@@ -10450,7 +10430,7 @@
     </row>
     <row r="20" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="B20" s="29" t="s">
         <v>171</v>
@@ -10466,7 +10446,7 @@
     </row>
     <row r="21" spans="1:6" s="16" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
-        <v>967</v>
+        <v>1218</v>
       </c>
       <c r="B21" s="47">
         <v>148</v>
@@ -10495,7 +10475,7 @@
         <v>285</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>1065</v>
+        <v>1059</v>
       </c>
       <c r="C23" s="19" t="s">
         <v>68</v>
@@ -10506,13 +10486,13 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
-        <v>994</v>
+        <v>988</v>
       </c>
       <c r="B24" s="29" t="s">
         <v>533</v>
       </c>
       <c r="C24" s="30" t="s">
-        <v>1066</v>
+        <v>1060</v>
       </c>
       <c r="D24" s="26">
         <v>100</v>
@@ -10520,13 +10500,13 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
-        <v>995</v>
+        <v>989</v>
       </c>
       <c r="B25" s="15" t="s">
         <v>761</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>970</v>
+        <v>964</v>
       </c>
       <c r="D25" s="26">
         <v>1260</v>
@@ -10534,7 +10514,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
-        <v>978</v>
+        <v>972</v>
       </c>
       <c r="B26" s="15" t="s">
         <v>536</v>
@@ -10548,7 +10528,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
-        <v>979</v>
+        <v>973</v>
       </c>
       <c r="B27" s="15" t="s">
         <v>535</v>
@@ -10576,7 +10556,7 @@
     </row>
     <row r="29" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="24" t="s">
-        <v>968</v>
+        <v>1218</v>
       </c>
       <c r="B29" s="47">
         <v>149</v>
@@ -10586,13 +10566,13 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
-        <v>980</v>
+        <v>974</v>
       </c>
       <c r="B30" s="31" t="s">
-        <v>1067</v>
+        <v>1061</v>
       </c>
       <c r="C30" s="30" t="s">
-        <v>977</v>
+        <v>971</v>
       </c>
       <c r="D30" s="26">
         <v>200</v>
@@ -10600,7 +10580,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
-        <v>981</v>
+        <v>975</v>
       </c>
       <c r="B31" s="25" t="s">
         <v>689</v>
@@ -10620,7 +10600,7 @@
         <v>694</v>
       </c>
       <c r="C32" s="30" t="s">
-        <v>1068</v>
+        <v>1062</v>
       </c>
       <c r="D32" s="26">
         <v>150</v>
@@ -10628,7 +10608,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="B33" s="31" t="s">
         <v>695</v>
@@ -10642,7 +10622,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="s">
-        <v>983</v>
+        <v>977</v>
       </c>
       <c r="B34" s="31" t="s">
         <v>696</v>
@@ -10670,13 +10650,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="22" t="s">
-        <v>984</v>
+        <v>978</v>
       </c>
       <c r="B36" s="31" t="s">
-        <v>1009</v>
+        <v>1003</v>
       </c>
       <c r="C36" s="30" t="s">
-        <v>971</v>
+        <v>965</v>
       </c>
       <c r="D36" s="26">
         <v>500</v>
@@ -10684,7 +10664,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="22" t="s">
-        <v>985</v>
+        <v>979</v>
       </c>
       <c r="B37" s="31" t="s">
         <v>711</v>
@@ -10698,7 +10678,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="22" t="s">
-        <v>986</v>
+        <v>980</v>
       </c>
       <c r="B38" s="15" t="s">
         <v>313</v>
@@ -10712,10 +10692,10 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="22" t="s">
-        <v>997</v>
+        <v>991</v>
       </c>
       <c r="B39" s="29" t="s">
-        <v>1069</v>
+        <v>1063</v>
       </c>
       <c r="C39" s="30" t="s">
         <v>890</v>
@@ -10726,10 +10706,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="22" t="s">
-        <v>998</v>
+        <v>992</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>1070</v>
+        <v>1064</v>
       </c>
       <c r="C40" s="30" t="s">
         <v>891</v>
@@ -10740,10 +10720,10 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="22" t="s">
-        <v>999</v>
+        <v>993</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
       <c r="C41" s="30" t="s">
         <v>892</v>
@@ -10754,10 +10734,10 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="22" t="s">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="C42" s="30" t="s">
         <v>893</v>
@@ -10768,10 +10748,10 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="22" t="s">
-        <v>1001</v>
+        <v>995</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>1073</v>
+        <v>1067</v>
       </c>
       <c r="C43" s="30" t="s">
         <v>896</v>
@@ -10782,10 +10762,10 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="22" t="s">
-        <v>1002</v>
+        <v>996</v>
       </c>
       <c r="B44" s="29" t="s">
-        <v>1074</v>
+        <v>1068</v>
       </c>
       <c r="C44" s="30" t="s">
         <v>895</v>
@@ -10796,10 +10776,10 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="22" t="s">
-        <v>1003</v>
+        <v>997</v>
       </c>
       <c r="B45" s="29" t="s">
-        <v>1075</v>
+        <v>1069</v>
       </c>
       <c r="C45" s="30" t="s">
         <v>894</v>
@@ -10810,10 +10790,10 @@
     </row>
     <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="22" t="s">
-        <v>1004</v>
+        <v>998</v>
       </c>
       <c r="B46" s="29" t="s">
-        <v>1076</v>
+        <v>1070</v>
       </c>
       <c r="C46" s="30" t="s">
         <v>897</v>
@@ -10824,10 +10804,10 @@
     </row>
     <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="22" t="s">
-        <v>1005</v>
+        <v>999</v>
       </c>
       <c r="B47" s="29" t="s">
-        <v>1077</v>
+        <v>1071</v>
       </c>
       <c r="C47" s="30" t="s">
         <v>898</v>
@@ -10838,10 +10818,10 @@
     </row>
     <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="22" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="B48" s="29" t="s">
-        <v>1078</v>
+        <v>1072</v>
       </c>
       <c r="C48" s="30" t="s">
         <v>899</v>
@@ -10852,13 +10832,13 @@
     </row>
     <row r="49" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="28" t="s">
-        <v>975</v>
+        <v>969</v>
       </c>
       <c r="B49" s="29" t="s">
-        <v>1079</v>
+        <v>1073</v>
       </c>
       <c r="C49" s="30" t="s">
-        <v>973</v>
+        <v>967</v>
       </c>
       <c r="D49" s="26">
         <v>390</v>
@@ -10870,13 +10850,13 @@
     </row>
     <row r="50" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="28" t="s">
-        <v>976</v>
+        <v>970</v>
       </c>
       <c r="B50" s="29" t="s">
-        <v>1080</v>
+        <v>1074</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>1177</v>
+        <v>1171</v>
       </c>
       <c r="D50" s="26">
         <v>550</v>
@@ -10887,7 +10867,7 @@
         <v>295</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="C51" s="19" t="s">
         <v>706</v>
@@ -10898,7 +10878,7 @@
     </row>
     <row r="52" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="24" t="s">
-        <v>969</v>
+        <v>1218</v>
       </c>
       <c r="B52" s="47">
         <v>150</v>
@@ -10908,7 +10888,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="22" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="B53" s="15" t="s">
         <v>700</v>
@@ -10922,7 +10902,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="22" t="s">
-        <v>988</v>
+        <v>982</v>
       </c>
       <c r="B54" s="15" t="s">
         <v>703</v>
@@ -10936,13 +10916,13 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="22" t="s">
-        <v>989</v>
+        <v>983</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>1008</v>
+        <v>1002</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>1178</v>
+        <v>1172</v>
       </c>
       <c r="D55" s="26">
         <v>570</v>
@@ -10950,7 +10930,7 @@
     </row>
     <row r="56" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="22" t="s">
-        <v>990</v>
+        <v>984</v>
       </c>
       <c r="B56" s="15" t="s">
         <v>900</v>
@@ -10964,7 +10944,7 @@
     </row>
     <row r="57" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="22" t="s">
-        <v>991</v>
+        <v>985</v>
       </c>
       <c r="B57" s="15" t="s">
         <v>901</v>
@@ -10978,7 +10958,7 @@
     </row>
     <row r="58" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="22" t="s">
-        <v>992</v>
+        <v>986</v>
       </c>
       <c r="B58" s="15" t="s">
         <v>902</v>
@@ -10992,13 +10972,13 @@
     </row>
     <row r="59" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="28" t="s">
-        <v>993</v>
+        <v>987</v>
       </c>
       <c r="B59" s="29" t="s">
-        <v>1081</v>
+        <v>1075</v>
       </c>
       <c r="C59" s="30" t="s">
-        <v>1137</v>
+        <v>1131</v>
       </c>
       <c r="D59" s="26">
         <v>1750</v>

--- a/excel/new_prise_s.xlsx
+++ b/excel/new_prise_s.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wamp\www\Fortest\asm_journal\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6539C242-BE34-48F1-B3E2-470EB02BC367}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D9CCFBC-FED5-4D73-85B2-3D92D0EAAE53}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="3075" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="основной" sheetId="1" r:id="rId1"/>
@@ -21,19 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="1238">
-  <si>
-    <t>Код услуги</t>
-  </si>
-  <si>
-    <t>Код услуги по номенклатуре</t>
-  </si>
-  <si>
-    <t>Наименование услуги</t>
-  </si>
-  <si>
-    <t>Прием, консультация</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="1219">
   <si>
     <t>B01.065.007</t>
   </si>
@@ -125,9 +113,6 @@
     <t>Прием (осмотр, консультация) врача-стоматолога повторный с целью осмотра, консультации, коррекции пломбы (протеза) или другой манипуляции в течение гарантийного срока</t>
   </si>
   <si>
-    <t>Диагностические  методы исследования</t>
-  </si>
-  <si>
     <t>А06.07.003</t>
   </si>
   <si>
@@ -152,9 +137,6 @@
     <t xml:space="preserve">Запись снимка ортопантомографии на  CD диск  </t>
   </si>
   <si>
-    <t>Общие виды работ</t>
-  </si>
-  <si>
     <t xml:space="preserve">A01.07.001 </t>
   </si>
   <si>
@@ -206,9 +188,6 @@
     <t>Использование микроскопа в работе врача-стоматолога (1 посещение)</t>
   </si>
   <si>
-    <t>Анестезия</t>
-  </si>
-  <si>
     <t>В01.003.004.001</t>
   </si>
   <si>
@@ -224,9 +203,6 @@
     <t>В01.003.004.003</t>
   </si>
   <si>
-    <t>Профилактика и гигиена</t>
-  </si>
-  <si>
     <t>Профессиональная гигиена полости рта и зубов (снятие зубных отложений с помощью ультразвука,   отбеливание зубов системой «Air-flow», покрытие  фтор.лаком (1 челюсть)</t>
   </si>
   <si>
@@ -276,9 +252,6 @@
   </si>
   <si>
     <t>Запечатывание фиссуры зуба герметиком</t>
-  </si>
-  <si>
-    <t>Лечение кариеса</t>
   </si>
   <si>
     <t>А02.07.002</t>
@@ -333,9 +306,6 @@
   </si>
   <si>
     <t>Восстановление зуба пломбой с использованием стоматологических светооттверждаемых материалов (полное восстановление)</t>
-  </si>
-  <si>
-    <t>Лечение пульпита</t>
   </si>
   <si>
     <t>A16.07.009</t>
@@ -1687,14 +1657,6 @@
     <t> 0</t>
   </si>
   <si>
-    <t>Стоимость услуги</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Детская стоматология
-на оказание стоматологических услуг
-</t>
-  </si>
-  <si>
     <t>A11.07.012.003</t>
   </si>
   <si>
@@ -2996,9 +2958,6 @@
     <t>11.16.1</t>
   </si>
   <si>
-    <t>12.1</t>
-  </si>
-  <si>
     <t>12.1.1</t>
   </si>
   <si>
@@ -3008,31 +2967,13 @@
     <t>12.1.3</t>
   </si>
   <si>
-    <t>12.2</t>
-  </si>
-  <si>
-    <t>12.3</t>
-  </si>
-  <si>
     <t>A02.07.005.001</t>
   </si>
   <si>
-    <t>12.4</t>
-  </si>
-  <si>
     <t>12.4.1</t>
   </si>
   <si>
     <t>12.4.2</t>
-  </si>
-  <si>
-    <t>12.5</t>
-  </si>
-  <si>
-    <t>12.6</t>
-  </si>
-  <si>
-    <t>12.7</t>
   </si>
   <si>
     <t>Глубокое фторирование (ременелизирующая терапия) 1 челюсть</t>
@@ -4191,7 +4132,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4260,24 +4201,10 @@
     </font>
     <font>
       <b/>
-      <sz val="22"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
       <sz val="14"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -4296,21 +4223,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -4369,27 +4287,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4398,34 +4316,34 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4434,46 +4352,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4481,25 +4387,28 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4508,16 +4417,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4860,37 +4772,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E387"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A373" workbookViewId="0">
-      <selection activeCell="A292" sqref="A292:XFD292"/>
-    </sheetView>
+    <sheetView topLeftCell="A316" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5703125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" style="41" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="37" customWidth="1"/>
     <col min="3" max="3" width="98.140625" style="8" customWidth="1"/>
     <col min="4" max="4" width="12.85546875" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
-        <v>1237</v>
-      </c>
-      <c r="B1" s="44">
+      <c r="A1" s="39" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B1" s="40">
         <v>127</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="45"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="41"/>
     </row>
     <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D2" s="23">
         <v>300</v>
@@ -4898,13 +4808,13 @@
     </row>
     <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D3" s="23">
         <v>220</v>
@@ -4912,13 +4822,13 @@
     </row>
     <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="D4" s="23">
         <v>300</v>
@@ -4926,27 +4836,27 @@
     </row>
     <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>385</v>
-      </c>
-      <c r="D5" s="42" t="s">
-        <v>10</v>
+        <v>375</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="D6" s="23">
         <v>2300</v>
@@ -4954,13 +4864,13 @@
     </row>
     <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="D7" s="23">
         <v>2800</v>
@@ -4968,13 +4878,13 @@
     </row>
     <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="D8" s="23">
         <v>4800</v>
@@ -4982,13 +4892,13 @@
     </row>
     <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="D9" s="23">
         <v>500</v>
@@ -4996,83 +4906,83 @@
     </row>
     <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="42" t="s">
-        <v>13</v>
+        <v>8</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="42">
+        <v>25</v>
+      </c>
+      <c r="D11" s="38">
         <v>300</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="42" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="42" t="s">
         <v>13</v>
+      </c>
+      <c r="D13" s="38" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="42" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D15" s="23">
         <v>300</v>
@@ -5080,13 +4990,13 @@
     </row>
     <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D16" s="23">
         <v>220</v>
@@ -5094,13 +5004,13 @@
     </row>
     <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="D17" s="23">
         <v>300</v>
@@ -5108,13 +5018,13 @@
     </row>
     <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="B18" s="28" t="s">
-        <v>26</v>
+        <v>263</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>22</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D18" s="23">
         <v>220</v>
@@ -5122,65 +5032,65 @@
     </row>
     <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="B19" s="28" t="s">
-        <v>402</v>
+        <v>389</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>392</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="42">
+        <v>26</v>
+      </c>
+      <c r="D19" s="38">
         <v>300</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>403</v>
+        <v>390</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>393</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="42">
+        <v>27</v>
+      </c>
+      <c r="D20" s="38">
         <v>2500</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="42" t="s">
-        <v>10</v>
+        <v>29</v>
+      </c>
+      <c r="D21" s="38" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="43" t="s">
-        <v>1237</v>
-      </c>
-      <c r="B22" s="44">
+      <c r="A22" s="39" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B22" s="40">
         <v>128</v>
       </c>
-      <c r="C22" s="44"/>
-      <c r="D22" s="45"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="41"/>
     </row>
     <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" s="28" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>30</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D23" s="23">
         <v>100</v>
@@ -5188,13 +5098,13 @@
     </row>
     <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="B24" s="28" t="s">
-        <v>1076</v>
+        <v>264</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>1057</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D24" s="23">
         <v>400</v>
@@ -5202,13 +5112,13 @@
     </row>
     <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B25" s="28" t="s">
-        <v>1077</v>
+        <v>265</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>1058</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D25" s="23">
         <v>800</v>
@@ -5216,13 +5126,13 @@
     </row>
     <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="B26" s="28" t="s">
-        <v>704</v>
+        <v>266</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>692</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D26" s="23">
         <v>500</v>
@@ -5230,13 +5140,13 @@
     </row>
     <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="B27" s="28" t="s">
-        <v>705</v>
+        <v>267</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>693</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D27" s="23">
         <v>1850</v>
@@ -5244,49 +5154,49 @@
     </row>
     <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D28" s="23">
         <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="43" t="s">
-        <v>1237</v>
-      </c>
-      <c r="B29" s="44">
+      <c r="A29" s="39" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B29" s="40">
         <v>130</v>
       </c>
-      <c r="C29" s="44"/>
-      <c r="D29" s="45"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="41"/>
     </row>
     <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>976</v>
+        <v>961</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D31" s="23">
         <v>170</v>
@@ -5294,13 +5204,13 @@
     </row>
     <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D32" s="23">
         <v>50</v>
@@ -5308,13 +5218,13 @@
     </row>
     <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D33" s="23">
         <v>50</v>
@@ -5322,13 +5232,13 @@
     </row>
     <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D34" s="23">
         <v>100</v>
@@ -5336,13 +5246,13 @@
     </row>
     <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D35" s="23">
         <v>100</v>
@@ -5350,13 +5260,13 @@
     </row>
     <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D36" s="23">
         <v>500</v>
@@ -5364,13 +5274,13 @@
     </row>
     <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>725</v>
+        <v>713</v>
       </c>
       <c r="D37" s="23">
         <v>500</v>
@@ -5378,47 +5288,47 @@
     </row>
     <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D38" s="23"/>
     </row>
     <row r="39" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="B39" s="10"/>
       <c r="C39" s="6" t="s">
-        <v>916</v>
+        <v>904</v>
       </c>
       <c r="D39" s="7">
         <v>220</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="43" t="s">
-        <v>1237</v>
-      </c>
-      <c r="B40" s="44">
+      <c r="A40" s="39" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B40" s="40">
         <v>131</v>
       </c>
-      <c r="C40" s="44"/>
-      <c r="D40" s="45"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="41"/>
     </row>
     <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D41" s="23">
         <v>170</v>
@@ -5426,13 +5336,13 @@
     </row>
     <row r="42" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D42" s="23">
         <v>500</v>
@@ -5440,37 +5350,37 @@
     </row>
     <row r="43" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>697</v>
+        <v>685</v>
       </c>
       <c r="D43" s="23">
         <v>5500</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="43" t="s">
-        <v>1237</v>
-      </c>
-      <c r="B44" s="44">
+      <c r="A44" s="39" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B44" s="40">
         <v>132</v>
       </c>
-      <c r="C44" s="44"/>
-      <c r="D44" s="45"/>
+      <c r="C44" s="40"/>
+      <c r="D44" s="41"/>
     </row>
     <row r="45" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="B45" s="28" t="s">
-        <v>79</v>
+        <v>282</v>
+      </c>
+      <c r="B45" s="25" t="s">
+        <v>71</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D45" s="23">
         <v>500</v>
@@ -5478,13 +5388,13 @@
     </row>
     <row r="46" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="B46" s="28" t="s">
-        <v>293</v>
+        <v>284</v>
+      </c>
+      <c r="B46" s="25" t="s">
+        <v>283</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D46" s="23">
         <v>200</v>
@@ -5492,13 +5402,13 @@
     </row>
     <row r="47" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="B47" s="28" t="s">
-        <v>1078</v>
+        <v>285</v>
+      </c>
+      <c r="B47" s="25" t="s">
+        <v>1059</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D47" s="23">
         <v>600</v>
@@ -5506,13 +5416,13 @@
     </row>
     <row r="48" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="B48" s="28" t="s">
-        <v>81</v>
+        <v>286</v>
+      </c>
+      <c r="B48" s="25" t="s">
+        <v>73</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D48" s="23">
         <v>300</v>
@@ -5520,13 +5430,13 @@
     </row>
     <row r="49" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="B49" s="28" t="s">
-        <v>77</v>
+        <v>287</v>
+      </c>
+      <c r="B49" s="25" t="s">
+        <v>69</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D49" s="23">
         <v>110</v>
@@ -5534,13 +5444,13 @@
     </row>
     <row r="50" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="B50" s="28" t="s">
-        <v>1170</v>
+        <v>288</v>
+      </c>
+      <c r="B50" s="25" t="s">
+        <v>1151</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D50" s="23">
         <v>110</v>
@@ -5548,13 +5458,13 @@
     </row>
     <row r="51" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="B51" s="28" t="s">
-        <v>1171</v>
+        <v>289</v>
+      </c>
+      <c r="B51" s="25" t="s">
+        <v>1152</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D51" s="23">
         <v>2000</v>
@@ -5562,13 +5472,13 @@
     </row>
     <row r="52" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="B52" s="28" t="s">
-        <v>1172</v>
+        <v>290</v>
+      </c>
+      <c r="B52" s="25" t="s">
+        <v>1153</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D52" s="23">
         <v>700</v>
@@ -5576,13 +5486,13 @@
     </row>
     <row r="53" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="B53" s="28" t="s">
-        <v>1173</v>
+        <v>291</v>
+      </c>
+      <c r="B53" s="25" t="s">
+        <v>1154</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D53" s="23">
         <v>2500</v>
@@ -5590,13 +5500,13 @@
     </row>
     <row r="54" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="B54" s="28" t="s">
-        <v>1174</v>
+        <v>292</v>
+      </c>
+      <c r="B54" s="25" t="s">
+        <v>1155</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D54" s="23">
         <v>25000</v>
@@ -5604,13 +5514,13 @@
     </row>
     <row r="55" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="B55" s="28" t="s">
-        <v>546</v>
+        <v>293</v>
+      </c>
+      <c r="B55" s="25" t="s">
+        <v>534</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D55" s="23">
         <v>2500</v>
@@ -5618,47 +5528,47 @@
     </row>
     <row r="56" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="B56" s="28" t="s">
-        <v>69</v>
+        <v>294</v>
+      </c>
+      <c r="B56" s="25" t="s">
+        <v>61</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>777</v>
+        <v>765</v>
       </c>
       <c r="D56" s="23">
         <v>150</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="43" t="s">
-        <v>1237</v>
-      </c>
-      <c r="B57" s="44">
+      <c r="A57" s="39" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B57" s="40">
         <v>133</v>
       </c>
-      <c r="C57" s="44"/>
-      <c r="D57" s="45"/>
+      <c r="C57" s="40"/>
+      <c r="D57" s="41"/>
     </row>
     <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>1237</v>
-      </c>
-      <c r="B58" s="46">
+        <v>1218</v>
+      </c>
+      <c r="B58" s="42">
         <v>134</v>
       </c>
-      <c r="C58" s="47"/>
-      <c r="D58" s="48"/>
+      <c r="C58" s="43"/>
+      <c r="D58" s="44"/>
     </row>
     <row r="59" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="18" t="s">
-        <v>779</v>
-      </c>
-      <c r="B59" s="35" t="s">
-        <v>1080</v>
+        <v>767</v>
+      </c>
+      <c r="B59" s="31" t="s">
+        <v>1061</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>990</v>
+        <v>971</v>
       </c>
       <c r="D59" s="23">
         <v>200</v>
@@ -5666,13 +5576,13 @@
     </row>
     <row r="60" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="18" t="s">
-        <v>780</v>
-      </c>
-      <c r="B60" s="35" t="s">
-        <v>183</v>
+        <v>768</v>
+      </c>
+      <c r="B60" s="31" t="s">
+        <v>173</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>1099</v>
+        <v>1080</v>
       </c>
       <c r="D60" s="23">
         <v>350</v>
@@ -5680,13 +5590,13 @@
     </row>
     <row r="61" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="18" t="s">
-        <v>778</v>
-      </c>
-      <c r="B61" s="35" t="s">
-        <v>985</v>
+        <v>766</v>
+      </c>
+      <c r="B61" s="31" t="s">
+        <v>966</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D61" s="23">
         <v>270</v>
@@ -5694,13 +5604,13 @@
     </row>
     <row r="62" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="18" t="s">
-        <v>781</v>
-      </c>
-      <c r="B62" s="35" t="s">
-        <v>699</v>
+        <v>769</v>
+      </c>
+      <c r="B62" s="31" t="s">
+        <v>687</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>700</v>
+        <v>688</v>
       </c>
       <c r="D62" s="23">
         <v>220</v>
@@ -5708,13 +5618,13 @@
     </row>
     <row r="63" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="18" t="s">
-        <v>782</v>
-      </c>
-      <c r="B63" s="35" t="s">
-        <v>702</v>
+        <v>770</v>
+      </c>
+      <c r="B63" s="31" t="s">
+        <v>690</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D63" s="23">
         <v>220</v>
@@ -5722,13 +5632,13 @@
     </row>
     <row r="64" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="18" t="s">
-        <v>783</v>
-      </c>
-      <c r="B64" s="35" t="s">
-        <v>1196</v>
+        <v>771</v>
+      </c>
+      <c r="B64" s="31" t="s">
+        <v>1177</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>1098</v>
+        <v>1079</v>
       </c>
       <c r="D64" s="23">
         <v>270</v>
@@ -5736,13 +5646,13 @@
     </row>
     <row r="65" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="18" t="s">
-        <v>784</v>
-      </c>
-      <c r="B65" s="35" t="s">
-        <v>1197</v>
+        <v>772</v>
+      </c>
+      <c r="B65" s="31" t="s">
+        <v>1178</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>1198</v>
+        <v>1179</v>
       </c>
       <c r="D65" s="23">
         <v>300</v>
@@ -5750,13 +5660,13 @@
     </row>
     <row r="66" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="18" t="s">
-        <v>785</v>
-      </c>
-      <c r="B66" s="35" t="s">
-        <v>706</v>
+        <v>773</v>
+      </c>
+      <c r="B66" s="31" t="s">
+        <v>694</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="D66" s="23">
         <v>150</v>
@@ -5764,13 +5674,13 @@
     </row>
     <row r="67" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>1216</v>
-      </c>
-      <c r="B67" s="28" t="s">
-        <v>178</v>
+        <v>1197</v>
+      </c>
+      <c r="B67" s="25" t="s">
+        <v>168</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="D67" s="23">
         <v>250</v>
@@ -5778,13 +5688,13 @@
     </row>
     <row r="68" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>1217</v>
-      </c>
-      <c r="B68" s="28" t="s">
-        <v>86</v>
+        <v>1198</v>
+      </c>
+      <c r="B68" s="25" t="s">
+        <v>77</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D68" s="23">
         <v>100</v>
@@ -5792,13 +5702,13 @@
     </row>
     <row r="69" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>1218</v>
-      </c>
-      <c r="B69" s="28" t="s">
-        <v>182</v>
+        <v>1199</v>
+      </c>
+      <c r="B69" s="25" t="s">
+        <v>172</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>1032</v>
+        <v>1013</v>
       </c>
       <c r="D69" s="23">
         <v>1700</v>
@@ -5806,13 +5716,13 @@
     </row>
     <row r="70" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>1219</v>
-      </c>
-      <c r="B70" s="28" t="s">
-        <v>184</v>
+        <v>1200</v>
+      </c>
+      <c r="B70" s="25" t="s">
+        <v>174</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D70" s="23">
         <v>770</v>
@@ -5820,13 +5730,13 @@
     </row>
     <row r="71" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>1220</v>
-      </c>
-      <c r="B71" s="28" t="s">
-        <v>1151</v>
+        <v>1201</v>
+      </c>
+      <c r="B71" s="25" t="s">
+        <v>1132</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D71" s="23">
         <v>920</v>
@@ -5834,13 +5744,13 @@
     </row>
     <row r="72" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>1221</v>
-      </c>
-      <c r="B72" s="28" t="s">
-        <v>1152</v>
+        <v>1202</v>
+      </c>
+      <c r="B72" s="25" t="s">
+        <v>1133</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="D72" s="23">
         <v>1200</v>
@@ -5848,13 +5758,13 @@
     </row>
     <row r="73" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>1222</v>
-      </c>
-      <c r="B73" s="28" t="s">
-        <v>185</v>
+        <v>1203</v>
+      </c>
+      <c r="B73" s="25" t="s">
+        <v>175</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D73" s="23">
         <v>1200</v>
@@ -5862,13 +5772,13 @@
     </row>
     <row r="74" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>1223</v>
-      </c>
-      <c r="B74" s="28" t="s">
-        <v>186</v>
+        <v>1204</v>
+      </c>
+      <c r="B74" s="25" t="s">
+        <v>176</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="D74" s="23">
         <v>1950</v>
@@ -5876,13 +5786,13 @@
     </row>
     <row r="75" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>1224</v>
-      </c>
-      <c r="B75" s="28" t="s">
-        <v>1153</v>
+        <v>1205</v>
+      </c>
+      <c r="B75" s="25" t="s">
+        <v>1134</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D75" s="23">
         <v>2850</v>
@@ -5890,51 +5800,51 @@
     </row>
     <row r="76" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>1225</v>
-      </c>
-      <c r="B76" s="28" t="s">
-        <v>1154</v>
+        <v>1206</v>
+      </c>
+      <c r="B76" s="25" t="s">
+        <v>1135</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D76" s="23">
         <v>3100</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="43" t="s">
-        <v>1237</v>
-      </c>
-      <c r="B77" s="46">
+      <c r="A77" s="39" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B77" s="42">
         <v>135</v>
       </c>
-      <c r="C77" s="47"/>
-      <c r="D77" s="48"/>
+      <c r="C77" s="43"/>
+      <c r="D77" s="44"/>
     </row>
     <row r="78" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="B78" s="28" t="s">
-        <v>1155</v>
+        <v>296</v>
+      </c>
+      <c r="B78" s="25" t="s">
+        <v>1136</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D78" s="42">
+        <v>102</v>
+      </c>
+      <c r="D78" s="38">
         <v>550</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="B79" s="28" t="s">
-        <v>1156</v>
+        <v>297</v>
+      </c>
+      <c r="B79" s="25" t="s">
+        <v>1137</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>1229</v>
+        <v>1210</v>
       </c>
       <c r="D79" s="23">
         <v>1550</v>
@@ -5942,13 +5852,13 @@
     </row>
     <row r="80" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="B80" s="28" t="s">
-        <v>1157</v>
+        <v>298</v>
+      </c>
+      <c r="B80" s="25" t="s">
+        <v>1138</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>1228</v>
+        <v>1209</v>
       </c>
       <c r="D80" s="23">
         <v>1750</v>
@@ -5956,13 +5866,13 @@
     </row>
     <row r="81" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="B81" s="28" t="s">
-        <v>1158</v>
+        <v>299</v>
+      </c>
+      <c r="B81" s="25" t="s">
+        <v>1139</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>1230</v>
+        <v>1211</v>
       </c>
       <c r="D81" s="23">
         <v>2150</v>
@@ -5970,13 +5880,13 @@
     </row>
     <row r="82" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="B82" s="28" t="s">
-        <v>1159</v>
+        <v>300</v>
+      </c>
+      <c r="B82" s="25" t="s">
+        <v>1140</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="D82" s="23">
         <v>1100</v>
@@ -5984,61 +5894,61 @@
     </row>
     <row r="83" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="B83" s="28" t="s">
-        <v>1160</v>
+        <v>301</v>
+      </c>
+      <c r="B83" s="25" t="s">
+        <v>1141</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>1231</v>
-      </c>
-      <c r="D83" s="42"/>
+        <v>1212</v>
+      </c>
+      <c r="D83" s="38"/>
     </row>
     <row r="84" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="B84" s="28" t="s">
-        <v>1161</v>
+        <v>302</v>
+      </c>
+      <c r="B84" s="25" t="s">
+        <v>1142</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>1232</v>
-      </c>
-      <c r="D84" s="42"/>
+        <v>1213</v>
+      </c>
+      <c r="D84" s="38"/>
     </row>
     <row r="85" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="B85" s="28" t="s">
-        <v>1162</v>
+        <v>303</v>
+      </c>
+      <c r="B85" s="25" t="s">
+        <v>1143</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>1233</v>
+        <v>1214</v>
       </c>
       <c r="D85" s="3"/>
     </row>
     <row r="86" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="B86" s="28" t="s">
-        <v>1163</v>
+        <v>304</v>
+      </c>
+      <c r="B86" s="25" t="s">
+        <v>1144</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="D86" s="3"/>
     </row>
     <row r="87" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="B87" s="28" t="s">
-        <v>1164</v>
+        <v>305</v>
+      </c>
+      <c r="B87" s="25" t="s">
+        <v>1145</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>1234</v>
+        <v>1215</v>
       </c>
       <c r="D87" s="23">
         <v>600</v>
@@ -6046,13 +5956,13 @@
     </row>
     <row r="88" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="B88" s="28" t="s">
-        <v>1165</v>
+        <v>306</v>
+      </c>
+      <c r="B88" s="25" t="s">
+        <v>1146</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>1235</v>
+        <v>1216</v>
       </c>
       <c r="D88" s="23">
         <v>800</v>
@@ -6060,13 +5970,13 @@
     </row>
     <row r="89" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="B89" s="28" t="s">
-        <v>1166</v>
+        <v>307</v>
+      </c>
+      <c r="B89" s="25" t="s">
+        <v>1147</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>1236</v>
+        <v>1217</v>
       </c>
       <c r="D89" s="23">
         <v>1000</v>
@@ -6074,13 +5984,13 @@
     </row>
     <row r="90" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="B90" s="28" t="s">
-        <v>1167</v>
+        <v>308</v>
+      </c>
+      <c r="B90" s="25" t="s">
+        <v>1148</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="D90" s="23">
         <v>600</v>
@@ -6088,13 +5998,13 @@
     </row>
     <row r="91" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="B91" s="28" t="s">
-        <v>1168</v>
+        <v>309</v>
+      </c>
+      <c r="B91" s="25" t="s">
+        <v>1149</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="D91" s="23">
         <v>2000</v>
@@ -6102,13 +6012,13 @@
     </row>
     <row r="92" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="B92" s="28" t="s">
-        <v>101</v>
+        <v>310</v>
+      </c>
+      <c r="B92" s="25" t="s">
+        <v>91</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="D92" s="23">
         <v>500</v>
@@ -6116,13 +6026,13 @@
     </row>
     <row r="93" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>1209</v>
-      </c>
-      <c r="B93" s="28" t="s">
-        <v>710</v>
+        <v>1190</v>
+      </c>
+      <c r="B93" s="25" t="s">
+        <v>698</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>1213</v>
+        <v>1194</v>
       </c>
       <c r="D93" s="23">
         <v>380</v>
@@ -6130,13 +6040,13 @@
     </row>
     <row r="94" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>1210</v>
-      </c>
-      <c r="B94" s="28" t="s">
-        <v>712</v>
+        <v>1191</v>
+      </c>
+      <c r="B94" s="25" t="s">
+        <v>700</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>1214</v>
+        <v>1195</v>
       </c>
       <c r="D94" s="23">
         <v>760</v>
@@ -6144,13 +6054,13 @@
     </row>
     <row r="95" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>1211</v>
-      </c>
-      <c r="B95" s="28" t="s">
-        <v>1212</v>
+        <v>1192</v>
+      </c>
+      <c r="B95" s="25" t="s">
+        <v>1193</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>1215</v>
+        <v>1196</v>
       </c>
       <c r="D95" s="23">
         <v>1140</v>
@@ -6158,13 +6068,13 @@
     </row>
     <row r="96" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="B96" s="35" t="s">
-        <v>83</v>
+        <v>311</v>
+      </c>
+      <c r="B96" s="31" t="s">
+        <v>75</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D96" s="23">
         <v>850</v>
@@ -6172,13 +6082,13 @@
     </row>
     <row r="97" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="B97" s="28" t="s">
-        <v>711</v>
+        <v>312</v>
+      </c>
+      <c r="B97" s="25" t="s">
+        <v>699</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="D97" s="23">
         <v>270</v>
@@ -6186,13 +6096,13 @@
     </row>
     <row r="98" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="B98" s="35" t="s">
-        <v>104</v>
+        <v>314</v>
+      </c>
+      <c r="B98" s="31" t="s">
+        <v>94</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="D98" s="23">
         <v>1750</v>
@@ -6200,13 +6110,13 @@
     </row>
     <row r="99" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="B99" s="28" t="s">
-        <v>106</v>
+        <v>315</v>
+      </c>
+      <c r="B99" s="25" t="s">
+        <v>96</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="D99" s="23">
         <v>1950</v>
@@ -6214,13 +6124,13 @@
     </row>
     <row r="100" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="B100" s="28" t="s">
-        <v>92</v>
+        <v>316</v>
+      </c>
+      <c r="B100" s="25" t="s">
+        <v>83</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D100" s="23">
         <v>2200</v>
@@ -6228,13 +6138,13 @@
     </row>
     <row r="101" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="B101" s="28" t="s">
-        <v>109</v>
+        <v>317</v>
+      </c>
+      <c r="B101" s="25" t="s">
+        <v>99</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D101" s="23">
         <v>800</v>
@@ -6242,13 +6152,13 @@
     </row>
     <row r="102" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>1033</v>
-      </c>
-      <c r="B102" s="28" t="s">
-        <v>1169</v>
+        <v>1014</v>
+      </c>
+      <c r="B102" s="25" t="s">
+        <v>1150</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="D102" s="23">
         <v>800</v>
@@ -6256,13 +6166,13 @@
     </row>
     <row r="103" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>1034</v>
-      </c>
-      <c r="B103" s="28" t="s">
-        <v>1020</v>
+        <v>1015</v>
+      </c>
+      <c r="B103" s="25" t="s">
+        <v>1001</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>1095</v>
+        <v>1076</v>
       </c>
       <c r="D103" s="23">
         <v>550</v>
@@ -6270,13 +6180,13 @@
     </row>
     <row r="104" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>1226</v>
-      </c>
-      <c r="B104" s="28" t="s">
-        <v>1021</v>
+        <v>1207</v>
+      </c>
+      <c r="B104" s="25" t="s">
+        <v>1002</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>1227</v>
+        <v>1208</v>
       </c>
       <c r="D104" s="23">
         <v>420</v>
@@ -6284,13 +6194,13 @@
     </row>
     <row r="105" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="18" t="s">
-        <v>988</v>
-      </c>
-      <c r="B105" s="35" t="s">
-        <v>1092</v>
+        <v>969</v>
+      </c>
+      <c r="B105" s="31" t="s">
+        <v>1073</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>1096</v>
+        <v>1077</v>
       </c>
       <c r="D105" s="7">
         <v>390</v>
@@ -6298,37 +6208,37 @@
     </row>
     <row r="106" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="18" t="s">
-        <v>989</v>
-      </c>
-      <c r="B106" s="35" t="s">
-        <v>1093</v>
+        <v>970</v>
+      </c>
+      <c r="B106" s="31" t="s">
+        <v>1074</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>987</v>
-      </c>
-      <c r="D106" s="40">
+        <v>968</v>
+      </c>
+      <c r="D106" s="36">
         <v>550</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="43" t="s">
-        <v>1237</v>
-      </c>
-      <c r="B107" s="46">
+      <c r="A107" s="39" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B107" s="42">
         <v>136</v>
       </c>
-      <c r="C107" s="47"/>
-      <c r="D107" s="48"/>
+      <c r="C107" s="43"/>
+      <c r="D107" s="44"/>
     </row>
     <row r="108" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="B108" s="28" t="s">
-        <v>122</v>
+        <v>318</v>
+      </c>
+      <c r="B108" s="25" t="s">
+        <v>112</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="D108" s="23">
         <v>600</v>
@@ -6336,13 +6246,13 @@
     </row>
     <row r="109" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="B109" s="28" t="s">
-        <v>124</v>
+        <v>319</v>
+      </c>
+      <c r="B109" s="25" t="s">
+        <v>114</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="D109" s="23">
         <v>800</v>
@@ -6350,13 +6260,13 @@
     </row>
     <row r="110" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="B110" s="28" t="s">
-        <v>126</v>
+        <v>320</v>
+      </c>
+      <c r="B110" s="25" t="s">
+        <v>116</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="D110" s="23">
         <v>1000</v>
@@ -6364,13 +6274,13 @@
     </row>
     <row r="111" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>1182</v>
-      </c>
-      <c r="B111" s="35" t="s">
-        <v>1175</v>
+        <v>1163</v>
+      </c>
+      <c r="B111" s="31" t="s">
+        <v>1156</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="D111" s="23">
         <v>1300</v>
@@ -6378,13 +6288,13 @@
     </row>
     <row r="112" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>1183</v>
-      </c>
-      <c r="B112" s="35" t="s">
-        <v>1176</v>
+        <v>1164</v>
+      </c>
+      <c r="B112" s="31" t="s">
+        <v>1157</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D112" s="23">
         <v>2100</v>
@@ -6392,13 +6302,13 @@
     </row>
     <row r="113" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>1184</v>
-      </c>
-      <c r="B113" s="35" t="s">
-        <v>1177</v>
+        <v>1165</v>
+      </c>
+      <c r="B113" s="31" t="s">
+        <v>1158</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="D113" s="23">
         <v>2600</v>
@@ -6406,13 +6316,13 @@
     </row>
     <row r="114" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>1185</v>
-      </c>
-      <c r="B114" s="35" t="s">
-        <v>1178</v>
+        <v>1166</v>
+      </c>
+      <c r="B114" s="31" t="s">
+        <v>1159</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>1097</v>
+        <v>1078</v>
       </c>
       <c r="D114" s="23">
         <v>1600</v>
@@ -6420,13 +6330,13 @@
     </row>
     <row r="115" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>1193</v>
-      </c>
-      <c r="B115" s="28" t="s">
-        <v>1179</v>
+        <v>1174</v>
+      </c>
+      <c r="B115" s="25" t="s">
+        <v>1160</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="D115" s="23">
         <v>1500</v>
@@ -6434,13 +6344,13 @@
     </row>
     <row r="116" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>1194</v>
-      </c>
-      <c r="B116" s="35" t="s">
-        <v>1180</v>
+        <v>1175</v>
+      </c>
+      <c r="B116" s="31" t="s">
+        <v>1161</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="D116" s="23">
         <v>1500</v>
@@ -6448,37 +6358,37 @@
     </row>
     <row r="117" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>1195</v>
+        <v>1176</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="D117" s="23">
         <v>500</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A118" s="43" t="s">
-        <v>1237</v>
-      </c>
-      <c r="B118" s="44">
+      <c r="A118" s="39" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B118" s="40">
         <v>137</v>
       </c>
-      <c r="C118" s="44"/>
-      <c r="D118" s="45"/>
+      <c r="C118" s="40"/>
+      <c r="D118" s="41"/>
     </row>
     <row r="119" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>786</v>
+        <v>774</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="D119" s="7">
         <v>300</v>
@@ -6486,13 +6396,13 @@
     </row>
     <row r="120" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>787</v>
-      </c>
-      <c r="B120" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="C120" s="28" t="s">
-        <v>1181</v>
+        <v>775</v>
+      </c>
+      <c r="B120" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="C120" s="25" t="s">
+        <v>1162</v>
       </c>
       <c r="D120" s="23">
         <v>550</v>
@@ -6500,13 +6410,13 @@
     </row>
     <row r="121" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>788</v>
+        <v>776</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="D121" s="23">
         <v>4000</v>
@@ -6514,13 +6424,13 @@
     </row>
     <row r="122" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>789</v>
+        <v>777</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>679</v>
+        <v>667</v>
       </c>
       <c r="D122" s="23">
         <v>650</v>
@@ -6528,13 +6438,13 @@
     </row>
     <row r="123" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>790</v>
+        <v>778</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>727</v>
+        <v>715</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="D123" s="23">
         <v>220</v>
@@ -6542,13 +6452,13 @@
     </row>
     <row r="124" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>791</v>
+        <v>779</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="C124" s="10" t="s">
-        <v>680</v>
+        <v>668</v>
       </c>
       <c r="D124" s="23">
         <v>500</v>
@@ -6556,13 +6466,13 @@
     </row>
     <row r="125" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>792</v>
+        <v>780</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="D125" s="23">
         <v>5000</v>
@@ -6570,23 +6480,23 @@
     </row>
     <row r="126" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
-        <v>1237</v>
-      </c>
-      <c r="B126" s="49">
+        <v>1218</v>
+      </c>
+      <c r="B126" s="45">
         <v>142</v>
       </c>
-      <c r="C126" s="49"/>
-      <c r="D126" s="50"/>
+      <c r="C126" s="45"/>
+      <c r="D126" s="46"/>
     </row>
     <row r="127" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>793</v>
+        <v>781</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="D127" s="23">
         <v>290</v>
@@ -6594,13 +6504,13 @@
     </row>
     <row r="128" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>794</v>
+        <v>782</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="D128" s="23">
         <v>1000</v>
@@ -6608,13 +6518,13 @@
     </row>
     <row r="129" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>795</v>
+        <v>783</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="D129" s="23">
         <v>1500</v>
@@ -6622,13 +6532,13 @@
     </row>
     <row r="130" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>796</v>
+        <v>784</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="D130" s="23">
         <v>1200</v>
@@ -6636,13 +6546,13 @@
     </row>
     <row r="131" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>797</v>
+        <v>785</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D131" s="23">
         <v>1800</v>
@@ -6650,13 +6560,13 @@
     </row>
     <row r="132" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>798</v>
+        <v>786</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="D132" s="23">
         <v>1000</v>
@@ -6664,13 +6574,13 @@
     </row>
     <row r="133" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>1126</v>
+        <v>1107</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="D133" s="23">
         <v>4000</v>
@@ -6678,13 +6588,13 @@
     </row>
     <row r="134" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>1127</v>
+        <v>1108</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="D134" s="23">
         <f>1800+650</f>
@@ -6693,13 +6603,13 @@
     </row>
     <row r="135" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>799</v>
+        <v>787</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="D135" s="23">
         <v>5000</v>
@@ -6707,13 +6617,13 @@
     </row>
     <row r="136" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>800</v>
+        <v>788</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D136" s="23">
         <v>5000</v>
@@ -6721,13 +6631,13 @@
     </row>
     <row r="137" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>801</v>
+        <v>789</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="D137" s="23">
         <v>8000</v>
@@ -6735,13 +6645,13 @@
     </row>
     <row r="138" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>802</v>
+        <v>790</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="D138" s="23">
         <v>12000</v>
@@ -6749,13 +6659,13 @@
     </row>
     <row r="139" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>1100</v>
+        <v>1081</v>
       </c>
       <c r="B139" s="10" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="C139" s="10" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="D139" s="23">
         <v>3500</v>
@@ -6763,13 +6673,13 @@
     </row>
     <row r="140" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>1101</v>
+        <v>1082</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="D140" s="23">
         <v>5750</v>
@@ -6777,13 +6687,13 @@
     </row>
     <row r="141" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>1102</v>
+        <v>1083</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="D141" s="23">
         <v>2100</v>
@@ -6791,13 +6701,13 @@
     </row>
     <row r="142" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>1103</v>
+        <v>1084</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="D142" s="23">
         <v>550</v>
@@ -6805,13 +6715,13 @@
     </row>
     <row r="143" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>1104</v>
+        <v>1085</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="D143" s="23">
         <v>1000</v>
@@ -6819,13 +6729,13 @@
     </row>
     <row r="144" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>1105</v>
+        <v>1086</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="C144" s="28" t="s">
-        <v>1199</v>
+        <v>151</v>
+      </c>
+      <c r="C144" s="25" t="s">
+        <v>1180</v>
       </c>
       <c r="D144" s="23">
         <v>1500</v>
@@ -6833,13 +6743,13 @@
     </row>
     <row r="145" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>1106</v>
+        <v>1087</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="D145" s="23">
         <v>2200</v>
@@ -6847,13 +6757,13 @@
     </row>
     <row r="146" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>1107</v>
+        <v>1088</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>681</v>
+        <v>669</v>
       </c>
       <c r="D146" s="23">
         <v>330</v>
@@ -6861,13 +6771,13 @@
     </row>
     <row r="147" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>1108</v>
+        <v>1089</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="D147" s="23">
         <v>1650</v>
@@ -6875,13 +6785,13 @@
     </row>
     <row r="148" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>1109</v>
+        <v>1090</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="D148" s="23">
         <v>2750</v>
@@ -6889,13 +6799,13 @@
     </row>
     <row r="149" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>1110</v>
+        <v>1091</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="D149" s="23">
         <v>3850</v>
@@ -6903,13 +6813,13 @@
     </row>
     <row r="150" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>1111</v>
+        <v>1092</v>
       </c>
       <c r="B150" s="10" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="C150" s="10" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="D150" s="23">
         <v>7100</v>
@@ -6917,13 +6827,13 @@
     </row>
     <row r="151" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>1112</v>
+        <v>1093</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="D151" s="23">
         <v>1000</v>
@@ -6931,13 +6841,13 @@
     </row>
     <row r="152" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>1128</v>
+        <v>1109</v>
       </c>
       <c r="B152" s="10" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="D152" s="23">
         <v>4500</v>
@@ -6945,13 +6855,13 @@
     </row>
     <row r="153" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>1129</v>
+        <v>1110</v>
       </c>
       <c r="B153" s="10" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="D153" s="23">
         <v>7500</v>
@@ -6959,13 +6869,13 @@
     </row>
     <row r="154" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>1130</v>
+        <v>1111</v>
       </c>
       <c r="B154" s="10" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="D154" s="23">
         <v>5000</v>
@@ -6973,13 +6883,13 @@
     </row>
     <row r="155" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>1131</v>
+        <v>1112</v>
       </c>
       <c r="B155" s="10" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="D155" s="23">
         <v>8000</v>
@@ -6987,13 +6897,13 @@
     </row>
     <row r="156" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>1113</v>
+        <v>1094</v>
       </c>
       <c r="B156" s="10" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="C156" s="10" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="D156" s="23">
         <v>2100</v>
@@ -7001,13 +6911,13 @@
     </row>
     <row r="157" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>1114</v>
+        <v>1095</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="D157" s="23">
         <v>2500</v>
@@ -7015,13 +6925,13 @@
     </row>
     <row r="158" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>1115</v>
+        <v>1096</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="D158" s="23">
         <v>2500</v>
@@ -7029,13 +6939,13 @@
     </row>
     <row r="159" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>1116</v>
+        <v>1097</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="D159" s="23">
         <v>1750</v>
@@ -7043,13 +6953,13 @@
     </row>
     <row r="160" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>1117</v>
+        <v>1098</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="D160" s="23">
         <v>2750</v>
@@ -7057,13 +6967,13 @@
     </row>
     <row r="161" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>1118</v>
+        <v>1099</v>
       </c>
       <c r="B161" s="10" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="C161" s="10" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="D161" s="23">
         <v>5000</v>
@@ -7071,13 +6981,13 @@
     </row>
     <row r="162" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>1119</v>
+        <v>1100</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="D162" s="23">
         <v>300</v>
@@ -7085,13 +6995,13 @@
     </row>
     <row r="163" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>1120</v>
+        <v>1101</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="D163" s="23">
         <v>550</v>
@@ -7099,13 +7009,13 @@
     </row>
     <row r="164" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>1121</v>
+        <v>1102</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D164" s="23">
         <v>5000</v>
@@ -7113,13 +7023,13 @@
     </row>
     <row r="165" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>1122</v>
+        <v>1103</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="D165" s="23">
         <v>300</v>
@@ -7127,13 +7037,13 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>1123</v>
+        <v>1104</v>
       </c>
       <c r="B166" s="10" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="C166" s="11" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="D166" s="23">
         <v>600</v>
@@ -7141,13 +7051,13 @@
     </row>
     <row r="167" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>1124</v>
+        <v>1105</v>
       </c>
       <c r="B167" s="10" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="C167" s="10" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="D167" s="23">
         <v>300</v>
@@ -7155,37 +7065,37 @@
     </row>
     <row r="168" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>1125</v>
+        <v>1106</v>
       </c>
       <c r="B168" s="10" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="C168" s="10" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="D168" s="23">
         <v>300</v>
       </c>
     </row>
     <row r="169" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="43" t="s">
-        <v>1237</v>
-      </c>
-      <c r="B169" s="44">
+      <c r="A169" s="39" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B169" s="40">
         <v>138</v>
       </c>
-      <c r="C169" s="44"/>
-      <c r="D169" s="45"/>
+      <c r="C169" s="40"/>
+      <c r="D169" s="41"/>
     </row>
     <row r="170" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>1200</v>
+        <v>1181</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>1201</v>
+        <v>1182</v>
       </c>
       <c r="D170" s="23">
         <v>5500</v>
@@ -7193,13 +7103,13 @@
     </row>
     <row r="171" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>1202</v>
+        <v>1183</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>1203</v>
+        <v>1184</v>
       </c>
       <c r="D171" s="23">
         <v>10000</v>
@@ -7207,13 +7117,13 @@
     </row>
     <row r="172" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>1204</v>
+        <v>1185</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>1205</v>
+        <v>1186</v>
       </c>
       <c r="D172" s="23">
         <v>3300</v>
@@ -7221,13 +7131,13 @@
     </row>
     <row r="173" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>1206</v>
+        <v>1187</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>1207</v>
+        <v>1188</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>1208</v>
+        <v>1189</v>
       </c>
       <c r="D173" s="23">
         <v>5500</v>
@@ -7235,13 +7145,13 @@
     </row>
     <row r="174" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>803</v>
+        <v>791</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="D174" s="23">
         <v>10000</v>
@@ -7249,13 +7159,13 @@
     </row>
     <row r="175" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>804</v>
+        <v>792</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="D175" s="23">
         <v>13500</v>
@@ -7263,13 +7173,13 @@
     </row>
     <row r="176" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>805</v>
+        <v>793</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="D176" s="23">
         <v>300</v>
@@ -7277,13 +7187,13 @@
     </row>
     <row r="177" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>806</v>
+        <v>794</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="D177" s="23">
         <v>500</v>
@@ -7291,13 +7201,13 @@
     </row>
     <row r="178" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>807</v>
+        <v>795</v>
       </c>
       <c r="B178" s="10" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="C178" s="10" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="D178" s="23">
         <v>3000</v>
@@ -7305,13 +7215,13 @@
     </row>
     <row r="179" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>808</v>
+        <v>796</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="D179" s="23">
         <v>1300</v>
@@ -7319,13 +7229,13 @@
     </row>
     <row r="180" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>809</v>
+        <v>797</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="D180" s="23">
         <v>6000</v>
@@ -7333,13 +7243,13 @@
     </row>
     <row r="181" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>810</v>
+        <v>798</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="D181" s="23">
         <v>6600</v>
@@ -7347,13 +7257,13 @@
     </row>
     <row r="182" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>811</v>
+        <v>799</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="D182" s="23">
         <v>2200</v>
@@ -7361,13 +7271,13 @@
     </row>
     <row r="183" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>812</v>
+        <v>800</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="D183" s="23">
         <v>7700</v>
@@ -7375,13 +7285,13 @@
     </row>
     <row r="184" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>813</v>
+        <v>801</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="D184" s="23">
         <v>9900</v>
@@ -7389,13 +7299,13 @@
     </row>
     <row r="185" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>814</v>
+        <v>802</v>
       </c>
       <c r="B185" s="10" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="C185" s="10" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="D185" s="23">
         <v>1000</v>
@@ -7403,191 +7313,191 @@
     </row>
     <row r="186" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A186" s="14" t="s">
-        <v>815</v>
+        <v>803</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="C186" s="10" t="s">
-        <v>695</v>
+        <v>683</v>
       </c>
       <c r="D186" s="23">
         <v>12500</v>
       </c>
     </row>
     <row r="187" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="43" t="s">
-        <v>1237</v>
-      </c>
-      <c r="B187" s="44">
+      <c r="A187" s="39" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B187" s="40">
         <v>139</v>
       </c>
-      <c r="C187" s="44"/>
-      <c r="D187" s="45"/>
+      <c r="C187" s="40"/>
+      <c r="D187" s="41"/>
     </row>
     <row r="188" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>816</v>
+        <v>804</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="D188" s="23">
         <v>18000</v>
       </c>
     </row>
     <row r="189" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A189" s="39" t="s">
-        <v>817</v>
+      <c r="A189" s="35" t="s">
+        <v>805</v>
       </c>
       <c r="B189" s="10" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="C189" s="10" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="D189" s="23">
         <v>18000</v>
       </c>
     </row>
     <row r="190" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A190" s="39" t="s">
-        <v>818</v>
+      <c r="A190" s="35" t="s">
+        <v>806</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="D190" s="23">
         <v>12000</v>
       </c>
     </row>
     <row r="191" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A191" s="39" t="s">
-        <v>819</v>
+      <c r="A191" s="35" t="s">
+        <v>807</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="D191" s="23">
         <v>12000</v>
       </c>
     </row>
     <row r="192" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A192" s="39" t="s">
-        <v>820</v>
+      <c r="A192" s="35" t="s">
+        <v>808</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D192" s="23">
         <v>12000</v>
       </c>
     </row>
     <row r="193" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A193" s="39" t="s">
-        <v>821</v>
+      <c r="A193" s="35" t="s">
+        <v>809</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="D193" s="23">
         <v>18950</v>
       </c>
     </row>
     <row r="194" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A194" s="39" t="s">
-        <v>822</v>
+      <c r="A194" s="35" t="s">
+        <v>810</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="D194" s="23">
         <v>35900</v>
       </c>
     </row>
     <row r="195" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A195" s="39" t="s">
-        <v>823</v>
+      <c r="A195" s="35" t="s">
+        <v>811</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="D195" s="23">
         <v>35900</v>
       </c>
     </row>
     <row r="196" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A196" s="39" t="s">
-        <v>824</v>
+      <c r="A196" s="35" t="s">
+        <v>812</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="D196" s="23">
         <v>42900</v>
       </c>
     </row>
     <row r="197" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A197" s="39" t="s">
-        <v>825</v>
+      <c r="A197" s="35" t="s">
+        <v>813</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="C197" s="13" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="D197" s="23">
         <v>23000</v>
       </c>
     </row>
     <row r="198" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A198" s="39" t="s">
-        <v>826</v>
+      <c r="A198" s="35" t="s">
+        <v>814</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="C198" s="13" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="D198" s="23">
         <v>17000</v>
       </c>
     </row>
     <row r="199" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A199" s="39" t="s">
-        <v>827</v>
+      <c r="A199" s="35" t="s">
+        <v>815</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>1009</v>
+        <v>990</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="D199" s="23">
         <v>1000</v>
@@ -7595,13 +7505,13 @@
     </row>
     <row r="200" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>828</v>
+        <v>816</v>
       </c>
       <c r="B200" s="10" t="s">
-        <v>687</v>
+        <v>675</v>
       </c>
       <c r="C200" s="17" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="D200" s="23">
         <v>5000</v>
@@ -7609,13 +7519,13 @@
     </row>
     <row r="201" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>829</v>
+        <v>817</v>
       </c>
       <c r="B201" s="10" t="s">
-        <v>688</v>
+        <v>676</v>
       </c>
       <c r="C201" s="17" t="s">
-        <v>683</v>
+        <v>671</v>
       </c>
       <c r="D201" s="23">
         <v>21500</v>
@@ -7623,13 +7533,13 @@
     </row>
     <row r="202" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>830</v>
+        <v>818</v>
       </c>
       <c r="B202" s="10" t="s">
-        <v>689</v>
+        <v>677</v>
       </c>
       <c r="C202" s="17" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="D202" s="23">
         <v>27900</v>
@@ -7637,13 +7547,13 @@
     </row>
     <row r="203" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>831</v>
+        <v>819</v>
       </c>
       <c r="B203" s="10" t="s">
-        <v>690</v>
+        <v>678</v>
       </c>
       <c r="C203" s="17" t="s">
-        <v>685</v>
+        <v>673</v>
       </c>
       <c r="D203" s="23">
         <v>15000</v>
@@ -7651,13 +7561,13 @@
     </row>
     <row r="204" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>832</v>
+        <v>820</v>
       </c>
       <c r="B204" s="10" t="s">
-        <v>691</v>
+        <v>679</v>
       </c>
       <c r="C204" s="17" t="s">
-        <v>686</v>
+        <v>674</v>
       </c>
       <c r="D204" s="23">
         <v>20000</v>
@@ -7665,13 +7575,13 @@
     </row>
     <row r="205" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>833</v>
+        <v>821</v>
       </c>
       <c r="B205" s="10" t="s">
-        <v>692</v>
+        <v>680</v>
       </c>
       <c r="C205" s="17" t="s">
-        <v>775</v>
+        <v>763</v>
       </c>
       <c r="D205" s="23">
         <v>17950</v>
@@ -7679,13 +7589,13 @@
     </row>
     <row r="206" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>834</v>
+        <v>822</v>
       </c>
       <c r="B206" s="10" t="s">
-        <v>693</v>
+        <v>681</v>
       </c>
       <c r="C206" s="17" t="s">
-        <v>776</v>
+        <v>764</v>
       </c>
       <c r="D206" s="23">
         <v>25950</v>
@@ -7693,13 +7603,13 @@
     </row>
     <row r="207" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>835</v>
+        <v>823</v>
       </c>
       <c r="B207" s="10" t="s">
-        <v>694</v>
+        <v>682</v>
       </c>
       <c r="C207" s="17" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="D207" s="23">
         <v>16000</v>
@@ -7707,13 +7617,13 @@
     </row>
     <row r="208" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>836</v>
+        <v>824</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="D208" s="23">
         <v>17000</v>
@@ -7721,37 +7631,37 @@
     </row>
     <row r="209" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>837</v>
+        <v>825</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>673</v>
+        <v>661</v>
       </c>
       <c r="C209" s="5" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="D209" s="23">
         <v>20000</v>
       </c>
     </row>
     <row r="210" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="43" t="s">
-        <v>1237</v>
-      </c>
-      <c r="B210" s="44">
+      <c r="A210" s="39" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B210" s="40">
         <v>140</v>
       </c>
-      <c r="C210" s="44"/>
-      <c r="D210" s="45"/>
+      <c r="C210" s="40"/>
+      <c r="D210" s="41"/>
     </row>
     <row r="211" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>838</v>
+        <v>826</v>
       </c>
       <c r="B211" s="10" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="C211" s="17" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="D211" s="23">
         <v>1200</v>
@@ -7759,13 +7669,13 @@
     </row>
     <row r="212" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
-        <v>839</v>
+        <v>827</v>
       </c>
       <c r="B212" s="10" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="C212" s="17" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="D212" s="23">
         <v>1200</v>
@@ -7773,13 +7683,13 @@
     </row>
     <row r="213" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
-        <v>840</v>
+        <v>828</v>
       </c>
       <c r="B213" s="10" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="C213" s="17" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="D213" s="23">
         <v>1500</v>
@@ -7787,13 +7697,13 @@
     </row>
     <row r="214" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
-        <v>876</v>
+        <v>864</v>
       </c>
       <c r="B214" s="10" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="C214" s="17" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="D214" s="23">
         <v>10000</v>
@@ -7801,13 +7711,13 @@
     </row>
     <row r="215" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
-        <v>875</v>
+        <v>863</v>
       </c>
       <c r="B215" s="10" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="C215" s="17" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="D215" s="23">
         <v>15000</v>
@@ -7815,13 +7725,13 @@
     </row>
     <row r="216" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
-        <v>874</v>
+        <v>862</v>
       </c>
       <c r="B216" s="10" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="C216" s="17" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="D216" s="23">
         <v>15000</v>
@@ -7829,13 +7739,13 @@
     </row>
     <row r="217" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
-        <v>873</v>
+        <v>861</v>
       </c>
       <c r="B217" s="10" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="C217" s="17" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="D217" s="23">
         <v>15000</v>
@@ -7843,13 +7753,13 @@
     </row>
     <row r="218" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
-        <v>872</v>
+        <v>860</v>
       </c>
       <c r="B218" s="10" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="C218" s="17" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="D218" s="23">
         <v>15000</v>
@@ -7857,13 +7767,13 @@
     </row>
     <row r="219" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
-        <v>871</v>
+        <v>859</v>
       </c>
       <c r="B219" s="10" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="C219" s="17" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="D219" s="23">
         <v>15000</v>
@@ -7871,13 +7781,13 @@
     </row>
     <row r="220" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>870</v>
+        <v>858</v>
       </c>
       <c r="B220" s="10" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="C220" s="17" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="D220" s="23">
         <v>15000</v>
@@ -7885,13 +7795,13 @@
     </row>
     <row r="221" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
-        <v>869</v>
+        <v>857</v>
       </c>
       <c r="B221" s="10" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="C221" s="17" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="D221" s="23">
         <v>5000</v>
@@ -7899,13 +7809,13 @@
     </row>
     <row r="222" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
-        <v>868</v>
+        <v>856</v>
       </c>
       <c r="B222" s="10" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="C222" s="17" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="D222" s="23">
         <v>7800</v>
@@ -7913,13 +7823,13 @@
     </row>
     <row r="223" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
-        <v>867</v>
+        <v>855</v>
       </c>
       <c r="B223" s="10" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="C223" s="17" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="D223" s="23">
         <v>7800</v>
@@ -7927,13 +7837,13 @@
     </row>
     <row r="224" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
-        <v>866</v>
+        <v>854</v>
       </c>
       <c r="B224" s="10" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="C224" s="17" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="D224" s="23">
         <v>7000</v>
@@ -7941,13 +7851,13 @@
     </row>
     <row r="225" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
-        <v>865</v>
+        <v>853</v>
       </c>
       <c r="B225" s="10" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="C225" s="17" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="D225" s="23">
         <v>13500</v>
@@ -7955,13 +7865,13 @@
     </row>
     <row r="226" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
-        <v>864</v>
+        <v>852</v>
       </c>
       <c r="B226" s="10" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="C226" s="17" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="D226" s="23">
         <v>16000</v>
@@ -7969,13 +7879,13 @@
     </row>
     <row r="227" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
-        <v>863</v>
+        <v>851</v>
       </c>
       <c r="B227" s="10" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="C227" s="17" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="D227" s="23">
         <v>15000</v>
@@ -7983,13 +7893,13 @@
     </row>
     <row r="228" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
-        <v>862</v>
+        <v>850</v>
       </c>
       <c r="B228" s="10" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="C228" s="17" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="D228" s="23">
         <v>23000</v>
@@ -7997,13 +7907,13 @@
     </row>
     <row r="229" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
-        <v>861</v>
+        <v>849</v>
       </c>
       <c r="B229" s="10" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="C229" s="17" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="D229" s="23">
         <v>5400</v>
@@ -8011,13 +7921,13 @@
     </row>
     <row r="230" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
-        <v>860</v>
+        <v>848</v>
       </c>
       <c r="B230" s="10" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="C230" s="17" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="D230" s="23">
         <v>4500</v>
@@ -8025,13 +7935,13 @@
     </row>
     <row r="231" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
-        <v>859</v>
+        <v>847</v>
       </c>
       <c r="B231" s="10" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="C231" s="17" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="D231" s="23">
         <v>9500</v>
@@ -8039,13 +7949,13 @@
     </row>
     <row r="232" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
-        <v>858</v>
+        <v>846</v>
       </c>
       <c r="B232" s="10" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="C232" s="17" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="D232" s="23">
         <v>11500</v>
@@ -8053,13 +7963,13 @@
     </row>
     <row r="233" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
-        <v>857</v>
+        <v>845</v>
       </c>
       <c r="B233" s="10" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="C233" s="17" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="D233" s="23">
         <v>2400</v>
@@ -8067,13 +7977,13 @@
     </row>
     <row r="234" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
-        <v>856</v>
+        <v>844</v>
       </c>
       <c r="B234" s="10" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="C234" s="17" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="D234" s="23">
         <v>2000</v>
@@ -8081,13 +7991,13 @@
     </row>
     <row r="235" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
-        <v>855</v>
+        <v>843</v>
       </c>
       <c r="B235" s="10" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="C235" s="17" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="D235" s="23">
         <v>3500</v>
@@ -8095,13 +8005,13 @@
     </row>
     <row r="236" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
-        <v>854</v>
+        <v>842</v>
       </c>
       <c r="B236" s="10" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="C236" s="17" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="D236" s="23">
         <v>600</v>
@@ -8109,13 +8019,13 @@
     </row>
     <row r="237" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
-        <v>853</v>
+        <v>841</v>
       </c>
       <c r="B237" s="10" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="C237" s="17" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="D237" s="23">
         <v>600</v>
@@ -8123,13 +8033,13 @@
     </row>
     <row r="238" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
-        <v>852</v>
+        <v>840</v>
       </c>
       <c r="B238" s="10" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="C238" s="17" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="D238" s="23">
         <v>800</v>
@@ -8137,13 +8047,13 @@
     </row>
     <row r="239" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
-        <v>851</v>
+        <v>839</v>
       </c>
       <c r="B239" s="10" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="C239" s="17" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="D239" s="23">
         <v>800</v>
@@ -8151,13 +8061,13 @@
     </row>
     <row r="240" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
-        <v>850</v>
+        <v>838</v>
       </c>
       <c r="B240" s="10" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="C240" s="17" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="D240" s="23">
         <v>600</v>
@@ -8165,13 +8075,13 @@
     </row>
     <row r="241" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
-        <v>849</v>
+        <v>837</v>
       </c>
       <c r="B241" s="10" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="C241" s="17" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="D241" s="23">
         <v>1000</v>
@@ -8179,13 +8089,13 @@
     </row>
     <row r="242" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
-        <v>848</v>
+        <v>836</v>
       </c>
       <c r="B242" s="10" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="C242" s="17" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="D242" s="23">
         <v>1400</v>
@@ -8193,13 +8103,13 @@
     </row>
     <row r="243" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
-        <v>847</v>
+        <v>835</v>
       </c>
       <c r="B243" s="10" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="C243" s="17" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="D243" s="23">
         <v>1800</v>
@@ -8207,13 +8117,13 @@
     </row>
     <row r="244" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
-        <v>846</v>
+        <v>834</v>
       </c>
       <c r="B244" s="10" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="C244" s="17" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="D244" s="23">
         <v>800</v>
@@ -8221,13 +8131,13 @@
     </row>
     <row r="245" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
-        <v>845</v>
+        <v>833</v>
       </c>
       <c r="B245" s="10" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="C245" s="17" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="D245" s="23">
         <v>800</v>
@@ -8235,13 +8145,13 @@
     </row>
     <row r="246" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
-        <v>844</v>
+        <v>832</v>
       </c>
       <c r="B246" s="10" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="C246" s="17" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="D246" s="23">
         <v>300</v>
@@ -8249,13 +8159,13 @@
     </row>
     <row r="247" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
-        <v>843</v>
+        <v>831</v>
       </c>
       <c r="B247" s="10" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="C247" s="17" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="D247" s="23">
         <v>300</v>
@@ -8263,13 +8173,13 @@
     </row>
     <row r="248" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
-        <v>842</v>
+        <v>830</v>
       </c>
       <c r="B248" s="10" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="C248" s="17" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="D248" s="23">
         <v>15000</v>
@@ -8277,13 +8187,13 @@
     </row>
     <row r="249" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
-        <v>841</v>
+        <v>829</v>
       </c>
       <c r="B249" s="10" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="C249" s="17" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="D249" s="23">
         <v>15000</v>
@@ -8291,13 +8201,13 @@
     </row>
     <row r="250" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
-        <v>878</v>
+        <v>866</v>
       </c>
       <c r="B250" s="10" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="C250" s="17" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="D250" s="23">
         <v>0</v>
@@ -8305,13 +8215,13 @@
     </row>
     <row r="251" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
-        <v>879</v>
+        <v>867</v>
       </c>
       <c r="B251" s="10" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="C251" s="17" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="D251" s="23">
         <v>2800</v>
@@ -8319,13 +8229,13 @@
     </row>
     <row r="252" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
-        <v>880</v>
+        <v>868</v>
       </c>
       <c r="B252" s="10" t="s">
-        <v>877</v>
+        <v>865</v>
       </c>
       <c r="C252" s="17" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="D252" s="23">
         <v>4000</v>
@@ -8333,13 +8243,13 @@
     </row>
     <row r="253" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
-        <v>881</v>
+        <v>869</v>
       </c>
       <c r="B253" s="10" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="C253" s="17" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="D253" s="23">
         <v>0</v>
@@ -8347,13 +8257,13 @@
     </row>
     <row r="254" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
-        <v>882</v>
+        <v>870</v>
       </c>
       <c r="B254" s="10" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="C254" s="17" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="D254" s="23">
         <v>0</v>
@@ -8361,13 +8271,13 @@
     </row>
     <row r="255" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
-        <v>883</v>
+        <v>871</v>
       </c>
       <c r="B255" s="10" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="C255" s="17" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="D255" s="23">
         <v>0</v>
@@ -8375,13 +8285,13 @@
     </row>
     <row r="256" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
-        <v>884</v>
+        <v>872</v>
       </c>
       <c r="B256" s="10" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="C256" s="17" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="D256" s="23">
         <v>0</v>
@@ -8389,13 +8299,13 @@
     </row>
     <row r="257" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="B257" s="10" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="C257" s="17" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="D257" s="23">
         <v>0</v>
@@ -8403,13 +8313,13 @@
     </row>
     <row r="258" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
-        <v>886</v>
+        <v>874</v>
       </c>
       <c r="B258" s="10" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="C258" s="17" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="D258" s="23">
         <v>0</v>
@@ -8417,13 +8327,13 @@
     </row>
     <row r="259" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
-        <v>887</v>
+        <v>875</v>
       </c>
       <c r="B259" s="10" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="C259" s="17" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="D259" s="23">
         <v>0</v>
@@ -8431,13 +8341,13 @@
     </row>
     <row r="260" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
-        <v>888</v>
+        <v>876</v>
       </c>
       <c r="B260" s="10" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="C260" s="17" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="D260" s="23">
         <v>1900</v>
@@ -8445,13 +8355,13 @@
     </row>
     <row r="261" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
-        <v>889</v>
+        <v>877</v>
       </c>
       <c r="B261" s="10" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="C261" s="17" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="D261" s="23">
         <v>1900</v>
@@ -8459,13 +8369,13 @@
     </row>
     <row r="262" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="B262" s="10" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="C262" s="17" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="D262" s="23">
         <v>0</v>
@@ -8473,13 +8383,13 @@
     </row>
     <row r="263" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
-        <v>891</v>
+        <v>879</v>
       </c>
       <c r="B263" s="10" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="C263" s="17" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="D263" s="23">
         <v>0</v>
@@ -8487,13 +8397,13 @@
     </row>
     <row r="264" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
-        <v>892</v>
+        <v>880</v>
       </c>
       <c r="B264" s="10" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="C264" s="17" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="D264" s="23">
         <v>0</v>
@@ -8501,13 +8411,13 @@
     </row>
     <row r="265" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
-        <v>893</v>
+        <v>881</v>
       </c>
       <c r="B265" s="10" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="C265" s="17" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="D265" s="23">
         <v>8500</v>
@@ -8515,13 +8425,13 @@
     </row>
     <row r="266" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
-        <v>894</v>
+        <v>882</v>
       </c>
       <c r="B266" s="10" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="C266" s="17" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="D266" s="23">
         <v>1200</v>
@@ -8529,13 +8439,13 @@
     </row>
     <row r="267" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
-        <v>895</v>
+        <v>883</v>
       </c>
       <c r="B267" s="10" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="C267" s="17" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="D267" s="23">
         <v>0</v>
@@ -8543,13 +8453,13 @@
     </row>
     <row r="268" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
-        <v>896</v>
+        <v>884</v>
       </c>
       <c r="B268" s="10" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="C268" s="17" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="D268" s="23">
         <v>0</v>
@@ -8557,13 +8467,13 @@
     </row>
     <row r="269" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
-        <v>897</v>
+        <v>885</v>
       </c>
       <c r="B269" s="10" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="C269" s="17" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="D269" s="23">
         <v>0</v>
@@ -8571,13 +8481,13 @@
     </row>
     <row r="270" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
-        <v>898</v>
+        <v>886</v>
       </c>
       <c r="B270" s="10" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="C270" s="17" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="D270" s="23">
         <v>0</v>
@@ -8585,13 +8495,13 @@
     </row>
     <row r="271" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
-        <v>899</v>
+        <v>887</v>
       </c>
       <c r="B271" s="10" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="C271" s="17" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="D271" s="23">
         <v>1900</v>
@@ -8599,13 +8509,13 @@
     </row>
     <row r="272" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
-        <v>900</v>
+        <v>888</v>
       </c>
       <c r="B272" s="10" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="C272" s="17" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="D272" s="23">
         <v>5000</v>
@@ -8613,13 +8523,13 @@
     </row>
     <row r="273" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
-        <v>901</v>
+        <v>889</v>
       </c>
       <c r="B273" s="10" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="C273" s="17" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="D273" s="23">
         <v>6000</v>
@@ -8627,13 +8537,13 @@
     </row>
     <row r="274" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
-        <v>1132</v>
+        <v>1113</v>
       </c>
       <c r="B274" s="10" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="C274" s="17" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="D274" s="23">
         <v>7000</v>
@@ -8641,13 +8551,13 @@
     </row>
     <row r="275" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
-        <v>1133</v>
+        <v>1114</v>
       </c>
       <c r="B275" s="10" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="C275" s="17" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="D275" s="23">
         <v>9000</v>
@@ -8655,13 +8565,13 @@
     </row>
     <row r="276" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
-        <v>1134</v>
+        <v>1115</v>
       </c>
       <c r="B276" s="10" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="C276" s="17" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="D276" s="23">
         <v>2400</v>
@@ -8669,13 +8579,13 @@
     </row>
     <row r="277" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
-        <v>1135</v>
+        <v>1116</v>
       </c>
       <c r="B277" s="10" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="C277" s="17" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="D277" s="23">
         <v>4000</v>
@@ -8683,13 +8593,13 @@
     </row>
     <row r="278" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
-        <v>1136</v>
+        <v>1117</v>
       </c>
       <c r="B278" s="10" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="C278" s="17" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="D278" s="23">
         <v>4500</v>
@@ -8697,13 +8607,13 @@
     </row>
     <row r="279" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
-        <v>1137</v>
+        <v>1118</v>
       </c>
       <c r="B279" s="10" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="C279" s="17" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="D279" s="23">
         <v>5500</v>
@@ -8711,13 +8621,13 @@
     </row>
     <row r="280" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
-        <v>1138</v>
+        <v>1119</v>
       </c>
       <c r="B280" s="10" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="C280" s="17" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="D280" s="23">
         <v>34000</v>
@@ -8725,13 +8635,13 @@
     </row>
     <row r="281" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
-        <v>1139</v>
+        <v>1120</v>
       </c>
       <c r="B281" s="10" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="C281" s="17" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="D281" s="23">
         <v>24000</v>
@@ -8739,13 +8649,13 @@
     </row>
     <row r="282" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
-        <v>1140</v>
+        <v>1121</v>
       </c>
       <c r="B282" s="10" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="C282" s="17" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="D282" s="23">
         <v>35000</v>
@@ -8753,13 +8663,13 @@
     </row>
     <row r="283" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
-        <v>1141</v>
+        <v>1122</v>
       </c>
       <c r="B283" s="10" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="C283" s="17" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="D283" s="23">
         <v>12000</v>
@@ -8767,13 +8677,13 @@
     </row>
     <row r="284" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
-        <v>1142</v>
+        <v>1123</v>
       </c>
       <c r="B284" s="10" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="C284" s="17" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="D284" s="23">
         <v>17000</v>
@@ -8781,13 +8691,13 @@
     </row>
     <row r="285" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
-        <v>1143</v>
+        <v>1124</v>
       </c>
       <c r="B285" s="10" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="C285" s="17" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="D285" s="23">
         <v>38000</v>
@@ -8795,13 +8705,13 @@
     </row>
     <row r="286" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
-        <v>1144</v>
+        <v>1125</v>
       </c>
       <c r="B286" s="10" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="C286" s="17" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="D286" s="23">
         <v>32000</v>
@@ -8809,13 +8719,13 @@
     </row>
     <row r="287" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
-        <v>1145</v>
+        <v>1126</v>
       </c>
       <c r="B287" s="10" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="C287" s="17" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="D287" s="23">
         <v>45000</v>
@@ -8823,13 +8733,13 @@
     </row>
     <row r="288" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
-        <v>1146</v>
+        <v>1127</v>
       </c>
       <c r="B288" s="10" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="C288" s="17" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="D288" s="23">
         <v>20000</v>
@@ -8837,13 +8747,13 @@
     </row>
     <row r="289" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
-        <v>1147</v>
+        <v>1128</v>
       </c>
       <c r="B289" s="10" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="C289" s="17" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="D289" s="23">
         <v>2500</v>
@@ -8851,13 +8761,13 @@
     </row>
     <row r="290" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
-        <v>1148</v>
+        <v>1129</v>
       </c>
       <c r="B290" s="10" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="C290" s="17" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="D290" s="23">
         <v>950</v>
@@ -8865,37 +8775,37 @@
     </row>
     <row r="291" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
-        <v>1149</v>
+        <v>1130</v>
       </c>
       <c r="B291" s="10" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="C291" s="17" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="D291" s="23">
         <v>6000</v>
       </c>
     </row>
     <row r="292" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A292" s="43" t="s">
-        <v>1237</v>
-      </c>
-      <c r="B292" s="44">
+      <c r="A292" s="39" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B292" s="40">
         <v>141</v>
       </c>
-      <c r="C292" s="44"/>
-      <c r="D292" s="45"/>
+      <c r="C292" s="40"/>
+      <c r="D292" s="41"/>
     </row>
     <row r="293" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
-        <v>917</v>
+        <v>905</v>
       </c>
       <c r="B293" s="5" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="D293" s="23">
         <v>350</v>
@@ -8903,13 +8813,13 @@
     </row>
     <row r="294" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
-        <v>918</v>
+        <v>906</v>
       </c>
       <c r="B294" s="5" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>678</v>
+        <v>666</v>
       </c>
       <c r="D294" s="23">
         <v>1000</v>
@@ -8917,13 +8827,13 @@
     </row>
     <row r="295" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
-        <v>919</v>
+        <v>907</v>
       </c>
       <c r="B295" s="5" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="D295" s="23">
         <v>1400</v>
@@ -8931,13 +8841,13 @@
     </row>
     <row r="296" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
-        <v>920</v>
+        <v>908</v>
       </c>
       <c r="B296" s="5" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
       <c r="C296" s="5" t="s">
-        <v>662</v>
+        <v>650</v>
       </c>
       <c r="D296" s="23">
         <v>850</v>
@@ -8945,13 +8855,13 @@
     </row>
     <row r="297" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
-        <v>921</v>
+        <v>909</v>
       </c>
       <c r="B297" s="5" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
       <c r="C297" s="5" t="s">
-        <v>663</v>
+        <v>651</v>
       </c>
       <c r="D297" s="23">
         <v>950</v>
@@ -8959,13 +8869,13 @@
     </row>
     <row r="298" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
-        <v>922</v>
+        <v>910</v>
       </c>
       <c r="B298" s="10" t="s">
-        <v>567</v>
+        <v>555</v>
       </c>
       <c r="C298" s="10" t="s">
-        <v>1035</v>
+        <v>1016</v>
       </c>
       <c r="D298" s="23">
         <v>1000</v>
@@ -8973,13 +8883,13 @@
     </row>
     <row r="299" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
-        <v>1043</v>
+        <v>1024</v>
       </c>
       <c r="B299" s="10" t="s">
-        <v>738</v>
+        <v>726</v>
       </c>
       <c r="C299" s="10" t="s">
-        <v>739</v>
+        <v>727</v>
       </c>
       <c r="D299" s="23">
         <v>1400</v>
@@ -8987,13 +8897,13 @@
     </row>
     <row r="300" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
-        <v>923</v>
+        <v>911</v>
       </c>
       <c r="B300" s="5" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>1036</v>
+        <v>1017</v>
       </c>
       <c r="D300" s="23">
         <v>1300</v>
@@ -9001,13 +8911,13 @@
     </row>
     <row r="301" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
-        <v>924</v>
+        <v>912</v>
       </c>
       <c r="B301" s="5" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="C301" s="5" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="D301" s="23">
         <v>1200</v>
@@ -9015,133 +8925,133 @@
     </row>
     <row r="302" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
-        <v>925</v>
+        <v>913</v>
       </c>
       <c r="B302" s="5" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>1037</v>
+        <v>1018</v>
       </c>
       <c r="D302" s="23">
         <v>1500</v>
       </c>
-      <c r="E302" s="36"/>
+      <c r="E302" s="32"/>
     </row>
     <row r="303" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
-        <v>1044</v>
+        <v>1025</v>
       </c>
       <c r="B303" s="5" t="s">
-        <v>669</v>
+        <v>657</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
       <c r="D303" s="23">
         <v>800</v>
       </c>
-      <c r="E303" s="37"/>
+      <c r="E303" s="33"/>
     </row>
     <row r="304" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
-        <v>926</v>
+        <v>914</v>
       </c>
       <c r="B304" s="5" t="s">
-        <v>670</v>
+        <v>658</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
       <c r="D304" s="23">
         <v>100</v>
       </c>
-      <c r="E304" s="37"/>
+      <c r="E304" s="33"/>
     </row>
     <row r="305" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
-        <v>927</v>
+        <v>915</v>
       </c>
       <c r="B305" s="5" t="s">
-        <v>671</v>
+        <v>659</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="D305" s="23">
         <v>1500</v>
       </c>
-      <c r="E305" s="36"/>
+      <c r="E305" s="32"/>
     </row>
     <row r="306" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
-        <v>928</v>
+        <v>916</v>
       </c>
       <c r="B306" s="5" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
       <c r="D306" s="23">
         <v>8000</v>
       </c>
-      <c r="E306" s="37"/>
+      <c r="E306" s="33"/>
     </row>
     <row r="307" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
-        <v>929</v>
+        <v>917</v>
       </c>
       <c r="B307" s="5" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>570</v>
+        <v>558</v>
       </c>
       <c r="D307" s="23">
         <v>10500</v>
       </c>
-      <c r="E307" s="37"/>
+      <c r="E307" s="33"/>
     </row>
     <row r="308" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
-        <v>930</v>
+        <v>918</v>
       </c>
       <c r="B308" s="5" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>664</v>
+        <v>652</v>
       </c>
       <c r="D308" s="23">
         <v>14000</v>
       </c>
-      <c r="E308" s="36"/>
+      <c r="E308" s="32"/>
     </row>
     <row r="309" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
-        <v>931</v>
+        <v>919</v>
       </c>
       <c r="B309" s="5" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>675</v>
+        <v>663</v>
       </c>
       <c r="D309" s="23">
         <v>150</v>
       </c>
-      <c r="E309" s="37"/>
+      <c r="E309" s="33"/>
     </row>
     <row r="310" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
-        <v>932</v>
+        <v>920</v>
       </c>
       <c r="B310" s="5" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
       <c r="C310" s="6" t="s">
-        <v>674</v>
+        <v>662</v>
       </c>
       <c r="D310" s="23">
         <v>22000</v>
@@ -9149,13 +9059,13 @@
     </row>
     <row r="311" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
-        <v>933</v>
+        <v>921</v>
       </c>
       <c r="B311" s="5" t="s">
-        <v>556</v>
+        <v>544</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="D311" s="23">
         <v>22500</v>
@@ -9163,13 +9073,13 @@
     </row>
     <row r="312" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
-        <v>1187</v>
+        <v>1168</v>
       </c>
       <c r="B312" s="5" t="s">
-        <v>557</v>
+        <v>545</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>1189</v>
+        <v>1170</v>
       </c>
       <c r="D312" s="23">
         <v>32500</v>
@@ -9177,13 +9087,13 @@
     </row>
     <row r="313" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
-        <v>934</v>
+        <v>922</v>
       </c>
       <c r="B313" s="5" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>571</v>
+        <v>559</v>
       </c>
       <c r="D313" s="23">
         <v>22000</v>
@@ -9191,13 +9101,13 @@
     </row>
     <row r="314" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
-        <v>935</v>
+        <v>923</v>
       </c>
       <c r="B314" s="5" t="s">
-        <v>573</v>
+        <v>561</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>638</v>
+        <v>626</v>
       </c>
       <c r="D314" s="23">
         <v>4000</v>
@@ -9205,13 +9115,13 @@
     </row>
     <row r="315" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
-        <v>936</v>
+        <v>924</v>
       </c>
       <c r="B315" s="5" t="s">
-        <v>595</v>
+        <v>583</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="D315" s="23">
         <v>7500</v>
@@ -9219,13 +9129,13 @@
     </row>
     <row r="316" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
-        <v>937</v>
+        <v>925</v>
       </c>
       <c r="B316" s="5" t="s">
-        <v>1188</v>
+        <v>1169</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>640</v>
+        <v>628</v>
       </c>
       <c r="D316" s="23">
         <v>10000</v>
@@ -9233,13 +9143,13 @@
     </row>
     <row r="317" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
-        <v>1045</v>
+        <v>1026</v>
       </c>
       <c r="B317" s="5" t="s">
-        <v>596</v>
+        <v>584</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>637</v>
+        <v>625</v>
       </c>
       <c r="D317" s="23">
         <v>31000</v>
@@ -9247,13 +9157,13 @@
     </row>
     <row r="318" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
-        <v>938</v>
+        <v>926</v>
       </c>
       <c r="B318" s="5" t="s">
-        <v>597</v>
+        <v>585</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
       <c r="D318" s="23">
         <v>14500</v>
@@ -9261,13 +9171,13 @@
     </row>
     <row r="319" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
-        <v>939</v>
+        <v>927</v>
       </c>
       <c r="B319" s="5" t="s">
-        <v>598</v>
+        <v>586</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>575</v>
+        <v>563</v>
       </c>
       <c r="D319" s="23">
         <v>22000</v>
@@ -9275,13 +9185,13 @@
     </row>
     <row r="320" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
-        <v>940</v>
+        <v>928</v>
       </c>
       <c r="B320" s="5" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>633</v>
+        <v>621</v>
       </c>
       <c r="D320" s="23">
         <v>2000</v>
@@ -9289,13 +9199,13 @@
     </row>
     <row r="321" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
-        <v>941</v>
+        <v>929</v>
       </c>
       <c r="B321" s="5" t="s">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>634</v>
+        <v>622</v>
       </c>
       <c r="D321" s="23">
         <v>2000</v>
@@ -9303,13 +9213,13 @@
     </row>
     <row r="322" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
-        <v>942</v>
+        <v>930</v>
       </c>
       <c r="B322" s="5" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>635</v>
+        <v>623</v>
       </c>
       <c r="D322" s="23">
         <v>13500</v>
@@ -9317,13 +9227,13 @@
     </row>
     <row r="323" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
-        <v>943</v>
+        <v>931</v>
       </c>
       <c r="B323" s="5" t="s">
-        <v>602</v>
+        <v>590</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>636</v>
+        <v>624</v>
       </c>
       <c r="D323" s="23">
         <v>6000</v>
@@ -9331,13 +9241,13 @@
     </row>
     <row r="324" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A324" s="18" t="s">
-        <v>944</v>
+        <v>932</v>
       </c>
       <c r="B324" s="5" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
       <c r="C324" s="6" t="s">
-        <v>1186</v>
+        <v>1167</v>
       </c>
       <c r="D324" s="23">
         <v>8500</v>
@@ -9346,13 +9256,13 @@
     </row>
     <row r="325" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
-        <v>945</v>
+        <v>933</v>
       </c>
       <c r="B325" s="5" t="s">
-        <v>604</v>
+        <v>592</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>576</v>
+        <v>564</v>
       </c>
       <c r="D325" s="23">
         <v>16000</v>
@@ -9360,13 +9270,13 @@
     </row>
     <row r="326" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
-        <v>946</v>
+        <v>934</v>
       </c>
       <c r="B326" s="5" t="s">
-        <v>605</v>
+        <v>593</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
       <c r="D326" s="23">
         <v>18000</v>
@@ -9374,13 +9284,13 @@
     </row>
     <row r="327" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A327" s="2" t="s">
-        <v>947</v>
+        <v>935</v>
       </c>
       <c r="B327" s="5" t="s">
-        <v>606</v>
+        <v>594</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
       <c r="D327" s="23">
         <v>18000</v>
@@ -9388,13 +9298,13 @@
     </row>
     <row r="328" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
-        <v>948</v>
+        <v>936</v>
       </c>
       <c r="B328" s="5" t="s">
-        <v>607</v>
+        <v>595</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="D328" s="23">
         <v>20000</v>
@@ -9402,13 +9312,13 @@
     </row>
     <row r="329" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="s">
-        <v>949</v>
+        <v>937</v>
       </c>
       <c r="B329" s="5" t="s">
-        <v>608</v>
+        <v>596</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
       <c r="D329" s="23">
         <v>18000</v>
@@ -9416,13 +9326,13 @@
     </row>
     <row r="330" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A330" s="2" t="s">
-        <v>950</v>
+        <v>938</v>
       </c>
       <c r="B330" s="5" t="s">
-        <v>609</v>
+        <v>597</v>
       </c>
       <c r="C330" s="6" t="s">
-        <v>665</v>
+        <v>653</v>
       </c>
       <c r="D330" s="23">
         <v>20000</v>
@@ -9430,13 +9340,13 @@
     </row>
     <row r="331" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="s">
-        <v>951</v>
+        <v>939</v>
       </c>
       <c r="B331" s="5" t="s">
-        <v>610</v>
+        <v>598</v>
       </c>
       <c r="C331" s="6" t="s">
-        <v>666</v>
+        <v>654</v>
       </c>
       <c r="D331" s="23">
         <v>6000</v>
@@ -9444,13 +9354,13 @@
     </row>
     <row r="332" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A332" s="2" t="s">
-        <v>952</v>
+        <v>940</v>
       </c>
       <c r="B332" s="5" t="s">
-        <v>611</v>
+        <v>599</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>582</v>
+        <v>570</v>
       </c>
       <c r="D332" s="23">
         <v>10000</v>
@@ -9458,13 +9368,13 @@
     </row>
     <row r="333" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A333" s="2" t="s">
-        <v>953</v>
+        <v>941</v>
       </c>
       <c r="B333" s="5" t="s">
-        <v>612</v>
+        <v>600</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>583</v>
+        <v>571</v>
       </c>
       <c r="D333" s="23">
         <v>12000</v>
@@ -9472,13 +9382,13 @@
     </row>
     <row r="334" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A334" s="2" t="s">
-        <v>954</v>
+        <v>942</v>
       </c>
       <c r="B334" s="5" t="s">
-        <v>613</v>
+        <v>601</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="D334" s="23">
         <v>19000</v>
@@ -9486,13 +9396,13 @@
     </row>
     <row r="335" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A335" s="2" t="s">
-        <v>955</v>
+        <v>943</v>
       </c>
       <c r="B335" s="5" t="s">
-        <v>614</v>
+        <v>602</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
       <c r="D335" s="23">
         <v>10000</v>
@@ -9500,13 +9410,13 @@
     </row>
     <row r="336" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A336" s="2" t="s">
-        <v>956</v>
+        <v>944</v>
       </c>
       <c r="B336" s="5" t="s">
-        <v>615</v>
+        <v>603</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>667</v>
+        <v>655</v>
       </c>
       <c r="D336" s="23">
         <v>1200</v>
@@ -9514,13 +9424,13 @@
     </row>
     <row r="337" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
-        <v>957</v>
+        <v>945</v>
       </c>
       <c r="B337" s="5" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
       <c r="D337" s="23">
         <v>4000</v>
@@ -9528,13 +9438,13 @@
     </row>
     <row r="338" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
-        <v>958</v>
+        <v>946</v>
       </c>
       <c r="B338" s="5" t="s">
-        <v>617</v>
+        <v>605</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>586</v>
+        <v>574</v>
       </c>
       <c r="D338" s="23">
         <v>2500</v>
@@ -9542,13 +9452,13 @@
     </row>
     <row r="339" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A339" s="2" t="s">
-        <v>959</v>
+        <v>947</v>
       </c>
       <c r="B339" s="5" t="s">
-        <v>618</v>
+        <v>606</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>587</v>
+        <v>575</v>
       </c>
       <c r="D339" s="23">
         <v>5000</v>
@@ -9556,13 +9466,13 @@
     </row>
     <row r="340" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A340" s="2" t="s">
-        <v>960</v>
+        <v>948</v>
       </c>
       <c r="B340" s="5" t="s">
-        <v>619</v>
+        <v>607</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
       <c r="D340" s="23">
         <v>6000</v>
@@ -9570,13 +9480,13 @@
     </row>
     <row r="341" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A341" s="2" t="s">
-        <v>961</v>
+        <v>949</v>
       </c>
       <c r="B341" s="5" t="s">
-        <v>620</v>
+        <v>608</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
       <c r="D341" s="23">
         <v>9500</v>
@@ -9584,13 +9494,13 @@
     </row>
     <row r="342" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A342" s="2" t="s">
-        <v>962</v>
+        <v>950</v>
       </c>
       <c r="B342" s="5" t="s">
-        <v>621</v>
+        <v>609</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="D342" s="23">
         <v>11500</v>
@@ -9598,13 +9508,13 @@
     </row>
     <row r="343" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A343" s="18" t="s">
-        <v>963</v>
+        <v>951</v>
       </c>
       <c r="B343" s="5" t="s">
-        <v>622</v>
+        <v>610</v>
       </c>
       <c r="C343" s="6" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="D343" s="23">
         <v>6500</v>
@@ -9612,13 +9522,13 @@
     </row>
     <row r="344" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A344" s="18" t="s">
-        <v>964</v>
+        <v>952</v>
       </c>
       <c r="B344" s="5" t="s">
-        <v>623</v>
+        <v>611</v>
       </c>
       <c r="C344" s="6" t="s">
-        <v>1038</v>
+        <v>1019</v>
       </c>
       <c r="D344" s="23">
         <v>8500</v>
@@ -9627,13 +9537,13 @@
     </row>
     <row r="345" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A345" s="2" t="s">
-        <v>965</v>
+        <v>953</v>
       </c>
       <c r="B345" s="5" t="s">
-        <v>624</v>
+        <v>612</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="D345" s="23">
         <v>2500</v>
@@ -9641,13 +9551,13 @@
     </row>
     <row r="346" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A346" s="2" t="s">
-        <v>966</v>
+        <v>954</v>
       </c>
       <c r="B346" s="5" t="s">
-        <v>625</v>
+        <v>613</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
       <c r="D346" s="23">
         <v>3500</v>
@@ -9655,13 +9565,13 @@
     </row>
     <row r="347" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A347" s="2" t="s">
-        <v>1023</v>
+        <v>1004</v>
       </c>
       <c r="B347" s="5" t="s">
-        <v>626</v>
+        <v>614</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>594</v>
+        <v>582</v>
       </c>
       <c r="D347" s="23">
         <v>2200</v>
@@ -9669,13 +9579,13 @@
     </row>
     <row r="348" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A348" s="2" t="s">
-        <v>1024</v>
+        <v>1005</v>
       </c>
       <c r="B348" s="5" t="s">
-        <v>627</v>
+        <v>615</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="D348" s="23">
         <v>6600</v>
@@ -9683,13 +9593,13 @@
     </row>
     <row r="349" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A349" s="2" t="s">
-        <v>1025</v>
+        <v>1006</v>
       </c>
       <c r="B349" s="5" t="s">
-        <v>628</v>
+        <v>616</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>1192</v>
+        <v>1173</v>
       </c>
       <c r="D349" s="23">
         <v>6000</v>
@@ -9697,13 +9607,13 @@
     </row>
     <row r="350" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A350" s="2" t="s">
-        <v>1026</v>
+        <v>1007</v>
       </c>
       <c r="B350" s="5" t="s">
-        <v>629</v>
+        <v>617</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>676</v>
+        <v>664</v>
       </c>
       <c r="D350" s="23">
         <v>550</v>
@@ -9711,13 +9621,13 @@
     </row>
     <row r="351" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A351" s="2" t="s">
-        <v>1027</v>
+        <v>1008</v>
       </c>
       <c r="B351" s="5" t="s">
-        <v>630</v>
+        <v>618</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>677</v>
+        <v>665</v>
       </c>
       <c r="D351" s="23">
         <v>1300</v>
@@ -9725,13 +9635,13 @@
     </row>
     <row r="352" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A352" s="2" t="s">
-        <v>1028</v>
+        <v>1009</v>
       </c>
       <c r="B352" s="5" t="s">
-        <v>631</v>
+        <v>619</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>642</v>
+        <v>630</v>
       </c>
       <c r="D352" s="23">
         <v>1000</v>
@@ -9739,13 +9649,13 @@
     </row>
     <row r="353" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A353" s="2" t="s">
-        <v>1029</v>
+        <v>1010</v>
       </c>
       <c r="B353" s="5" t="s">
-        <v>632</v>
+        <v>620</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>643</v>
+        <v>631</v>
       </c>
       <c r="D353" s="23">
         <v>1000</v>
@@ -9753,30 +9663,30 @@
     </row>
     <row r="354" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A354" s="22" t="s">
-        <v>1030</v>
+        <v>1011</v>
       </c>
       <c r="B354" s="5" t="s">
-        <v>743</v>
+        <v>731</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>1039</v>
+        <v>1020</v>
       </c>
       <c r="D354" s="23">
         <v>10000</v>
       </c>
       <c r="E354" t="s">
-        <v>1042</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="355" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A355" s="2" t="s">
-        <v>1046</v>
+        <v>1027</v>
       </c>
       <c r="B355" s="10" t="s">
-        <v>645</v>
+        <v>633</v>
       </c>
       <c r="C355" s="6" t="s">
-        <v>646</v>
+        <v>634</v>
       </c>
       <c r="D355" s="23">
         <v>16000</v>
@@ -9784,13 +9694,13 @@
     </row>
     <row r="356" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A356" s="2" t="s">
-        <v>1047</v>
+        <v>1028</v>
       </c>
       <c r="B356" s="10" t="s">
-        <v>648</v>
+        <v>636</v>
       </c>
       <c r="C356" s="6" t="s">
-        <v>647</v>
+        <v>635</v>
       </c>
       <c r="D356" s="23">
         <v>38000</v>
@@ -9798,13 +9708,13 @@
     </row>
     <row r="357" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A357" s="2" t="s">
-        <v>1048</v>
+        <v>1029</v>
       </c>
       <c r="B357" s="10" t="s">
-        <v>650</v>
+        <v>638</v>
       </c>
       <c r="C357" s="6" t="s">
-        <v>651</v>
+        <v>639</v>
       </c>
       <c r="D357" s="23">
         <v>5000</v>
@@ -9812,13 +9722,13 @@
     </row>
     <row r="358" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A358" s="2" t="s">
-        <v>1050</v>
+        <v>1031</v>
       </c>
       <c r="B358" s="10" t="s">
-        <v>649</v>
+        <v>637</v>
       </c>
       <c r="C358" s="6" t="s">
-        <v>652</v>
+        <v>640</v>
       </c>
       <c r="D358" s="23">
         <v>14000</v>
@@ -9826,13 +9736,13 @@
     </row>
     <row r="359" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A359" s="2" t="s">
-        <v>1051</v>
+        <v>1032</v>
       </c>
       <c r="B359" s="10" t="s">
-        <v>653</v>
+        <v>641</v>
       </c>
       <c r="C359" s="6" t="s">
-        <v>658</v>
+        <v>646</v>
       </c>
       <c r="D359" s="23">
         <v>7000</v>
@@ -9840,13 +9750,13 @@
     </row>
     <row r="360" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A360" s="2" t="s">
-        <v>1052</v>
+        <v>1033</v>
       </c>
       <c r="B360" s="10" t="s">
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="C360" s="6" t="s">
-        <v>659</v>
+        <v>647</v>
       </c>
       <c r="D360" s="23">
         <v>8000</v>
@@ -9854,13 +9764,13 @@
     </row>
     <row r="361" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A361" s="2" t="s">
-        <v>1053</v>
+        <v>1034</v>
       </c>
       <c r="B361" s="10" t="s">
-        <v>655</v>
+        <v>643</v>
       </c>
       <c r="C361" s="6" t="s">
-        <v>660</v>
+        <v>648</v>
       </c>
       <c r="D361" s="23">
         <v>9000</v>
@@ -9868,13 +9778,13 @@
     </row>
     <row r="362" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A362" s="2" t="s">
-        <v>1054</v>
+        <v>1035</v>
       </c>
       <c r="B362" s="10" t="s">
-        <v>656</v>
+        <v>644</v>
       </c>
       <c r="C362" s="6" t="s">
-        <v>759</v>
+        <v>747</v>
       </c>
       <c r="D362" s="23">
         <v>20000</v>
@@ -9882,13 +9792,13 @@
     </row>
     <row r="363" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A363" s="2" t="s">
-        <v>1055</v>
+        <v>1036</v>
       </c>
       <c r="B363" s="10" t="s">
-        <v>657</v>
+        <v>645</v>
       </c>
       <c r="C363" s="6" t="s">
-        <v>760</v>
+        <v>748</v>
       </c>
       <c r="D363" s="23">
         <v>24000</v>
@@ -9896,13 +9806,13 @@
     </row>
     <row r="364" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A364" s="2" t="s">
-        <v>1056</v>
+        <v>1037</v>
       </c>
       <c r="B364" s="10" t="s">
-        <v>744</v>
+        <v>732</v>
       </c>
       <c r="C364" s="6" t="s">
-        <v>761</v>
+        <v>749</v>
       </c>
       <c r="D364" s="23">
         <v>26000</v>
@@ -9910,28 +9820,28 @@
     </row>
     <row r="365" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A365" s="2" t="s">
-        <v>1057</v>
+        <v>1038</v>
       </c>
       <c r="B365" s="10" t="s">
-        <v>748</v>
+        <v>736</v>
       </c>
       <c r="C365" s="6" t="s">
-        <v>763</v>
+        <v>751</v>
       </c>
       <c r="D365" s="23">
         <v>33000</v>
       </c>
-      <c r="E365" s="38"/>
+      <c r="E365" s="34"/>
     </row>
     <row r="366" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A366" s="2" t="s">
-        <v>1058</v>
+        <v>1039</v>
       </c>
       <c r="B366" s="10" t="s">
-        <v>749</v>
+        <v>737</v>
       </c>
       <c r="C366" s="6" t="s">
-        <v>764</v>
+        <v>752</v>
       </c>
       <c r="D366" s="23">
         <v>33000</v>
@@ -9939,13 +9849,13 @@
     </row>
     <row r="367" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A367" s="2" t="s">
-        <v>1059</v>
+        <v>1040</v>
       </c>
       <c r="B367" s="10" t="s">
-        <v>750</v>
+        <v>738</v>
       </c>
       <c r="C367" s="6" t="s">
-        <v>765</v>
+        <v>753</v>
       </c>
       <c r="D367" s="23">
         <v>9500</v>
@@ -9953,13 +9863,13 @@
     </row>
     <row r="368" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A368" s="2" t="s">
-        <v>1060</v>
+        <v>1041</v>
       </c>
       <c r="B368" s="10" t="s">
-        <v>751</v>
+        <v>739</v>
       </c>
       <c r="C368" s="6" t="s">
-        <v>762</v>
+        <v>750</v>
       </c>
       <c r="D368" s="23">
         <v>16900</v>
@@ -9967,13 +9877,13 @@
     </row>
     <row r="369" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="2" t="s">
-        <v>1061</v>
+        <v>1042</v>
       </c>
       <c r="B369" s="10" t="s">
-        <v>752</v>
+        <v>740</v>
       </c>
       <c r="C369" s="6" t="s">
-        <v>771</v>
+        <v>759</v>
       </c>
       <c r="D369" s="23">
         <v>5000</v>
@@ -9981,13 +9891,13 @@
     </row>
     <row r="370" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A370" s="2" t="s">
-        <v>1062</v>
+        <v>1043</v>
       </c>
       <c r="B370" s="10" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="C370" s="6" t="s">
-        <v>772</v>
+        <v>760</v>
       </c>
       <c r="D370" s="23">
         <v>7000</v>
@@ -9995,13 +9905,13 @@
     </row>
     <row r="371" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A371" s="2" t="s">
-        <v>1063</v>
+        <v>1044</v>
       </c>
       <c r="B371" s="10" t="s">
-        <v>754</v>
+        <v>742</v>
       </c>
       <c r="C371" s="6" t="s">
-        <v>661</v>
+        <v>649</v>
       </c>
       <c r="D371" s="23">
         <v>6000</v>
@@ -10009,13 +9919,13 @@
     </row>
     <row r="372" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A372" s="2" t="s">
-        <v>1064</v>
+        <v>1045</v>
       </c>
       <c r="B372" s="10" t="s">
-        <v>755</v>
+        <v>743</v>
       </c>
       <c r="C372" s="6" t="s">
-        <v>745</v>
+        <v>733</v>
       </c>
       <c r="D372" s="23">
         <v>6000</v>
@@ -10023,13 +9933,13 @@
     </row>
     <row r="373" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="s">
-        <v>1065</v>
+        <v>1046</v>
       </c>
       <c r="B373" s="10" t="s">
-        <v>756</v>
+        <v>744</v>
       </c>
       <c r="C373" s="6" t="s">
-        <v>746</v>
+        <v>734</v>
       </c>
       <c r="D373" s="23">
         <v>10000</v>
@@ -10037,13 +9947,13 @@
     </row>
     <row r="374" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A374" s="2" t="s">
-        <v>1066</v>
+        <v>1047</v>
       </c>
       <c r="B374" s="5" t="s">
-        <v>644</v>
+        <v>632</v>
       </c>
       <c r="C374" s="6" t="s">
-        <v>668</v>
+        <v>656</v>
       </c>
       <c r="D374" s="23">
         <v>10000</v>
@@ -10051,13 +9961,13 @@
     </row>
     <row r="375" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A375" s="2" t="s">
-        <v>1067</v>
+        <v>1048</v>
       </c>
       <c r="B375" s="5" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="C375" s="6" t="s">
-        <v>740</v>
+        <v>728</v>
       </c>
       <c r="D375" s="23">
         <v>5500</v>
@@ -10065,13 +9975,13 @@
     </row>
     <row r="376" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A376" s="2" t="s">
-        <v>1068</v>
+        <v>1049</v>
       </c>
       <c r="B376" s="5" t="s">
-        <v>735</v>
+        <v>723</v>
       </c>
       <c r="C376" s="6" t="s">
-        <v>741</v>
+        <v>729</v>
       </c>
       <c r="D376" s="23">
         <v>3000</v>
@@ -10079,13 +9989,13 @@
     </row>
     <row r="377" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A377" s="2" t="s">
-        <v>1069</v>
+        <v>1050</v>
       </c>
       <c r="B377" s="5" t="s">
-        <v>736</v>
+        <v>724</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>1040</v>
+        <v>1021</v>
       </c>
       <c r="D377" s="23">
         <v>5500</v>
@@ -10093,13 +10003,13 @@
     </row>
     <row r="378" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A378" s="2" t="s">
-        <v>1070</v>
+        <v>1051</v>
       </c>
       <c r="B378" s="10" t="s">
-        <v>742</v>
+        <v>730</v>
       </c>
       <c r="C378" s="6" t="s">
-        <v>737</v>
+        <v>725</v>
       </c>
       <c r="D378" s="23">
         <v>2750</v>
@@ -10107,13 +10017,13 @@
     </row>
     <row r="379" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A379" s="2" t="s">
-        <v>1071</v>
+        <v>1052</v>
       </c>
       <c r="B379" s="10" t="s">
-        <v>1049</v>
+        <v>1030</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>728</v>
+        <v>716</v>
       </c>
       <c r="D379" s="23">
         <v>4000</v>
@@ -10121,13 +10031,13 @@
     </row>
     <row r="380" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="s">
-        <v>1072</v>
+        <v>1053</v>
       </c>
       <c r="B380" s="5" t="s">
-        <v>641</v>
+        <v>629</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>729</v>
+        <v>717</v>
       </c>
       <c r="D380" s="23">
         <v>1000</v>
@@ -10135,13 +10045,13 @@
     </row>
     <row r="381" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A381" s="2" t="s">
-        <v>967</v>
+        <v>955</v>
       </c>
       <c r="B381" s="5" t="s">
-        <v>730</v>
+        <v>718</v>
       </c>
       <c r="C381" s="5" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="D381" s="23">
         <v>5000</v>
@@ -10149,13 +10059,13 @@
     </row>
     <row r="382" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A382" s="2" t="s">
-        <v>968</v>
+        <v>956</v>
       </c>
       <c r="B382" s="5" t="s">
-        <v>732</v>
+        <v>720</v>
       </c>
       <c r="C382" s="5" t="s">
-        <v>733</v>
+        <v>721</v>
       </c>
       <c r="D382" s="23">
         <v>7000</v>
@@ -10163,13 +10073,13 @@
     </row>
     <row r="383" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A383" s="18" t="s">
-        <v>1031</v>
+        <v>1012</v>
       </c>
       <c r="B383" s="10" t="s">
-        <v>747</v>
+        <v>735</v>
       </c>
       <c r="C383" s="6" t="s">
-        <v>1041</v>
+        <v>1022</v>
       </c>
       <c r="D383" s="23">
         <v>2500</v>
@@ -10177,13 +10087,13 @@
     </row>
     <row r="384" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A384" s="2" t="s">
-        <v>1073</v>
+        <v>1054</v>
       </c>
       <c r="B384" s="10" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="C384" s="5" t="s">
-        <v>768</v>
+        <v>756</v>
       </c>
       <c r="D384" s="23">
         <v>15000</v>
@@ -10191,13 +10101,13 @@
     </row>
     <row r="385" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A385" s="2" t="s">
-        <v>1074</v>
+        <v>1055</v>
       </c>
       <c r="B385" s="5" t="s">
-        <v>641</v>
+        <v>629</v>
       </c>
       <c r="C385" s="5" t="s">
-        <v>767</v>
+        <v>755</v>
       </c>
       <c r="D385" s="23">
         <v>5000</v>
@@ -10205,13 +10115,13 @@
     </row>
     <row r="386" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A386" s="2" t="s">
-        <v>969</v>
+        <v>957</v>
       </c>
       <c r="B386" s="10" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
       <c r="C386" s="5" t="s">
-        <v>769</v>
+        <v>757</v>
       </c>
       <c r="D386" s="23">
         <v>50000</v>
@@ -10219,13 +10129,13 @@
     </row>
     <row r="387" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A387" s="2" t="s">
-        <v>1075</v>
+        <v>1056</v>
       </c>
       <c r="B387" s="10" t="s">
-        <v>766</v>
+        <v>754</v>
       </c>
       <c r="C387" s="5" t="s">
-        <v>770</v>
+        <v>758</v>
       </c>
       <c r="D387" s="23">
         <v>150000</v>
@@ -10256,11 +10166,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H62"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10271,851 +10180,833 @@
     <col min="4" max="4" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24">
-        <v>12</v>
-      </c>
-      <c r="B1" s="51" t="s">
-        <v>544</v>
-      </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-    </row>
-    <row r="2" spans="1:4" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
-        <v>0</v>
+    <row r="1" spans="1:4" s="16" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B1" s="47">
+        <v>144</v>
+      </c>
+      <c r="C1" s="48"/>
+      <c r="D1" s="49"/>
+    </row>
+    <row r="2" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
+        <v>958</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>1</v>
+        <v>538</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="16" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
-        <v>970</v>
-      </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="25"/>
-    </row>
-    <row r="4" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
+        <v>529</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
+        <v>959</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>530</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>531</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
-        <v>971</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>550</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>539</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
-        <v>972</v>
-      </c>
-      <c r="B5" s="28" t="s">
-        <v>540</v>
-      </c>
-      <c r="C5" s="28" t="s">
-        <v>541</v>
-      </c>
-      <c r="D5" s="29" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>960</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>708</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="D4" s="26">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="16" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="24" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B5" s="47">
+        <v>145</v>
+      </c>
+      <c r="C5" s="48"/>
+      <c r="D5" s="49"/>
+    </row>
+    <row r="6" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
-        <v>973</v>
-      </c>
-      <c r="B6" s="28" t="s">
-        <v>720</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>719</v>
-      </c>
-      <c r="D6" s="29">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" s="16" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
-        <v>974</v>
-      </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="29"/>
+        <v>36</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="26">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="26">
+        <v>400</v>
+      </c>
     </row>
     <row r="8" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
-        <v>41</v>
+        <v>265</v>
       </c>
       <c r="B8" s="15" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="26">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>692</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="26">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="16" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>693</v>
+      </c>
+      <c r="C10" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="29">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
-        <v>274</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>1076</v>
-      </c>
-      <c r="C9" s="19" t="s">
+      <c r="D10" s="26">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="29">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
-        <v>275</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>1077</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="29">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
-        <v>276</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>704</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="29">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" s="16" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
-        <v>277</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>705</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="29">
-        <v>1850</v>
-      </c>
+      <c r="D11" s="26">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="16" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="24" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B12" s="47">
+        <v>146</v>
+      </c>
+      <c r="C12" s="48"/>
+      <c r="D12" s="49"/>
     </row>
     <row r="13" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
+        <v>269</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>961</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="26">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="22" t="s">
         <v>278</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="19" t="s">
+      <c r="B15" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="29">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" s="16" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="26" t="s">
-        <v>975</v>
-      </c>
-      <c r="B14" s="30"/>
-      <c r="C14" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="29"/>
-    </row>
-    <row r="15" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
-        <v>279</v>
-      </c>
-      <c r="B15" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="29" t="s">
-        <v>46</v>
+      <c r="D15" s="26">
+        <v>500</v>
       </c>
     </row>
     <row r="16" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
-        <v>280</v>
-      </c>
-      <c r="B16" s="28" t="s">
-        <v>976</v>
-      </c>
-      <c r="C16" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" s="29">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="22" t="s">
-        <v>288</v>
-      </c>
-      <c r="B17" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="29">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="22" t="s">
-        <v>289</v>
-      </c>
-      <c r="B18" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>713</v>
+      </c>
+      <c r="D16" s="26">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="28" t="s">
+        <v>903</v>
+      </c>
+      <c r="B17" s="29"/>
+      <c r="C17" s="30" t="s">
+        <v>904</v>
+      </c>
+      <c r="D17" s="26">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="16" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="24" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B18" s="47">
+        <v>147</v>
+      </c>
+      <c r="C18" s="48"/>
+      <c r="D18" s="49"/>
+    </row>
+    <row r="19" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="22" t="s">
+        <v>962</v>
+      </c>
+      <c r="B19" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="19" t="s">
-        <v>725</v>
-      </c>
-      <c r="D18" s="29">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="32" t="s">
-        <v>915</v>
-      </c>
-      <c r="B19" s="33"/>
-      <c r="C19" s="34" t="s">
-        <v>916</v>
-      </c>
-      <c r="D19" s="29">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" s="16" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="26" t="s">
-        <v>977</v>
-      </c>
-      <c r="B20" s="30"/>
-      <c r="C20" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="D20" s="29"/>
-    </row>
-    <row r="21" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="22" t="s">
-        <v>978</v>
-      </c>
-      <c r="B21" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="C21" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="D21" s="29">
+      <c r="C19" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="26">
         <v>210</v>
       </c>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+    </row>
+    <row r="20" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="22" t="s">
+        <v>963</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="26">
+        <v>420</v>
+      </c>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+    </row>
+    <row r="21" spans="1:6" s="16" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="24" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B21" s="47">
+        <v>148</v>
+      </c>
+      <c r="C21" s="48"/>
+      <c r="D21" s="49"/>
       <c r="E21" s="21"/>
       <c r="F21" s="21"/>
     </row>
-    <row r="22" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
-        <v>979</v>
-      </c>
-      <c r="B22" s="33" t="s">
-        <v>181</v>
-      </c>
-      <c r="C22" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="D22" s="29">
-        <v>420</v>
-      </c>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-    </row>
-    <row r="23" spans="1:6" s="16" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="26" t="s">
-        <v>980</v>
-      </c>
-      <c r="B23" s="30"/>
-      <c r="C23" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="D23" s="29"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-    </row>
-    <row r="24" spans="1:6" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" s="26">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" s="26">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
-        <v>296</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="D24" s="29">
-        <v>300</v>
+        <v>988</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>533</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D24" s="26">
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
-        <v>295</v>
+        <v>989</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>1078</v>
+        <v>761</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="D25" s="29">
-        <v>750</v>
+        <v>964</v>
+      </c>
+      <c r="D25" s="26">
+        <v>1260</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
-        <v>1007</v>
-      </c>
-      <c r="B26" s="33" t="s">
-        <v>545</v>
-      </c>
-      <c r="C26" s="34" t="s">
-        <v>1079</v>
-      </c>
-      <c r="D26" s="29">
-        <v>100</v>
+        <v>972</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>536</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>537</v>
+      </c>
+      <c r="D26" s="26">
+        <v>520</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
-        <v>1008</v>
+        <v>973</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>773</v>
+        <v>535</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>983</v>
-      </c>
-      <c r="D27" s="29">
-        <v>1260</v>
+        <v>686</v>
+      </c>
+      <c r="D27" s="26">
+        <v>520</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
-        <v>991</v>
+        <v>311</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>548</v>
+        <v>75</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>549</v>
-      </c>
-      <c r="D28" s="29">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="22" t="s">
-        <v>992</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>547</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>698</v>
-      </c>
-      <c r="D29" s="29">
-        <v>520</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="D28" s="26">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="24" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B29" s="47">
+        <v>149</v>
+      </c>
+      <c r="C29" s="48"/>
+      <c r="D29" s="49"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
-        <v>321</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="C30" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="D30" s="29">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="26" t="s">
-        <v>981</v>
-      </c>
-      <c r="B31" s="30"/>
-      <c r="C31" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="D31" s="29"/>
+        <v>974</v>
+      </c>
+      <c r="B30" s="31" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>971</v>
+      </c>
+      <c r="D30" s="26">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="22" t="s">
+        <v>975</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>689</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>691</v>
+      </c>
+      <c r="D31" s="26">
+        <v>320</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="22" t="s">
-        <v>993</v>
-      </c>
-      <c r="B32" s="35" t="s">
-        <v>1080</v>
-      </c>
-      <c r="C32" s="34" t="s">
-        <v>990</v>
-      </c>
-      <c r="D32" s="29">
-        <v>200</v>
+      <c r="A32" s="28" t="s">
+        <v>772</v>
+      </c>
+      <c r="B32" s="31" t="s">
+        <v>694</v>
+      </c>
+      <c r="C32" s="30" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D32" s="26">
+        <v>150</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
-        <v>994</v>
-      </c>
-      <c r="B33" s="28" t="s">
-        <v>701</v>
-      </c>
-      <c r="C33" s="19" t="s">
-        <v>703</v>
-      </c>
-      <c r="D33" s="29">
-        <v>320</v>
+        <v>976</v>
+      </c>
+      <c r="B33" s="31" t="s">
+        <v>695</v>
+      </c>
+      <c r="C33" s="30" t="s">
+        <v>710</v>
+      </c>
+      <c r="D33" s="26">
+        <v>160</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="32" t="s">
-        <v>784</v>
-      </c>
-      <c r="B34" s="35" t="s">
-        <v>706</v>
-      </c>
-      <c r="C34" s="34" t="s">
-        <v>1081</v>
-      </c>
-      <c r="D34" s="29">
-        <v>150</v>
+      <c r="A34" s="22" t="s">
+        <v>977</v>
+      </c>
+      <c r="B34" s="31" t="s">
+        <v>696</v>
+      </c>
+      <c r="C34" s="30" t="s">
+        <v>697</v>
+      </c>
+      <c r="D34" s="26">
+        <v>110</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="22" t="s">
-        <v>995</v>
-      </c>
-      <c r="B35" s="35" t="s">
-        <v>707</v>
-      </c>
-      <c r="C35" s="34" t="s">
-        <v>722</v>
-      </c>
-      <c r="D35" s="29">
-        <v>160</v>
+      <c r="A35" s="28" t="s">
+        <v>768</v>
+      </c>
+      <c r="B35" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="C35" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="D35" s="26">
+        <v>350</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="22" t="s">
-        <v>996</v>
-      </c>
-      <c r="B36" s="35" t="s">
-        <v>708</v>
-      </c>
-      <c r="C36" s="34" t="s">
+        <v>978</v>
+      </c>
+      <c r="B36" s="31" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C36" s="30" t="s">
+        <v>965</v>
+      </c>
+      <c r="D36" s="26">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="22" t="s">
+        <v>979</v>
+      </c>
+      <c r="B37" s="31" t="s">
+        <v>711</v>
+      </c>
+      <c r="C37" s="30" t="s">
         <v>709</v>
       </c>
-      <c r="D36" s="29">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="32" t="s">
-        <v>780</v>
-      </c>
-      <c r="B37" s="35" t="s">
-        <v>183</v>
-      </c>
-      <c r="C37" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D37" s="29">
-        <v>350</v>
+      <c r="D37" s="26">
+        <v>3200</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="22" t="s">
-        <v>997</v>
-      </c>
-      <c r="B38" s="35" t="s">
-        <v>1022</v>
-      </c>
-      <c r="C38" s="34" t="s">
-        <v>984</v>
-      </c>
-      <c r="D38" s="29">
-        <v>500</v>
+        <v>980</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>712</v>
+      </c>
+      <c r="D38" s="26">
+        <v>420</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="22" t="s">
-        <v>998</v>
-      </c>
-      <c r="B39" s="35" t="s">
-        <v>723</v>
-      </c>
-      <c r="C39" s="34" t="s">
-        <v>721</v>
-      </c>
-      <c r="D39" s="29">
-        <v>3200</v>
+        <v>991</v>
+      </c>
+      <c r="B39" s="29" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C39" s="30" t="s">
+        <v>890</v>
+      </c>
+      <c r="D39" s="26">
+        <v>800</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="22" t="s">
-        <v>999</v>
-      </c>
-      <c r="B40" s="15" t="s">
-        <v>323</v>
-      </c>
-      <c r="C40" s="19" t="s">
-        <v>724</v>
-      </c>
-      <c r="D40" s="29">
-        <v>420</v>
+        <v>992</v>
+      </c>
+      <c r="B40" s="29" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C40" s="30" t="s">
+        <v>891</v>
+      </c>
+      <c r="D40" s="26">
+        <v>920</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="22" t="s">
-        <v>1010</v>
-      </c>
-      <c r="B41" s="33" t="s">
-        <v>1082</v>
-      </c>
-      <c r="C41" s="34" t="s">
-        <v>902</v>
-      </c>
-      <c r="D41" s="29">
-        <v>800</v>
+        <v>993</v>
+      </c>
+      <c r="B41" s="29" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C41" s="30" t="s">
+        <v>892</v>
+      </c>
+      <c r="D41" s="26">
+        <v>1150</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="22" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B42" s="33" t="s">
-        <v>1083</v>
-      </c>
-      <c r="C42" s="34" t="s">
-        <v>903</v>
-      </c>
-      <c r="D42" s="29">
-        <v>920</v>
+        <v>994</v>
+      </c>
+      <c r="B42" s="29" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C42" s="30" t="s">
+        <v>893</v>
+      </c>
+      <c r="D42" s="26">
+        <v>1350</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="22" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B43" s="33" t="s">
-        <v>1084</v>
-      </c>
-      <c r="C43" s="34" t="s">
-        <v>904</v>
-      </c>
-      <c r="D43" s="29">
-        <v>1150</v>
+        <v>995</v>
+      </c>
+      <c r="B43" s="29" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C43" s="30" t="s">
+        <v>896</v>
+      </c>
+      <c r="D43" s="26">
+        <v>900</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="22" t="s">
-        <v>1013</v>
-      </c>
-      <c r="B44" s="33" t="s">
-        <v>1085</v>
-      </c>
-      <c r="C44" s="34" t="s">
-        <v>905</v>
-      </c>
-      <c r="D44" s="29">
-        <v>1350</v>
+        <v>996</v>
+      </c>
+      <c r="B44" s="29" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C44" s="30" t="s">
+        <v>895</v>
+      </c>
+      <c r="D44" s="26">
+        <v>1150</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="22" t="s">
-        <v>1014</v>
-      </c>
-      <c r="B45" s="33" t="s">
-        <v>1086</v>
-      </c>
-      <c r="C45" s="34" t="s">
-        <v>908</v>
-      </c>
-      <c r="D45" s="29">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+        <v>997</v>
+      </c>
+      <c r="B45" s="29" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C45" s="30" t="s">
+        <v>894</v>
+      </c>
+      <c r="D45" s="26">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="22" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B46" s="33" t="s">
-        <v>1087</v>
-      </c>
-      <c r="C46" s="34" t="s">
-        <v>907</v>
-      </c>
-      <c r="D46" s="29">
+        <v>998</v>
+      </c>
+      <c r="B46" s="29" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C46" s="30" t="s">
+        <v>897</v>
+      </c>
+      <c r="D46" s="26">
         <v>1150</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="22" t="s">
-        <v>1016</v>
-      </c>
-      <c r="B47" s="33" t="s">
-        <v>1088</v>
-      </c>
-      <c r="C47" s="34" t="s">
-        <v>906</v>
-      </c>
-      <c r="D47" s="29">
-        <v>1250</v>
+        <v>999</v>
+      </c>
+      <c r="B47" s="29" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C47" s="30" t="s">
+        <v>898</v>
+      </c>
+      <c r="D47" s="26">
+        <v>1350</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="22" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B48" s="33" t="s">
-        <v>1089</v>
-      </c>
-      <c r="C48" s="34" t="s">
-        <v>909</v>
-      </c>
-      <c r="D48" s="29">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="22" t="s">
-        <v>1018</v>
-      </c>
-      <c r="B49" s="33" t="s">
-        <v>1090</v>
-      </c>
-      <c r="C49" s="34" t="s">
-        <v>910</v>
-      </c>
-      <c r="D49" s="29">
-        <v>1350</v>
-      </c>
+        <v>1000</v>
+      </c>
+      <c r="B48" s="29" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C48" s="30" t="s">
+        <v>899</v>
+      </c>
+      <c r="D48" s="26">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="28" t="s">
+        <v>969</v>
+      </c>
+      <c r="B49" s="29" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C49" s="30" t="s">
+        <v>967</v>
+      </c>
+      <c r="D49" s="26">
+        <v>390</v>
+      </c>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="21"/>
     </row>
     <row r="50" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="22" t="s">
-        <v>1019</v>
-      </c>
-      <c r="B50" s="33" t="s">
-        <v>1091</v>
-      </c>
-      <c r="C50" s="34" t="s">
-        <v>911</v>
-      </c>
-      <c r="D50" s="29">
-        <v>1550</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="32" t="s">
-        <v>988</v>
-      </c>
-      <c r="B51" s="33" t="s">
-        <v>1092</v>
-      </c>
-      <c r="C51" s="34" t="s">
-        <v>986</v>
-      </c>
-      <c r="D51" s="29">
+      <c r="A50" s="28" t="s">
+        <v>970</v>
+      </c>
+      <c r="B50" s="29" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>1171</v>
+      </c>
+      <c r="D50" s="26">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="22" t="s">
+        <v>295</v>
+      </c>
+      <c r="B51" s="15" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C51" s="19" t="s">
+        <v>706</v>
+      </c>
+      <c r="D51" s="26">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="24" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B52" s="47">
+        <v>150</v>
+      </c>
+      <c r="C52" s="48"/>
+      <c r="D52" s="49"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="22" t="s">
+        <v>981</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>700</v>
+      </c>
+      <c r="C53" s="19" t="s">
+        <v>701</v>
+      </c>
+      <c r="D53" s="26">
         <v>390</v>
       </c>
-      <c r="E51" s="21"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="21"/>
-      <c r="H51" s="21"/>
-    </row>
-    <row r="52" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="32" t="s">
-        <v>989</v>
-      </c>
-      <c r="B52" s="33" t="s">
-        <v>1093</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>1190</v>
-      </c>
-      <c r="D52" s="29">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="22" t="s">
-        <v>305</v>
-      </c>
-      <c r="B53" s="15" t="s">
-        <v>1020</v>
-      </c>
-      <c r="C53" s="19" t="s">
-        <v>718</v>
-      </c>
-      <c r="D53" s="29">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="26" t="s">
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="22" t="s">
         <v>982</v>
       </c>
-      <c r="B54" s="30"/>
-      <c r="C54" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="D54" s="29"/>
+      <c r="B54" s="15" t="s">
+        <v>703</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>702</v>
+      </c>
+      <c r="D54" s="26">
+        <v>280</v>
+      </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="22" t="s">
-        <v>1000</v>
+        <v>983</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>712</v>
+        <v>1002</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>713</v>
-      </c>
-      <c r="D55" s="29">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1172</v>
+      </c>
+      <c r="D55" s="26">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="22" t="s">
-        <v>1001</v>
+        <v>984</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>715</v>
+        <v>900</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>714</v>
-      </c>
-      <c r="D56" s="29">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+        <v>762</v>
+      </c>
+      <c r="D56" s="26">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="22" t="s">
-        <v>1002</v>
+        <v>985</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>1021</v>
+        <v>901</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>1191</v>
-      </c>
-      <c r="D57" s="29">
-        <v>570</v>
+        <v>704</v>
+      </c>
+      <c r="D57" s="26">
+        <v>680</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="22" t="s">
-        <v>1003</v>
+        <v>986</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>912</v>
+        <v>902</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>774</v>
-      </c>
-      <c r="D58" s="29">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="22" t="s">
-        <v>1004</v>
-      </c>
-      <c r="B59" s="15" t="s">
-        <v>913</v>
-      </c>
-      <c r="C59" s="19" t="s">
-        <v>716</v>
-      </c>
-      <c r="D59" s="29">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="22" t="s">
-        <v>1005</v>
-      </c>
-      <c r="B60" s="15" t="s">
-        <v>914</v>
-      </c>
-      <c r="C60" s="19" t="s">
-        <v>717</v>
-      </c>
-      <c r="D60" s="29">
+        <v>705</v>
+      </c>
+      <c r="D58" s="26">
         <v>890</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="32" t="s">
-        <v>1006</v>
-      </c>
-      <c r="B61" s="33" t="s">
-        <v>1094</v>
-      </c>
-      <c r="C61" s="34" t="s">
-        <v>1150</v>
-      </c>
-      <c r="D61" s="29">
+    <row r="59" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="28" t="s">
+        <v>987</v>
+      </c>
+      <c r="B59" s="29" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C59" s="30" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D59" s="26">
         <v>1750</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="B62" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D62" s="23">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D60" s="23">
         <v>500</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="7">
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B52:D52"/>
     <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B21:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
